--- a/PLTR.xlsx
+++ b/PLTR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F26A48A1-F84A-4B2A-A7C8-5453E60D357B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358196C8-47DC-4D69-8BCB-82998E37B0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8475" yWindow="75" windowWidth="20310" windowHeight="14910" activeTab="1" xr2:uid="{AE04E6E4-A652-4DFB-A34B-BE287D9B2752}"/>
+    <workbookView xWindow="8490" yWindow="165" windowWidth="20310" windowHeight="14910" activeTab="1" xr2:uid="{AE04E6E4-A652-4DFB-A34B-BE287D9B2752}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Price</t>
   </si>
@@ -96,26 +96,130 @@
   </si>
   <si>
     <t>Q422</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>S&amp;M</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>G&amp;A</t>
+  </si>
+  <si>
+    <t>OpEx</t>
+  </si>
+  <si>
+    <t>OpInc</t>
+  </si>
+  <si>
+    <t>IntInc</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>S/O</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Revenue Growth</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Prepaids</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>ONCL</t>
+  </si>
+  <si>
+    <t>CFFO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,17 +231,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -151,6 +283,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEB399B2-013D-A4CD-A207-5FB2DC044CED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981825" y="47625"/>
+          <a:ext cx="0" cy="6800850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6B83D77-2A6D-4552-92D1-6D2821526D10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12496800" y="0"/>
+          <a:ext cx="0" cy="6638925"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,15 +687,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144E9D3E-317D-4992-A1EC-7C2CA7695A60}">
-  <dimension ref="K2:L7"/>
+  <dimension ref="K2:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
         <v>0</v>
       </c>
@@ -466,29 +703,55 @@
         <v>9.31</v>
       </c>
     </row>
-    <row r="3" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="L3" s="3">
+        <v>2036</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="L4" s="3">
+        <f>L3*L2</f>
+        <v>18955.16</v>
+      </c>
+    </row>
+    <row r="5" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="L5" s="3">
+        <v>2585</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
         <v>5</v>
+      </c>
+      <c r="L7" s="3">
+        <f>L4-L5+L6</f>
+        <v>16370.16</v>
       </c>
     </row>
   </sheetData>
@@ -498,26 +761,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CE0236-0D83-41C7-BB37-83829D679D7F}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:AC40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="14" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -554,13 +819,1646 @@
       <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="S2">
+        <v>2020</v>
+      </c>
+      <c r="T2">
+        <f>S2+1</f>
+        <v>2021</v>
+      </c>
+      <c r="U2">
+        <f>T2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ref="V2:AC2" si="0">U2+1</f>
+        <v>2023</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6">
+        <v>251.88900000000001</v>
+      </c>
+      <c r="E3" s="6">
+        <v>289.36599999999999</v>
+      </c>
+      <c r="F3" s="6">
+        <v>322.09100000000001</v>
+      </c>
+      <c r="G3" s="6">
+        <v>341.23399999999998</v>
+      </c>
+      <c r="H3" s="6">
+        <v>375.642</v>
+      </c>
+      <c r="I3" s="6">
+        <v>392.14600000000002</v>
+      </c>
+      <c r="J3" s="6">
+        <v>432.86700000000002</v>
+      </c>
+      <c r="K3" s="6">
+        <v>446.35700000000003</v>
+      </c>
+      <c r="L3" s="6">
+        <v>470</v>
+      </c>
+      <c r="M3" s="6">
+        <f>I3*1.25</f>
+        <v>490.1825</v>
+      </c>
+      <c r="N3" s="6">
+        <f>J3*1.25</f>
+        <v>541.08375000000001</v>
+      </c>
+      <c r="S3" s="5">
+        <v>1092.673</v>
+      </c>
+      <c r="T3" s="5">
+        <v>1541.8889999999999</v>
+      </c>
+      <c r="U3" s="5">
+        <f>SUM(K3:N3)</f>
+        <v>1947.6232499999999</v>
+      </c>
+      <c r="V3" s="5">
+        <f>U3*1.2</f>
+        <v>2337.1478999999999</v>
+      </c>
+      <c r="W3" s="5">
+        <f t="shared" ref="W3:X3" si="1">V3*1.2</f>
+        <v>2804.5774799999999</v>
+      </c>
+      <c r="X3" s="5">
+        <f t="shared" si="1"/>
+        <v>3365.492976</v>
+      </c>
+      <c r="Y3" s="5">
+        <f t="shared" ref="Y3:Z3" si="2">X3*1.2</f>
+        <v>4038.5915711999996</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" ref="Z3:AA3" si="3">Y3*1.2</f>
+        <v>4846.3098854399996</v>
+      </c>
+      <c r="AA3" s="5">
+        <f t="shared" si="3"/>
+        <v>5815.5718625279997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <v>68.41</v>
+      </c>
+      <c r="E4" s="13">
+        <v>149.34</v>
+      </c>
+      <c r="F4" s="4">
+        <v>70.503</v>
+      </c>
+      <c r="G4" s="4">
+        <v>74.111000000000004</v>
+      </c>
+      <c r="H4" s="4">
+        <v>90.926000000000002</v>
+      </c>
+      <c r="I4" s="4">
+        <v>86.804000000000002</v>
+      </c>
+      <c r="J4" s="4">
+        <v>87.563000000000002</v>
+      </c>
+      <c r="K4" s="4">
+        <v>94.403000000000006</v>
+      </c>
+      <c r="L4" s="4">
+        <f>L3-L5</f>
+        <v>94</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" ref="M4:N4" si="4">M3-M5</f>
+        <v>98.03649999999999</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="4"/>
+        <v>108.21674999999999</v>
+      </c>
+      <c r="S4" s="3">
+        <v>352.54700000000003</v>
+      </c>
+      <c r="T4" s="3">
+        <v>339.404</v>
+      </c>
+      <c r="U4" s="3">
+        <f>U3-U5</f>
+        <v>389.52464999999984</v>
+      </c>
+      <c r="V4" s="3">
+        <f t="shared" ref="V4:X4" si="5">V3-V5</f>
+        <v>467.42957999999999</v>
+      </c>
+      <c r="W4" s="3">
+        <f t="shared" si="5"/>
+        <v>560.91549600000008</v>
+      </c>
+      <c r="X4" s="3">
+        <f t="shared" si="5"/>
+        <v>673.09859519999964</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" ref="Y4" si="6">Y3-Y5</f>
+        <v>807.71831423999993</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" ref="Z4" si="7">Z3-Z5</f>
+        <v>969.26197708799964</v>
+      </c>
+      <c r="AA4" s="3">
+        <f t="shared" ref="AA4" si="8">AA3-AA5</f>
+        <v>1163.1143725055999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
+        <f>D3-D4</f>
+        <v>183.47900000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <f>E3-E4</f>
+        <v>140.02599999999998</v>
+      </c>
+      <c r="F5" s="4">
+        <f>F3-F4</f>
+        <v>251.58800000000002</v>
+      </c>
+      <c r="G5" s="4">
+        <f>G3-G4</f>
+        <v>267.12299999999999</v>
+      </c>
+      <c r="H5" s="4">
+        <f>H3-H4</f>
+        <v>284.71600000000001</v>
+      </c>
+      <c r="I5" s="4">
+        <f>I3-I4</f>
+        <v>305.34199999999998</v>
+      </c>
+      <c r="J5" s="4">
+        <f>J3-J4</f>
+        <v>345.30400000000003</v>
+      </c>
+      <c r="K5" s="4">
+        <f>K3-K4</f>
+        <v>351.95400000000001</v>
+      </c>
+      <c r="L5" s="4">
+        <f>L3*0.8</f>
+        <v>376</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" ref="M5:N5" si="9">M3*0.8</f>
+        <v>392.14600000000002</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="9"/>
+        <v>432.86700000000002</v>
+      </c>
+      <c r="S5" s="3">
+        <f>S3-S4</f>
+        <v>740.12599999999998</v>
+      </c>
+      <c r="T5" s="3">
+        <f>T3-T4</f>
+        <v>1202.4849999999999</v>
+      </c>
+      <c r="U5" s="3">
+        <f>U3*0.8</f>
+        <v>1558.0986</v>
+      </c>
+      <c r="V5" s="3">
+        <f t="shared" ref="V5:X5" si="10">V3*0.8</f>
+        <v>1869.7183199999999</v>
+      </c>
+      <c r="W5" s="3">
+        <f t="shared" si="10"/>
+        <v>2243.6619839999998</v>
+      </c>
+      <c r="X5" s="3">
+        <f t="shared" si="10"/>
+        <v>2692.3943808000004</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" ref="Y5:Z5" si="11">Y3*0.8</f>
+        <v>3230.8732569599997</v>
+      </c>
+      <c r="Z5" s="3">
+        <f t="shared" ref="Z5:AA5" si="12">Z3*0.8</f>
+        <v>3877.0479083519999</v>
+      </c>
+      <c r="AA5" s="3">
+        <f t="shared" si="12"/>
+        <v>4652.4574900223997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>102.518</v>
+      </c>
+      <c r="E6" s="4">
+        <v>334.911</v>
+      </c>
+      <c r="F6" s="4">
+        <v>147.619</v>
+      </c>
+      <c r="G6" s="4">
+        <v>136.09700000000001</v>
+      </c>
+      <c r="H6" s="4">
+        <v>162.37899999999999</v>
+      </c>
+      <c r="I6" s="4">
+        <v>153.44300000000001</v>
+      </c>
+      <c r="J6" s="4">
+        <v>162.59299999999999</v>
+      </c>
+      <c r="K6" s="4">
+        <v>160.48500000000001</v>
+      </c>
+      <c r="L6" s="4">
+        <f>K6+1</f>
+        <v>161.48500000000001</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" ref="M6:N6" si="13">L6+1</f>
+        <v>162.48500000000001</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="13"/>
+        <v>163.48500000000001</v>
+      </c>
+      <c r="S6" s="3">
+        <v>683.70100000000002</v>
+      </c>
+      <c r="T6" s="3">
+        <v>614.51199999999994</v>
+      </c>
+      <c r="U6" s="3">
+        <f>T6*1.1</f>
+        <v>675.96320000000003</v>
+      </c>
+      <c r="V6" s="3">
+        <f t="shared" ref="V6:X6" si="14">U6*1.1</f>
+        <v>743.55952000000013</v>
+      </c>
+      <c r="W6" s="3">
+        <f t="shared" si="14"/>
+        <v>817.91547200000025</v>
+      </c>
+      <c r="X6" s="3">
+        <f t="shared" si="14"/>
+        <v>899.70701920000033</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" ref="Y6:Z6" si="15">X6*1.1</f>
+        <v>989.67772112000046</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" ref="Z6:AA6" si="16">Y6*1.1</f>
+        <v>1088.6454932320005</v>
+      </c>
+      <c r="AA6" s="3">
+        <f t="shared" si="16"/>
+        <v>1197.5100425552007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
+        <v>86.814999999999998</v>
+      </c>
+      <c r="E7" s="4">
+        <v>313.91500000000002</v>
+      </c>
+      <c r="F7" s="4">
+        <v>94.13</v>
+      </c>
+      <c r="G7" s="4">
+        <v>98.471000000000004</v>
+      </c>
+      <c r="H7" s="4">
+        <v>110.524</v>
+      </c>
+      <c r="I7" s="4">
+        <v>94.316000000000003</v>
+      </c>
+      <c r="J7" s="4">
+        <v>84.176000000000002</v>
+      </c>
+      <c r="K7" s="4">
+        <v>88.600999999999999</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" ref="L7:N7" si="17">K7+1</f>
+        <v>89.600999999999999</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="17"/>
+        <v>90.600999999999999</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="17"/>
+        <v>91.600999999999999</v>
+      </c>
+      <c r="S7" s="3">
+        <v>560.66</v>
+      </c>
+      <c r="T7" s="3">
+        <v>387.48700000000002</v>
+      </c>
+      <c r="U7" s="3">
+        <f t="shared" ref="U7:X7" si="18">T7*1.1</f>
+        <v>426.23570000000007</v>
+      </c>
+      <c r="V7" s="3">
+        <f t="shared" si="18"/>
+        <v>468.85927000000009</v>
+      </c>
+      <c r="W7" s="3">
+        <f t="shared" si="18"/>
+        <v>515.74519700000019</v>
+      </c>
+      <c r="X7" s="3">
+        <f t="shared" si="18"/>
+        <v>567.3197167000003</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" ref="Y7:Z7" si="19">X7*1.1</f>
+        <v>624.05168837000042</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" ref="Z7:AA7" si="20">Y7*1.1</f>
+        <v>686.45685720700055</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" si="20"/>
+        <v>755.10254292770071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>93.290999999999997</v>
+      </c>
+      <c r="E8" s="4">
+        <v>338.97699999999998</v>
+      </c>
+      <c r="F8" s="4">
+        <v>166.411</v>
+      </c>
+      <c r="G8" s="4">
+        <v>146.56899999999999</v>
+      </c>
+      <c r="H8" s="4">
+        <v>157.96100000000001</v>
+      </c>
+      <c r="I8" s="4">
+        <v>149.524</v>
+      </c>
+      <c r="J8" s="4">
+        <v>157.47800000000001</v>
+      </c>
+      <c r="K8" s="4">
+        <v>142.30699999999999</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" ref="L8:N8" si="21">K8+1</f>
+        <v>143.30699999999999</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="21"/>
+        <v>144.30699999999999</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="21"/>
+        <v>145.30699999999999</v>
+      </c>
+      <c r="S8" s="3">
+        <v>669.44399999999996</v>
+      </c>
+      <c r="T8" s="3">
+        <v>611.53200000000004</v>
+      </c>
+      <c r="U8" s="3">
+        <f t="shared" ref="U8:X8" si="22">T8*1.1</f>
+        <v>672.68520000000012</v>
+      </c>
+      <c r="V8" s="3">
+        <f t="shared" si="22"/>
+        <v>739.9537200000002</v>
+      </c>
+      <c r="W8" s="3">
+        <f t="shared" si="22"/>
+        <v>813.94909200000029</v>
+      </c>
+      <c r="X8" s="3">
+        <f t="shared" si="22"/>
+        <v>895.34400120000043</v>
+      </c>
+      <c r="Y8" s="3">
+        <f t="shared" ref="Y8:Z8" si="23">X8*1.1</f>
+        <v>984.87840132000053</v>
+      </c>
+      <c r="Z8" s="3">
+        <f t="shared" ref="Z8:AA8" si="24">Y8*1.1</f>
+        <v>1083.3662414520006</v>
+      </c>
+      <c r="AA8" s="3">
+        <f t="shared" si="24"/>
+        <v>1191.7028655972008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
+        <f>SUM(D6:D8)</f>
+        <v>282.62400000000002</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUM(E6:E8)</f>
+        <v>987.803</v>
+      </c>
+      <c r="F9" s="4">
+        <f>SUM(F6:F8)</f>
+        <v>408.15999999999997</v>
+      </c>
+      <c r="G9" s="4">
+        <f>SUM(G6:G8)</f>
+        <v>381.137</v>
+      </c>
+      <c r="H9" s="4">
+        <f>SUM(H6:H8)</f>
+        <v>430.86400000000003</v>
+      </c>
+      <c r="I9" s="4">
+        <f>SUM(I6:I8)</f>
+        <v>397.28300000000002</v>
+      </c>
+      <c r="J9" s="4">
+        <f>SUM(J6:J8)</f>
+        <v>404.24700000000001</v>
+      </c>
+      <c r="K9" s="4">
+        <f>SUM(K6:K8)</f>
+        <v>391.39300000000003</v>
+      </c>
+      <c r="L9" s="4">
+        <f>SUM(L6:L8)</f>
+        <v>394.39300000000003</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" ref="M9:N9" si="25">SUM(M6:M8)</f>
+        <v>397.39300000000003</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="25"/>
+        <v>400.39300000000003</v>
+      </c>
+      <c r="S9" s="3">
+        <f>SUM(S6:S8)</f>
+        <v>1913.8049999999998</v>
+      </c>
+      <c r="T9" s="3">
+        <f t="shared" ref="T9" si="26">SUM(T6:T8)</f>
+        <v>1613.5309999999999</v>
+      </c>
+      <c r="U9" s="3">
+        <f t="shared" ref="U9" si="27">SUM(U6:U8)</f>
+        <v>1774.8841000000002</v>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" ref="V9" si="28">SUM(V6:V8)</f>
+        <v>1952.3725100000004</v>
+      </c>
+      <c r="W9" s="3">
+        <f t="shared" ref="W9" si="29">SUM(W6:W8)</f>
+        <v>2147.6097610000006</v>
+      </c>
+      <c r="X9" s="3">
+        <f t="shared" ref="X9" si="30">SUM(X6:X8)</f>
+        <v>2362.370737100001</v>
+      </c>
+      <c r="Y9" s="3">
+        <f t="shared" ref="Y9" si="31">SUM(Y6:Y8)</f>
+        <v>2598.6078108100014</v>
+      </c>
+      <c r="Z9" s="3">
+        <f t="shared" ref="Z9" si="32">SUM(Z6:Z8)</f>
+        <v>2858.4685918910018</v>
+      </c>
+      <c r="AA9" s="3">
+        <f t="shared" ref="AA9" si="33">SUM(AA6:AA8)</f>
+        <v>3144.3154510801023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
+        <f>D5-D9</f>
+        <v>-99.14500000000001</v>
+      </c>
+      <c r="E10" s="4">
+        <f>E5-E9</f>
+        <v>-847.77700000000004</v>
+      </c>
+      <c r="F10" s="4">
+        <f>F5-F9</f>
+        <v>-156.57199999999995</v>
+      </c>
+      <c r="G10" s="4">
+        <f>G5-G9</f>
+        <v>-114.01400000000001</v>
+      </c>
+      <c r="H10" s="4">
+        <f>H5-H9</f>
+        <v>-146.14800000000002</v>
+      </c>
+      <c r="I10" s="4">
+        <f>I5-I9</f>
+        <v>-91.941000000000031</v>
+      </c>
+      <c r="J10" s="4">
+        <f>J5-J9</f>
+        <v>-58.942999999999984</v>
+      </c>
+      <c r="K10" s="4">
+        <f>K5-K9</f>
+        <v>-39.439000000000021</v>
+      </c>
+      <c r="L10" s="4">
+        <f>L5-L9</f>
+        <v>-18.393000000000029</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" ref="M10:N10" si="34">M5-M9</f>
+        <v>-5.2470000000000141</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="34"/>
+        <v>32.47399999999999</v>
+      </c>
+      <c r="S10" s="3">
+        <f>S5-S9</f>
+        <v>-1173.6789999999999</v>
+      </c>
+      <c r="T10" s="3">
+        <f t="shared" ref="T10" si="35">T5-T9</f>
+        <v>-411.04600000000005</v>
+      </c>
+      <c r="U10" s="3">
+        <f t="shared" ref="U10" si="36">U5-U9</f>
+        <v>-216.78550000000018</v>
+      </c>
+      <c r="V10" s="3">
+        <f t="shared" ref="V10" si="37">V5-V9</f>
+        <v>-82.654190000000426</v>
+      </c>
+      <c r="W10" s="3">
+        <f t="shared" ref="W10" si="38">W5-W9</f>
+        <v>96.052222999999231</v>
+      </c>
+      <c r="X10" s="3">
+        <f t="shared" ref="X10" si="39">X5-X9</f>
+        <v>330.02364369999941</v>
+      </c>
+      <c r="Y10" s="3">
+        <f t="shared" ref="Y10" si="40">Y5-Y9</f>
+        <v>632.2654461499983</v>
+      </c>
+      <c r="Z10" s="3">
+        <f t="shared" ref="Z10" si="41">Z5-Z9</f>
+        <v>1018.5793164609981</v>
+      </c>
+      <c r="AA10" s="3">
+        <f t="shared" ref="AA10" si="42">AA5-AA9</f>
+        <v>1508.1420389422974</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
+        <f>0.551-5.646</f>
+        <v>-5.0949999999999998</v>
+      </c>
+      <c r="E11" s="4">
+        <f>0.494-2.085</f>
+        <v>-1.591</v>
+      </c>
+      <c r="F11" s="4">
+        <f>0.368-1.814</f>
+        <v>-1.4460000000000002</v>
+      </c>
+      <c r="G11" s="4">
+        <f>0.376-1.84</f>
+        <v>-1.464</v>
+      </c>
+      <c r="H11" s="4">
+        <f>0.372-0.59</f>
+        <v>-0.21799999999999997</v>
+      </c>
+      <c r="I11" s="4">
+        <f>0.379-0.609</f>
+        <v>-0.22999999999999998</v>
+      </c>
+      <c r="J11" s="4">
+        <f>0.48-0.601</f>
+        <v>-0.121</v>
+      </c>
+      <c r="K11" s="4">
+        <f>0.547-0.594</f>
+        <v>-4.6999999999999931E-2</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <f>4.68-14.139</f>
+        <v>-9.4589999999999996</v>
+      </c>
+      <c r="T11" s="3">
+        <f>1.607-3.64</f>
+        <v>-2.0330000000000004</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
+        <f>D10-D11</f>
+        <v>-94.050000000000011</v>
+      </c>
+      <c r="E12" s="4">
+        <f>E10-E11</f>
+        <v>-846.18600000000004</v>
+      </c>
+      <c r="F12" s="4">
+        <f>F10-F11</f>
+        <v>-155.12599999999995</v>
+      </c>
+      <c r="G12" s="4">
+        <f>G10-G11</f>
+        <v>-112.55000000000001</v>
+      </c>
+      <c r="H12" s="4">
+        <f>H10-H11</f>
+        <v>-145.93000000000004</v>
+      </c>
+      <c r="I12" s="4">
+        <f>I10-I11</f>
+        <v>-91.711000000000027</v>
+      </c>
+      <c r="J12" s="4">
+        <f>J10-J11</f>
+        <v>-58.821999999999981</v>
+      </c>
+      <c r="K12" s="4">
+        <f>K10-K11</f>
+        <v>-39.392000000000024</v>
+      </c>
+      <c r="L12" s="4">
+        <f>L10-L11</f>
+        <v>-18.393000000000029</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" ref="M12:N12" si="43">M10-M11</f>
+        <v>-5.2470000000000141</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="43"/>
+        <v>32.47399999999999</v>
+      </c>
+      <c r="S12" s="3">
+        <f>S10+S11</f>
+        <v>-1183.1379999999999</v>
+      </c>
+      <c r="T12" s="3">
+        <f>T10+T11</f>
+        <v>-413.07900000000006</v>
+      </c>
+      <c r="U12" s="3">
+        <f>U10+U11</f>
+        <v>-216.78550000000018</v>
+      </c>
+      <c r="V12" s="3">
+        <f>V10+V11</f>
+        <v>-82.654190000000426</v>
+      </c>
+      <c r="W12" s="3">
+        <f>W10+W11</f>
+        <v>96.052222999999231</v>
+      </c>
+      <c r="X12" s="3">
+        <f>X10+X11</f>
+        <v>330.02364369999941</v>
+      </c>
+      <c r="Y12" s="3">
+        <f t="shared" ref="Y12" si="44">Y10+Y11</f>
+        <v>632.2654461499983</v>
+      </c>
+      <c r="Z12" s="3">
+        <f t="shared" ref="Z12" si="45">Z10+Z11</f>
+        <v>1018.5793164609981</v>
+      </c>
+      <c r="AA12" s="3">
+        <f t="shared" ref="AA12" si="46">AA10+AA11</f>
+        <v>1508.1420389422974</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <f>0.943</f>
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="E13" s="4">
+        <v>-8.5429999999999993</v>
+      </c>
+      <c r="F13" s="4">
+        <v>-7.593</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-5.6609999999999996</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1.4379999999999999</v>
+      </c>
+      <c r="J13" s="4">
+        <v>33.006</v>
+      </c>
+      <c r="K13" s="4">
+        <v>2.0230000000000001</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>-12.635999999999999</v>
+      </c>
+      <c r="T13" s="3">
+        <v>31.885000000000002</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <f>X12*0.1</f>
+        <v>33.002364369999945</v>
+      </c>
+      <c r="Y13" s="3">
+        <f t="shared" ref="Y13" si="47">Y12*0.1</f>
+        <v>63.226544614999831</v>
+      </c>
+      <c r="Z13" s="3">
+        <f t="shared" ref="Z13" si="48">Z12*0.1</f>
+        <v>101.85793164609981</v>
+      </c>
+      <c r="AA13" s="3">
+        <f t="shared" ref="AA13" si="49">AA12*0.1</f>
+        <v>150.81420389422973</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <f>D12-D13</f>
+        <v>-94.993000000000009</v>
+      </c>
+      <c r="E14" s="4">
+        <f>E12-E13</f>
+        <v>-837.64300000000003</v>
+      </c>
+      <c r="F14" s="4">
+        <f>F12-F13</f>
+        <v>-147.53299999999996</v>
+      </c>
+      <c r="G14" s="4">
+        <f>G12-G13</f>
+        <v>-115.65200000000002</v>
+      </c>
+      <c r="H14" s="4">
+        <f>H12-H13</f>
+        <v>-140.26900000000003</v>
+      </c>
+      <c r="I14" s="4">
+        <f>I12-I13</f>
+        <v>-93.149000000000029</v>
+      </c>
+      <c r="J14" s="4">
+        <f>J12-J13</f>
+        <v>-91.827999999999975</v>
+      </c>
+      <c r="K14" s="4">
+        <f>K12-K13</f>
+        <v>-41.415000000000028</v>
+      </c>
+      <c r="L14" s="4">
+        <f>L12-L13</f>
+        <v>-18.393000000000029</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" ref="M14:N14" si="50">M12-M13</f>
+        <v>-5.2470000000000141</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="50"/>
+        <v>32.47399999999999</v>
+      </c>
+      <c r="S14" s="3">
+        <f>S12-S13</f>
+        <v>-1170.502</v>
+      </c>
+      <c r="T14" s="3">
+        <f>T12-T13</f>
+        <v>-444.96400000000006</v>
+      </c>
+      <c r="U14" s="3">
+        <f t="shared" ref="U14:X14" si="51">U12-U13</f>
+        <v>-216.78550000000018</v>
+      </c>
+      <c r="V14" s="3">
+        <f t="shared" si="51"/>
+        <v>-82.654190000000426</v>
+      </c>
+      <c r="W14" s="3">
+        <f t="shared" si="51"/>
+        <v>96.052222999999231</v>
+      </c>
+      <c r="X14" s="3">
+        <f t="shared" si="51"/>
+        <v>297.02127932999946</v>
+      </c>
+      <c r="Y14" s="3">
+        <f t="shared" ref="Y14" si="52">Y12-Y13</f>
+        <v>569.03890153499844</v>
+      </c>
+      <c r="Z14" s="3">
+        <f t="shared" ref="Z14" si="53">Z12-Z13</f>
+        <v>916.72138481489833</v>
+      </c>
+      <c r="AA14" s="3">
+        <f t="shared" ref="AA14" si="54">AA12-AA13</f>
+        <v>1357.3278350480678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <f>D14/D16</f>
+        <v>-0.14827157237200492</v>
+      </c>
+      <c r="E15" s="7">
+        <f>E14/E16</f>
+        <v>-0.92510011463761044</v>
+      </c>
+      <c r="F15" s="7">
+        <f>F14/F16</f>
+        <v>-8.3658536308756248E-2</v>
+      </c>
+      <c r="G15" s="7">
+        <f>G14/G16</f>
+        <v>-6.3504649239659608E-2</v>
+      </c>
+      <c r="H15" s="7">
+        <f>H14/H16</f>
+        <v>-7.4035973706406522E-2</v>
+      </c>
+      <c r="I15" s="7">
+        <f>I14/I16</f>
+        <v>-4.7418670888492401E-2</v>
+      </c>
+      <c r="J15" s="7">
+        <f>J14/J16</f>
+        <v>-4.5645513091992884E-2</v>
+      </c>
+      <c r="K15" s="7">
+        <f>K14/K16</f>
+        <v>-2.0338288872945007E-2</v>
+      </c>
+      <c r="L15" s="7">
+        <f>L14/L16</f>
+        <v>-9.0325280028993801E-3</v>
+      </c>
+      <c r="M15" s="7">
+        <f t="shared" ref="M15:N15" si="55">M14/M16</f>
+        <v>-2.5767234508352688E-3</v>
+      </c>
+      <c r="N15" s="7">
+        <f t="shared" si="55"/>
+        <v>1.594749711119197E-2</v>
+      </c>
+      <c r="S15" s="1">
+        <f>S14/S16</f>
+        <v>-1.1952069271849119</v>
+      </c>
+      <c r="T15" s="1">
+        <f>T14/T16</f>
+        <v>-0.23131631712549852</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" ref="U15:X15" si="56">U14/U16</f>
+        <v>-0.10646012610082869</v>
+      </c>
+      <c r="V15" s="1">
+        <f t="shared" si="56"/>
+        <v>-4.0590240076766627E-2</v>
+      </c>
+      <c r="W15" s="1">
+        <f t="shared" si="56"/>
+        <v>4.7169814276530615E-2</v>
+      </c>
+      <c r="X15" s="1">
+        <f t="shared" si="56"/>
+        <v>0.14586272076361739</v>
+      </c>
+      <c r="Y15" s="1">
+        <f t="shared" ref="Y15" si="57">Y14/Y16</f>
+        <v>0.27944651839580104</v>
+      </c>
+      <c r="Z15" s="1">
+        <f t="shared" ref="Z15" si="58">Z14/Z16</f>
+        <v>0.450188200902368</v>
+      </c>
+      <c r="AA15" s="1">
+        <f t="shared" ref="AA15" si="59">AA14/AA16</f>
+        <v>0.66656345779298887</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
+        <v>640.66899999999998</v>
+      </c>
+      <c r="E16" s="4">
+        <v>905.46199999999999</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1763.5139999999999</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1821.1579999999999</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1894.606</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1964.395</v>
+      </c>
+      <c r="J16" s="4">
+        <v>2011.7639999999999</v>
+      </c>
+      <c r="K16" s="4">
+        <v>2036.307</v>
+      </c>
+      <c r="L16" s="4">
+        <f>K16</f>
+        <v>2036.307</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" ref="M16:N16" si="60">L16</f>
+        <v>2036.307</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="60"/>
+        <v>2036.307</v>
+      </c>
+      <c r="S16" s="3">
+        <v>979.33</v>
+      </c>
+      <c r="T16" s="3">
+        <v>1923.617</v>
+      </c>
+      <c r="U16" s="3">
+        <f>AVERAGE(K16:N16)</f>
+        <v>2036.307</v>
+      </c>
+      <c r="V16" s="3">
+        <f>U16</f>
+        <v>2036.307</v>
+      </c>
+      <c r="W16" s="3">
+        <f>V16</f>
+        <v>2036.307</v>
+      </c>
+      <c r="X16" s="3">
+        <f>W16</f>
+        <v>2036.307</v>
+      </c>
+      <c r="Y16" s="3">
+        <f t="shared" ref="Y16:Z16" si="61">X16</f>
+        <v>2036.307</v>
+      </c>
+      <c r="Z16" s="3">
+        <f t="shared" ref="Z16:AA16" si="62">Y16</f>
+        <v>2036.307</v>
+      </c>
+      <c r="AA16" s="3">
+        <f t="shared" si="62"/>
+        <v>2036.307</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10">
+        <f>H3/D3-1</f>
+        <v>0.49129973917082514</v>
+      </c>
+      <c r="I19" s="10">
+        <f>I3/E3-1</f>
+        <v>0.35519031261447442</v>
+      </c>
+      <c r="J19" s="10">
+        <f>J3/F3-1</f>
+        <v>0.34392764777656004</v>
+      </c>
+      <c r="K19" s="10">
+        <f>K3/G3-1</f>
+        <v>0.30806719142875583</v>
+      </c>
+      <c r="L19" s="10">
+        <f>L3/H3-1</f>
+        <v>0.25119129383828231</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" ref="M19:N19" si="63">M3/I3-1</f>
+        <v>0.25</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="63"/>
+        <v>0.25</v>
+      </c>
+      <c r="T19" s="12">
+        <f>T3/S3-1</f>
+        <v>0.41111659206368234</v>
+      </c>
+      <c r="U19" s="12">
+        <f>U3/T3-1</f>
+        <v>0.26314102377019366</v>
+      </c>
+      <c r="V19" s="12">
+        <f>V3/U3-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="W19" s="12">
+        <f>W3/V3-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="X19" s="12">
+        <f>X3/W3-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="Y19" s="12">
+        <f t="shared" ref="Y19:Z19" si="64">Y3/X3-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="Z19" s="12">
+        <f t="shared" ref="Z19:AA19" si="65">Z3/Y3-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AA19" s="12">
+        <f t="shared" si="65"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="8">
+        <f>D5/D3</f>
+        <v>0.72841211803611916</v>
+      </c>
+      <c r="E20" s="8">
+        <f>E5/E3</f>
+        <v>0.48390619492269304</v>
+      </c>
+      <c r="F20" s="8">
+        <f>F5/F3</f>
+        <v>0.78110844450791861</v>
+      </c>
+      <c r="G20" s="8">
+        <f>G5/G3</f>
+        <v>0.78281472537906538</v>
+      </c>
+      <c r="H20" s="8">
+        <f>H5/H3</f>
+        <v>0.75794506471587308</v>
+      </c>
+      <c r="I20" s="8">
+        <f>I5/I3</f>
+        <v>0.77864366842961541</v>
+      </c>
+      <c r="J20" s="8">
+        <f>J5/J3</f>
+        <v>0.79771384744043783</v>
+      </c>
+      <c r="K20" s="8">
+        <f>K5/K3</f>
+        <v>0.78850337286073702</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" ref="L20:N20" si="66">L5/L3</f>
+        <v>0.8</v>
+      </c>
+      <c r="M20" s="8">
+        <f t="shared" si="66"/>
+        <v>0.8</v>
+      </c>
+      <c r="N20" s="8">
+        <f t="shared" si="66"/>
+        <v>0.8</v>
+      </c>
+      <c r="S20" s="8">
+        <f t="shared" ref="S20:X20" si="67">S5/S3</f>
+        <v>0.67735360899372454</v>
+      </c>
+      <c r="T20" s="8">
+        <f t="shared" si="67"/>
+        <v>0.77987779924495215</v>
+      </c>
+      <c r="U20" s="8">
+        <f t="shared" si="67"/>
+        <v>0.8</v>
+      </c>
+      <c r="V20" s="8">
+        <f t="shared" si="67"/>
+        <v>0.8</v>
+      </c>
+      <c r="W20" s="8">
+        <f t="shared" si="67"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="X20" s="8">
+        <f t="shared" si="67"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="Y20" s="8">
+        <f t="shared" ref="Y20:Z20" si="68">Y5/Y3</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z20" s="8">
+        <f t="shared" ref="Z20:AA20" si="69">Z5/Z3</f>
+        <v>0.8</v>
+      </c>
+      <c r="AA20" s="8">
+        <f t="shared" si="69"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4">
+        <f>2269.411+33.804+252.563+29.222</f>
+        <v>2585.0000000000005</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4">
+        <v>256.55399999999997</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4">
+        <v>115.042</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4">
+        <v>41.866</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4">
+        <v>224.88800000000001</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4">
+        <v>95.828999999999994</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4">
+        <f>SUM(K23:K28)</f>
+        <v>3319.1790000000005</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="31" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4">
+        <v>27.454000000000001</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4">
+        <v>150.17599999999999</v>
+      </c>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4">
+        <f>218.521+33.244</f>
+        <v>251.76499999999999</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4">
+        <f>232.908+22.276</f>
+        <v>255.184</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4">
+        <f>40.045+227.617</f>
+        <v>267.66199999999998</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4">
+        <v>2.1920000000000002</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4">
+        <v>2364.7460000000001</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4">
+        <f>SUM(K31:K37)</f>
+        <v>3319.1790000000001</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="40" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4">
+        <v>116881</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4">
+        <v>35477</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="S40" s="3">
+        <v>-296608</v>
+      </c>
+      <c r="T40" s="3">
+        <v>333851</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{74CEF264-386F-4340-9ED3-DF5D1BF99954}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PLTR.xlsx
+++ b/PLTR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358196C8-47DC-4D69-8BCB-82998E37B0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B7EF1D-D336-3048-96F2-9B56F432C7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8490" yWindow="165" windowWidth="20310" windowHeight="14910" activeTab="1" xr2:uid="{AE04E6E4-A652-4DFB-A34B-BE287D9B2752}"/>
+    <workbookView xWindow="-22320" yWindow="500" windowWidth="22320" windowHeight="19620" xr2:uid="{AE04E6E4-A652-4DFB-A34B-BE287D9B2752}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={977846F7-C7A8-FB40-A05C-AFA5BB1512B9}</author>
+  </authors>
+  <commentList>
+    <comment ref="T5" authorId="0" shapeId="0" xr:uid="{977846F7-C7A8-FB40-A05C-AFA5BB1512B9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q1 guidance: 649-653m</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>Price</t>
   </si>
@@ -180,6 +198,78 @@
   </si>
   <si>
     <t>CFFO</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>Loss on Stocks</t>
+  </si>
+  <si>
+    <t>Noncash Consideration</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>CIC</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>ESOP</t>
+  </si>
+  <si>
+    <t>Buyback</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Government</t>
   </si>
 </sst>
 </file>
@@ -289,16 +379,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>46718</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>46718</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -313,8 +403,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6981825" y="47625"/>
-          <a:ext cx="0" cy="6800850"/>
+          <a:off x="13463361" y="0"/>
+          <a:ext cx="0" cy="10885714"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -339,15 +429,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -390,10 +480,16 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{74D2DF0D-14E1-8C43-8A69-0402CB2F2E09}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -431,7 +527,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -537,7 +633,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -679,51 +775,59 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
+</file>
+
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="T5" dT="2024-06-03T23:15:47.24" personId="{74D2DF0D-14E1-8C43-8A69-0402CB2F2E09}" id="{977846F7-C7A8-FB40-A05C-AFA5BB1512B9}">
+    <text>Q1 guidance: 649-653m</text>
+  </threadedComment>
+</ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144E9D3E-317D-4992-A1EC-7C2CA7695A60}">
   <dimension ref="K2:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="F13" sqref="F12:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>9.31</v>
-      </c>
-    </row>
-    <row r="3" spans="11:13" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>2036</v>
+        <v>2400.107</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="11:13" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="3">
         <f>L3*L2</f>
-        <v>18955.16</v>
-      </c>
-    </row>
-    <row r="5" spans="11:13" x14ac:dyDescent="0.2">
+        <v>48002.14</v>
+      </c>
+    </row>
+    <row r="5" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K5" t="s">
         <v>3</v>
       </c>
@@ -731,10 +835,10 @@
         <v>2585</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="11:13" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -742,16 +846,16 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="11:13" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>16370.16</v>
+        <v>45417.14</v>
       </c>
     </row>
   </sheetData>
@@ -760,29 +864,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CE0236-0D83-41C7-BB37-83829D679D7F}">
-  <dimension ref="A1:AC40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CE0236-0D83-41C7-BB37-83829D679D7F}">
+  <dimension ref="A1:AI61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="M25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="2"/>
+    <col min="3" max="14" width="9.1640625" style="2"/>
+    <col min="15" max="20" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -819,1345 +924,1693 @@
       <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S2">
+      <c r="O2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2">
         <v>2020</v>
       </c>
-      <c r="T2">
-        <f>S2+1</f>
+      <c r="Z2">
+        <f>Y2+1</f>
         <v>2021</v>
       </c>
-      <c r="U2">
-        <f>T2+1</f>
+      <c r="AA2">
+        <f>Z2+1</f>
         <v>2022</v>
       </c>
-      <c r="V2">
-        <f t="shared" ref="V2:AC2" si="0">U2+1</f>
+      <c r="AB2">
+        <f t="shared" ref="AB2:AI2" si="0">AA2+1</f>
         <v>2023</v>
       </c>
-      <c r="W2">
+      <c r="AC2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="X2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="Y2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="Z2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AA2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AB2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AC2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="2">
+        <v>236</v>
+      </c>
+      <c r="P3" s="2">
+        <v>232</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>251</v>
+      </c>
+      <c r="R3" s="2">
+        <v>284</v>
+      </c>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="2">
+        <v>289</v>
+      </c>
+      <c r="P4" s="2">
+        <v>302</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>308</v>
+      </c>
+      <c r="R4" s="2">
+        <v>324</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
         <v>251.88900000000001</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E5" s="6">
         <v>289.36599999999999</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F5" s="6">
         <v>322.09100000000001</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G5" s="6">
         <v>341.23399999999998</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H5" s="6">
         <v>375.642</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I5" s="6">
         <v>392.14600000000002</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J5" s="6">
         <v>432.86700000000002</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K5" s="6">
         <v>446.35700000000003</v>
       </c>
-      <c r="L3" s="6">
-        <v>470</v>
-      </c>
-      <c r="M3" s="6">
-        <f>I3*1.25</f>
-        <v>490.1825</v>
-      </c>
-      <c r="N3" s="6">
-        <f>J3*1.25</f>
-        <v>541.08375000000001</v>
-      </c>
-      <c r="S3" s="5">
+      <c r="L5" s="6">
+        <v>473.01</v>
+      </c>
+      <c r="M5" s="6">
+        <v>477.88</v>
+      </c>
+      <c r="N5" s="6">
+        <v>508.62400000000002</v>
+      </c>
+      <c r="O5" s="6">
+        <v>525.18600000000004</v>
+      </c>
+      <c r="P5" s="6">
+        <v>533.31700000000001</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>558.15899999999999</v>
+      </c>
+      <c r="R5" s="6">
+        <f>+R4+R3</f>
+        <v>608</v>
+      </c>
+      <c r="S5" s="6">
+        <v>634.33799999999997</v>
+      </c>
+      <c r="T5" s="6">
+        <v>655</v>
+      </c>
+      <c r="Y5" s="5">
         <v>1092.673</v>
       </c>
-      <c r="T3" s="5">
+      <c r="Z5" s="5">
         <v>1541.8889999999999</v>
       </c>
-      <c r="U3" s="5">
-        <f>SUM(K3:N3)</f>
-        <v>1947.6232499999999</v>
-      </c>
-      <c r="V3" s="5">
-        <f>U3*1.2</f>
-        <v>2337.1478999999999</v>
-      </c>
-      <c r="W3" s="5">
-        <f t="shared" ref="W3:X3" si="1">V3*1.2</f>
-        <v>2804.5774799999999</v>
-      </c>
-      <c r="X3" s="5">
+      <c r="AA5" s="5">
+        <f>SUM(K5:N5)</f>
+        <v>1905.8709999999999</v>
+      </c>
+      <c r="AB5" s="5">
+        <f>AA5*1.2</f>
+        <v>2287.0451999999996</v>
+      </c>
+      <c r="AC5" s="5">
+        <f t="shared" ref="AC5:AD5" si="1">AB5*1.2</f>
+        <v>2744.4542399999996</v>
+      </c>
+      <c r="AD5" s="5">
         <f t="shared" si="1"/>
-        <v>3365.492976</v>
-      </c>
-      <c r="Y3" s="5">
-        <f t="shared" ref="Y3:Z3" si="2">X3*1.2</f>
-        <v>4038.5915711999996</v>
-      </c>
-      <c r="Z3" s="5">
-        <f t="shared" ref="Z3:AA3" si="3">Y3*1.2</f>
-        <v>4846.3098854399996</v>
-      </c>
-      <c r="AA3" s="5">
+        <v>3293.3450879999996</v>
+      </c>
+      <c r="AE5" s="5">
+        <f t="shared" ref="AE5" si="2">AD5*1.2</f>
+        <v>3952.0141055999993</v>
+      </c>
+      <c r="AF5" s="5">
+        <f t="shared" ref="AF5:AG5" si="3">AE5*1.2</f>
+        <v>4742.4169267199986</v>
+      </c>
+      <c r="AG5" s="5">
         <f t="shared" si="3"/>
-        <v>5815.5718625279997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+        <v>5690.9003120639982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4">
-        <v>68.41</v>
-      </c>
-      <c r="E4" s="13">
-        <v>149.34</v>
-      </c>
-      <c r="F4" s="4">
-        <v>70.503</v>
-      </c>
-      <c r="G4" s="4">
-        <v>74.111000000000004</v>
-      </c>
-      <c r="H4" s="4">
-        <v>90.926000000000002</v>
-      </c>
-      <c r="I4" s="4">
-        <v>86.804000000000002</v>
-      </c>
-      <c r="J4" s="4">
-        <v>87.563000000000002</v>
-      </c>
-      <c r="K4" s="4">
-        <v>94.403000000000006</v>
-      </c>
-      <c r="L4" s="4">
-        <f>L3-L5</f>
-        <v>94</v>
-      </c>
-      <c r="M4" s="4">
-        <f t="shared" ref="M4:N4" si="4">M3-M5</f>
-        <v>98.03649999999999</v>
-      </c>
-      <c r="N4" s="4">
-        <f t="shared" si="4"/>
-        <v>108.21674999999999</v>
-      </c>
-      <c r="S4" s="3">
-        <v>352.54700000000003</v>
-      </c>
-      <c r="T4" s="3">
-        <v>339.404</v>
-      </c>
-      <c r="U4" s="3">
-        <f>U3-U5</f>
-        <v>389.52464999999984</v>
-      </c>
-      <c r="V4" s="3">
-        <f t="shared" ref="V4:X4" si="5">V3-V5</f>
-        <v>467.42957999999999</v>
-      </c>
-      <c r="W4" s="3">
-        <f t="shared" si="5"/>
-        <v>560.91549600000008</v>
-      </c>
-      <c r="X4" s="3">
-        <f t="shared" si="5"/>
-        <v>673.09859519999964</v>
-      </c>
-      <c r="Y4" s="3">
-        <f t="shared" ref="Y4" si="6">Y3-Y5</f>
-        <v>807.71831423999993</v>
-      </c>
-      <c r="Z4" s="3">
-        <f t="shared" ref="Z4" si="7">Z3-Z5</f>
-        <v>969.26197708799964</v>
-      </c>
-      <c r="AA4" s="3">
-        <f t="shared" ref="AA4" si="8">AA3-AA5</f>
-        <v>1163.1143725055999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4">
-        <f>D3-D4</f>
-        <v>183.47900000000001</v>
-      </c>
-      <c r="E5" s="4">
-        <f>E3-E4</f>
-        <v>140.02599999999998</v>
-      </c>
-      <c r="F5" s="4">
-        <f>F3-F4</f>
-        <v>251.58800000000002</v>
-      </c>
-      <c r="G5" s="4">
-        <f>G3-G4</f>
-        <v>267.12299999999999</v>
-      </c>
-      <c r="H5" s="4">
-        <f>H3-H4</f>
-        <v>284.71600000000001</v>
-      </c>
-      <c r="I5" s="4">
-        <f>I3-I4</f>
-        <v>305.34199999999998</v>
-      </c>
-      <c r="J5" s="4">
-        <f>J3-J4</f>
-        <v>345.30400000000003</v>
-      </c>
-      <c r="K5" s="4">
-        <f>K3-K4</f>
-        <v>351.95400000000001</v>
-      </c>
-      <c r="L5" s="4">
-        <f>L3*0.8</f>
-        <v>376</v>
-      </c>
-      <c r="M5" s="4">
-        <f t="shared" ref="M5:N5" si="9">M3*0.8</f>
-        <v>392.14600000000002</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" si="9"/>
-        <v>432.86700000000002</v>
-      </c>
-      <c r="S5" s="3">
-        <f>S3-S4</f>
-        <v>740.12599999999998</v>
-      </c>
-      <c r="T5" s="3">
-        <f>T3-T4</f>
-        <v>1202.4849999999999</v>
-      </c>
-      <c r="U5" s="3">
-        <f>U3*0.8</f>
-        <v>1558.0986</v>
-      </c>
-      <c r="V5" s="3">
-        <f t="shared" ref="V5:X5" si="10">V3*0.8</f>
-        <v>1869.7183199999999</v>
-      </c>
-      <c r="W5" s="3">
-        <f t="shared" si="10"/>
-        <v>2243.6619839999998</v>
-      </c>
-      <c r="X5" s="3">
-        <f t="shared" si="10"/>
-        <v>2692.3943808000004</v>
-      </c>
-      <c r="Y5" s="3">
-        <f t="shared" ref="Y5:Z5" si="11">Y3*0.8</f>
-        <v>3230.8732569599997</v>
-      </c>
-      <c r="Z5" s="3">
-        <f t="shared" ref="Z5:AA5" si="12">Z3*0.8</f>
-        <v>3877.0479083519999</v>
-      </c>
-      <c r="AA5" s="3">
-        <f t="shared" si="12"/>
-        <v>4652.4574900223997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4">
-        <v>102.518</v>
-      </c>
-      <c r="E6" s="4">
-        <v>334.911</v>
+        <v>68.41</v>
+      </c>
+      <c r="E6" s="13">
+        <v>149.34</v>
       </c>
       <c r="F6" s="4">
-        <v>147.619</v>
+        <v>70.503</v>
       </c>
       <c r="G6" s="4">
-        <v>136.09700000000001</v>
+        <v>74.111000000000004</v>
       </c>
       <c r="H6" s="4">
-        <v>162.37899999999999</v>
+        <v>90.926000000000002</v>
       </c>
       <c r="I6" s="4">
-        <v>153.44300000000001</v>
+        <v>86.804000000000002</v>
       </c>
       <c r="J6" s="4">
-        <v>162.59299999999999</v>
+        <v>87.563000000000002</v>
       </c>
       <c r="K6" s="4">
-        <v>160.48500000000001</v>
+        <v>94.403000000000006</v>
       </c>
       <c r="L6" s="4">
-        <f>K6+1</f>
-        <v>161.48500000000001</v>
+        <v>102.224</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" ref="M6:N6" si="13">L6+1</f>
-        <v>162.48500000000001</v>
+        <f t="shared" ref="M6" si="4">M5-M7</f>
+        <v>95.575999999999965</v>
       </c>
       <c r="N6" s="4">
-        <f t="shared" si="13"/>
-        <v>163.48500000000001</v>
-      </c>
-      <c r="S6" s="3">
-        <v>683.70100000000002</v>
-      </c>
-      <c r="T6" s="3">
-        <v>614.51199999999994</v>
-      </c>
-      <c r="U6" s="3">
-        <f>T6*1.1</f>
-        <v>675.96320000000003</v>
-      </c>
-      <c r="V6" s="3">
-        <f t="shared" ref="V6:X6" si="14">U6*1.1</f>
-        <v>743.55952000000013</v>
-      </c>
-      <c r="W6" s="3">
-        <f t="shared" si="14"/>
-        <v>817.91547200000025</v>
-      </c>
-      <c r="X6" s="3">
-        <f t="shared" si="14"/>
-        <v>899.70701920000033</v>
-      </c>
+        <v>104.31100000000001</v>
+      </c>
+      <c r="O6" s="4">
+        <v>107.645</v>
+      </c>
+      <c r="P6" s="4">
+        <v>106.899</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>107.922</v>
+      </c>
+      <c r="R6" s="4">
+        <v>108.639</v>
+      </c>
+      <c r="S6" s="4">
+        <v>116.256</v>
+      </c>
+      <c r="T6" s="4"/>
       <c r="Y6" s="3">
-        <f t="shared" ref="Y6:Z6" si="15">X6*1.1</f>
-        <v>989.67772112000046</v>
+        <v>352.54700000000003</v>
       </c>
       <c r="Z6" s="3">
-        <f t="shared" ref="Z6:AA6" si="16">Y6*1.1</f>
-        <v>1088.6454932320005</v>
+        <v>339.404</v>
       </c>
       <c r="AA6" s="3">
-        <f t="shared" si="16"/>
-        <v>1197.5100425552007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>AA5-AA7</f>
+        <v>381.17419999999993</v>
+      </c>
+      <c r="AB6" s="3">
+        <f t="shared" ref="AB6:AD6" si="5">AB5-AB7</f>
+        <v>457.40903999999978</v>
+      </c>
+      <c r="AC6" s="3">
+        <f t="shared" si="5"/>
+        <v>548.89084800000001</v>
+      </c>
+      <c r="AD6" s="3">
+        <f t="shared" si="5"/>
+        <v>658.66901759999973</v>
+      </c>
+      <c r="AE6" s="3">
+        <f t="shared" ref="AE6" si="6">AE5-AE7</f>
+        <v>790.40282111999977</v>
+      </c>
+      <c r="AF6" s="3">
+        <f t="shared" ref="AF6" si="7">AF5-AF7</f>
+        <v>948.48338534399954</v>
+      </c>
+      <c r="AG6" s="3">
+        <f t="shared" ref="AG6" si="8">AG5-AG7</f>
+        <v>1138.1800624127991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4">
-        <v>86.814999999999998</v>
+        <f t="shared" ref="D7:K7" si="9">D5-D6</f>
+        <v>183.47900000000001</v>
       </c>
       <c r="E7" s="4">
-        <v>313.91500000000002</v>
+        <f t="shared" si="9"/>
+        <v>140.02599999999998</v>
       </c>
       <c r="F7" s="4">
-        <v>94.13</v>
+        <f t="shared" si="9"/>
+        <v>251.58800000000002</v>
       </c>
       <c r="G7" s="4">
-        <v>98.471000000000004</v>
+        <f t="shared" si="9"/>
+        <v>267.12299999999999</v>
       </c>
       <c r="H7" s="4">
-        <v>110.524</v>
+        <f t="shared" si="9"/>
+        <v>284.71600000000001</v>
       </c>
       <c r="I7" s="4">
-        <v>94.316000000000003</v>
+        <f t="shared" si="9"/>
+        <v>305.34199999999998</v>
       </c>
       <c r="J7" s="4">
-        <v>84.176000000000002</v>
+        <f t="shared" si="9"/>
+        <v>345.30400000000003</v>
       </c>
       <c r="K7" s="4">
-        <v>88.600999999999999</v>
+        <f t="shared" si="9"/>
+        <v>351.95400000000001</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" ref="L7:N7" si="17">K7+1</f>
-        <v>89.600999999999999</v>
+        <f>+L5-L6</f>
+        <v>370.786</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="17"/>
-        <v>90.600999999999999</v>
+        <f t="shared" ref="M7" si="10">M5*0.8</f>
+        <v>382.30400000000003</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" si="17"/>
-        <v>91.600999999999999</v>
-      </c>
-      <c r="S7" s="3">
-        <v>560.66</v>
-      </c>
-      <c r="T7" s="3">
-        <v>387.48700000000002</v>
-      </c>
-      <c r="U7" s="3">
-        <f t="shared" ref="U7:X7" si="18">T7*1.1</f>
-        <v>426.23570000000007</v>
-      </c>
-      <c r="V7" s="3">
-        <f t="shared" si="18"/>
-        <v>468.85927000000009</v>
-      </c>
-      <c r="W7" s="3">
-        <f t="shared" si="18"/>
-        <v>515.74519700000019</v>
-      </c>
-      <c r="X7" s="3">
-        <f t="shared" si="18"/>
-        <v>567.3197167000003</v>
-      </c>
+        <f t="shared" ref="N7:S7" si="11">+N5-N6</f>
+        <v>404.31299999999999</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="11"/>
+        <v>417.54100000000005</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" si="11"/>
+        <v>426.41800000000001</v>
+      </c>
+      <c r="Q7" s="4">
+        <f t="shared" si="11"/>
+        <v>450.23699999999997</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="shared" si="11"/>
+        <v>499.36099999999999</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" si="11"/>
+        <v>518.08199999999999</v>
+      </c>
+      <c r="T7" s="4"/>
       <c r="Y7" s="3">
-        <f t="shared" ref="Y7:Z7" si="19">X7*1.1</f>
-        <v>624.05168837000042</v>
+        <f>Y5-Y6</f>
+        <v>740.12599999999998</v>
       </c>
       <c r="Z7" s="3">
-        <f t="shared" ref="Z7:AA7" si="20">Y7*1.1</f>
-        <v>686.45685720700055</v>
+        <f>Z5-Z6</f>
+        <v>1202.4849999999999</v>
       </c>
       <c r="AA7" s="3">
-        <f t="shared" si="20"/>
-        <v>755.10254292770071</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>AA5*0.8</f>
+        <v>1524.6967999999999</v>
+      </c>
+      <c r="AB7" s="3">
+        <f t="shared" ref="AB7:AD7" si="12">AB5*0.8</f>
+        <v>1829.6361599999998</v>
+      </c>
+      <c r="AC7" s="3">
+        <f t="shared" si="12"/>
+        <v>2195.5633919999996</v>
+      </c>
+      <c r="AD7" s="3">
+        <f t="shared" si="12"/>
+        <v>2634.6760703999998</v>
+      </c>
+      <c r="AE7" s="3">
+        <f t="shared" ref="AE7" si="13">AE5*0.8</f>
+        <v>3161.6112844799995</v>
+      </c>
+      <c r="AF7" s="3">
+        <f t="shared" ref="AF7:AG7" si="14">AF5*0.8</f>
+        <v>3793.9335413759991</v>
+      </c>
+      <c r="AG7" s="3">
+        <f t="shared" si="14"/>
+        <v>4552.7202496511991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4">
-        <v>93.290999999999997</v>
+        <v>102.518</v>
       </c>
       <c r="E8" s="4">
-        <v>338.97699999999998</v>
+        <v>334.911</v>
       </c>
       <c r="F8" s="4">
-        <v>166.411</v>
+        <v>147.619</v>
       </c>
       <c r="G8" s="4">
-        <v>146.56899999999999</v>
+        <v>136.09700000000001</v>
       </c>
       <c r="H8" s="4">
-        <v>157.96100000000001</v>
+        <v>162.37899999999999</v>
       </c>
       <c r="I8" s="4">
-        <v>149.524</v>
+        <v>153.44300000000001</v>
       </c>
       <c r="J8" s="4">
-        <v>157.47800000000001</v>
+        <v>162.59299999999999</v>
       </c>
       <c r="K8" s="4">
-        <v>142.30699999999999</v>
+        <v>160.48500000000001</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" ref="L8:N8" si="21">K8+1</f>
-        <v>143.30699999999999</v>
+        <v>168.875</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" si="21"/>
-        <v>144.30699999999999</v>
+        <f t="shared" ref="M8" si="15">L8+1</f>
+        <v>169.875</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" si="21"/>
-        <v>145.30699999999999</v>
-      </c>
-      <c r="S8" s="3">
-        <v>669.44399999999996</v>
-      </c>
-      <c r="T8" s="3">
-        <v>611.53200000000004</v>
-      </c>
-      <c r="U8" s="3">
-        <f t="shared" ref="U8:X8" si="22">T8*1.1</f>
-        <v>672.68520000000012</v>
-      </c>
-      <c r="V8" s="3">
-        <f t="shared" si="22"/>
-        <v>739.9537200000002</v>
-      </c>
-      <c r="W8" s="3">
-        <f t="shared" si="22"/>
-        <v>813.94909200000029</v>
-      </c>
-      <c r="X8" s="3">
-        <f t="shared" si="22"/>
-        <v>895.34400120000043</v>
-      </c>
+        <v>190.233</v>
+      </c>
+      <c r="O8" s="4">
+        <v>187.09299999999999</v>
+      </c>
+      <c r="P8" s="4">
+        <v>184.16300000000001</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>176.37299999999999</v>
+      </c>
+      <c r="R8" s="4">
+        <v>197.363</v>
+      </c>
+      <c r="S8" s="4">
+        <v>193.17699999999999</v>
+      </c>
+      <c r="T8" s="4"/>
       <c r="Y8" s="3">
-        <f t="shared" ref="Y8:Z8" si="23">X8*1.1</f>
-        <v>984.87840132000053</v>
+        <v>683.70100000000002</v>
       </c>
       <c r="Z8" s="3">
-        <f t="shared" ref="Z8:AA8" si="24">Y8*1.1</f>
-        <v>1083.3662414520006</v>
+        <v>614.51199999999994</v>
       </c>
       <c r="AA8" s="3">
-        <f t="shared" si="24"/>
-        <v>1191.7028655972008</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>Z8*1.1</f>
+        <v>675.96320000000003</v>
+      </c>
+      <c r="AB8" s="3">
+        <f t="shared" ref="AB8:AD8" si="16">AA8*1.1</f>
+        <v>743.55952000000013</v>
+      </c>
+      <c r="AC8" s="3">
+        <f t="shared" si="16"/>
+        <v>817.91547200000025</v>
+      </c>
+      <c r="AD8" s="3">
+        <f t="shared" si="16"/>
+        <v>899.70701920000033</v>
+      </c>
+      <c r="AE8" s="3">
+        <f t="shared" ref="AE8" si="17">AD8*1.1</f>
+        <v>989.67772112000046</v>
+      </c>
+      <c r="AF8" s="3">
+        <f t="shared" ref="AF8:AG8" si="18">AE8*1.1</f>
+        <v>1088.6454932320005</v>
+      </c>
+      <c r="AG8" s="3">
+        <f t="shared" si="18"/>
+        <v>1197.5100425552007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4">
-        <f>SUM(D6:D8)</f>
-        <v>282.62400000000002</v>
+        <v>86.814999999999998</v>
       </c>
       <c r="E9" s="4">
-        <f>SUM(E6:E8)</f>
-        <v>987.803</v>
+        <v>313.91500000000002</v>
       </c>
       <c r="F9" s="4">
-        <f>SUM(F6:F8)</f>
-        <v>408.15999999999997</v>
+        <v>94.13</v>
       </c>
       <c r="G9" s="4">
-        <f>SUM(G6:G8)</f>
-        <v>381.137</v>
+        <v>98.471000000000004</v>
       </c>
       <c r="H9" s="4">
-        <f>SUM(H6:H8)</f>
-        <v>430.86400000000003</v>
+        <v>110.524</v>
       </c>
       <c r="I9" s="4">
-        <f>SUM(I6:I8)</f>
-        <v>397.28300000000002</v>
+        <v>94.316000000000003</v>
       </c>
       <c r="J9" s="4">
-        <f>SUM(J6:J8)</f>
-        <v>404.24700000000001</v>
+        <v>84.176000000000002</v>
       </c>
       <c r="K9" s="4">
-        <f>SUM(K6:K8)</f>
-        <v>391.39300000000003</v>
+        <v>88.600999999999999</v>
       </c>
       <c r="L9" s="4">
-        <f>SUM(L6:L8)</f>
-        <v>394.39300000000003</v>
+        <v>88.171000000000006</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" ref="M9:N9" si="25">SUM(M6:M8)</f>
-        <v>397.39300000000003</v>
+        <f t="shared" ref="M9" si="19">L9+1</f>
+        <v>89.171000000000006</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="25"/>
-        <v>400.39300000000003</v>
-      </c>
-      <c r="S9" s="3">
-        <f>SUM(S6:S8)</f>
-        <v>1913.8049999999998</v>
-      </c>
-      <c r="T9" s="3">
-        <f t="shared" ref="T9" si="26">SUM(T6:T8)</f>
-        <v>1613.5309999999999</v>
-      </c>
-      <c r="U9" s="3">
-        <f t="shared" ref="U9" si="27">SUM(U6:U8)</f>
-        <v>1774.8841000000002</v>
-      </c>
-      <c r="V9" s="3">
-        <f t="shared" ref="V9" si="28">SUM(V6:V8)</f>
-        <v>1952.3725100000004</v>
-      </c>
-      <c r="W9" s="3">
-        <f t="shared" ref="W9" si="29">SUM(W6:W8)</f>
-        <v>2147.6097610000006</v>
-      </c>
-      <c r="X9" s="3">
-        <f t="shared" ref="X9" si="30">SUM(X6:X8)</f>
-        <v>2362.370737100001</v>
-      </c>
+        <v>82.043999999999997</v>
+      </c>
+      <c r="O9" s="4">
+        <v>90.1</v>
+      </c>
+      <c r="P9" s="4">
+        <v>99.533000000000001</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>105.708</v>
+      </c>
+      <c r="R9" s="4">
+        <v>109.283</v>
+      </c>
+      <c r="S9" s="4">
+        <v>110.04</v>
+      </c>
+      <c r="T9" s="4"/>
       <c r="Y9" s="3">
-        <f t="shared" ref="Y9" si="31">SUM(Y6:Y8)</f>
-        <v>2598.6078108100014</v>
+        <v>560.66</v>
       </c>
       <c r="Z9" s="3">
-        <f t="shared" ref="Z9" si="32">SUM(Z6:Z8)</f>
-        <v>2858.4685918910018</v>
+        <v>387.48700000000002</v>
       </c>
       <c r="AA9" s="3">
-        <f t="shared" ref="AA9" si="33">SUM(AA6:AA8)</f>
-        <v>3144.3154510801023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AA9:AD9" si="20">Z9*1.1</f>
+        <v>426.23570000000007</v>
+      </c>
+      <c r="AB9" s="3">
+        <f t="shared" si="20"/>
+        <v>468.85927000000009</v>
+      </c>
+      <c r="AC9" s="3">
+        <f t="shared" si="20"/>
+        <v>515.74519700000019</v>
+      </c>
+      <c r="AD9" s="3">
+        <f t="shared" si="20"/>
+        <v>567.3197167000003</v>
+      </c>
+      <c r="AE9" s="3">
+        <f t="shared" ref="AE9" si="21">AD9*1.1</f>
+        <v>624.05168837000042</v>
+      </c>
+      <c r="AF9" s="3">
+        <f t="shared" ref="AF9:AG9" si="22">AE9*1.1</f>
+        <v>686.45685720700055</v>
+      </c>
+      <c r="AG9" s="3">
+        <f t="shared" si="22"/>
+        <v>755.10254292770071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4">
-        <f>D5-D9</f>
-        <v>-99.14500000000001</v>
+        <v>93.290999999999997</v>
       </c>
       <c r="E10" s="4">
-        <f>E5-E9</f>
-        <v>-847.77700000000004</v>
+        <v>338.97699999999998</v>
       </c>
       <c r="F10" s="4">
-        <f>F5-F9</f>
-        <v>-156.57199999999995</v>
+        <v>166.411</v>
       </c>
       <c r="G10" s="4">
-        <f>G5-G9</f>
-        <v>-114.01400000000001</v>
+        <v>146.56899999999999</v>
       </c>
       <c r="H10" s="4">
-        <f>H5-H9</f>
-        <v>-146.14800000000002</v>
+        <v>157.96100000000001</v>
       </c>
       <c r="I10" s="4">
-        <f>I5-I9</f>
-        <v>-91.941000000000031</v>
+        <v>149.524</v>
       </c>
       <c r="J10" s="4">
-        <f>J5-J9</f>
-        <v>-58.942999999999984</v>
+        <v>157.47800000000001</v>
       </c>
       <c r="K10" s="4">
-        <f>K5-K9</f>
-        <v>-39.439000000000021</v>
+        <v>142.30699999999999</v>
       </c>
       <c r="L10" s="4">
-        <f>L5-L9</f>
-        <v>-18.393000000000029</v>
+        <v>155.48500000000001</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" ref="M10:N10" si="34">M5-M9</f>
-        <v>-5.2470000000000141</v>
+        <f t="shared" ref="M10" si="23">L10+1</f>
+        <v>156.48500000000001</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="34"/>
-        <v>32.47399999999999</v>
-      </c>
-      <c r="S10" s="3">
-        <f>S5-S9</f>
-        <v>-1173.6789999999999</v>
-      </c>
-      <c r="T10" s="3">
-        <f t="shared" ref="T10" si="35">T5-T9</f>
-        <v>-411.04600000000005</v>
-      </c>
-      <c r="U10" s="3">
-        <f t="shared" ref="U10" si="36">U5-U9</f>
-        <v>-216.78550000000018</v>
-      </c>
-      <c r="V10" s="3">
-        <f t="shared" ref="V10" si="37">V5-V9</f>
-        <v>-82.654190000000426</v>
-      </c>
-      <c r="W10" s="3">
-        <f t="shared" ref="W10" si="38">W5-W9</f>
-        <v>96.052222999999231</v>
-      </c>
-      <c r="X10" s="3">
-        <f t="shared" ref="X10" si="39">X5-X9</f>
-        <v>330.02364369999941</v>
-      </c>
+        <v>149.86199999999999</v>
+      </c>
+      <c r="O10" s="4">
+        <v>136.233</v>
+      </c>
+      <c r="P10" s="4">
+        <v>132.648</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>128.173</v>
+      </c>
+      <c r="R10" s="4">
+        <v>127.271</v>
+      </c>
+      <c r="S10" s="4">
+        <v>133.98400000000001</v>
+      </c>
+      <c r="T10" s="4"/>
       <c r="Y10" s="3">
-        <f t="shared" ref="Y10" si="40">Y5-Y9</f>
-        <v>632.2654461499983</v>
+        <v>669.44399999999996</v>
       </c>
       <c r="Z10" s="3">
-        <f t="shared" ref="Z10" si="41">Z5-Z9</f>
-        <v>1018.5793164609981</v>
+        <v>611.53200000000004</v>
       </c>
       <c r="AA10" s="3">
-        <f t="shared" ref="AA10" si="42">AA5-AA9</f>
-        <v>1508.1420389422974</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AA10:AD10" si="24">Z10*1.1</f>
+        <v>672.68520000000012</v>
+      </c>
+      <c r="AB10" s="3">
+        <f t="shared" si="24"/>
+        <v>739.9537200000002</v>
+      </c>
+      <c r="AC10" s="3">
+        <f t="shared" si="24"/>
+        <v>813.94909200000029</v>
+      </c>
+      <c r="AD10" s="3">
+        <f t="shared" si="24"/>
+        <v>895.34400120000043</v>
+      </c>
+      <c r="AE10" s="3">
+        <f t="shared" ref="AE10" si="25">AD10*1.1</f>
+        <v>984.87840132000053</v>
+      </c>
+      <c r="AF10" s="3">
+        <f t="shared" ref="AF10:AG10" si="26">AE10*1.1</f>
+        <v>1083.3662414520006</v>
+      </c>
+      <c r="AG10" s="3">
+        <f t="shared" si="26"/>
+        <v>1191.7028655972008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
+        <f t="shared" ref="D11:L11" si="27">SUM(D8:D10)</f>
+        <v>282.62400000000002</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="27"/>
+        <v>987.803</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="27"/>
+        <v>408.15999999999997</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="27"/>
+        <v>381.137</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="27"/>
+        <v>430.86400000000003</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="27"/>
+        <v>397.28300000000002</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="27"/>
+        <v>404.24700000000001</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="27"/>
+        <v>391.39300000000003</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="27"/>
+        <v>412.53100000000001</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" ref="M11:N11" si="28">SUM(M8:M10)</f>
+        <v>415.53100000000001</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="28"/>
+        <v>422.13900000000001</v>
+      </c>
+      <c r="O11" s="4">
+        <f>+O8+O9+O10</f>
+        <v>413.42599999999999</v>
+      </c>
+      <c r="P11" s="4">
+        <f>+P8+P9+P10</f>
+        <v>416.34400000000005</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>+Q8+Q9+Q10</f>
+        <v>410.25400000000002</v>
+      </c>
+      <c r="R11" s="4">
+        <f>+R8+R9+R10</f>
+        <v>433.91700000000003</v>
+      </c>
+      <c r="S11" s="4">
+        <f>+S8+S9+S10</f>
+        <v>437.20100000000002</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="Y11" s="3">
+        <f>SUM(Y8:Y10)</f>
+        <v>1913.8049999999998</v>
+      </c>
+      <c r="Z11" s="3">
+        <f t="shared" ref="Z11" si="29">SUM(Z8:Z10)</f>
+        <v>1613.5309999999999</v>
+      </c>
+      <c r="AA11" s="3">
+        <f t="shared" ref="AA11" si="30">SUM(AA8:AA10)</f>
+        <v>1774.8841000000002</v>
+      </c>
+      <c r="AB11" s="3">
+        <f t="shared" ref="AB11" si="31">SUM(AB8:AB10)</f>
+        <v>1952.3725100000004</v>
+      </c>
+      <c r="AC11" s="3">
+        <f t="shared" ref="AC11" si="32">SUM(AC8:AC10)</f>
+        <v>2147.6097610000006</v>
+      </c>
+      <c r="AD11" s="3">
+        <f t="shared" ref="AD11" si="33">SUM(AD8:AD10)</f>
+        <v>2362.370737100001</v>
+      </c>
+      <c r="AE11" s="3">
+        <f t="shared" ref="AE11" si="34">SUM(AE8:AE10)</f>
+        <v>2598.6078108100014</v>
+      </c>
+      <c r="AF11" s="3">
+        <f t="shared" ref="AF11" si="35">SUM(AF8:AF10)</f>
+        <v>2858.4685918910018</v>
+      </c>
+      <c r="AG11" s="3">
+        <f t="shared" ref="AG11" si="36">SUM(AG8:AG10)</f>
+        <v>3144.3154510801023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
+        <f t="shared" ref="D12:L12" si="37">D7-D11</f>
+        <v>-99.14500000000001</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="37"/>
+        <v>-847.77700000000004</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="37"/>
+        <v>-156.57199999999995</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="37"/>
+        <v>-114.01400000000001</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="37"/>
+        <v>-146.14800000000002</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="37"/>
+        <v>-91.941000000000031</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="37"/>
+        <v>-58.942999999999984</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="37"/>
+        <v>-39.439000000000021</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="37"/>
+        <v>-41.745000000000005</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" ref="M12:N12" si="38">M7-M11</f>
+        <v>-33.226999999999975</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="38"/>
+        <v>-17.826000000000022</v>
+      </c>
+      <c r="O12" s="4">
+        <f>+O7-O11</f>
+        <v>4.1150000000000659</v>
+      </c>
+      <c r="P12" s="4">
+        <f>+P7-P11</f>
+        <v>10.073999999999955</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>+Q7-Q11</f>
+        <v>39.982999999999947</v>
+      </c>
+      <c r="R12" s="4">
+        <f>+R7-R11</f>
+        <v>65.44399999999996</v>
+      </c>
+      <c r="S12" s="4">
+        <f>+S7-S11</f>
+        <v>80.880999999999972</v>
+      </c>
+      <c r="T12" s="4"/>
+      <c r="Y12" s="3">
+        <f>Y7-Y11</f>
+        <v>-1173.6789999999999</v>
+      </c>
+      <c r="Z12" s="3">
+        <f t="shared" ref="Z12" si="39">Z7-Z11</f>
+        <v>-411.04600000000005</v>
+      </c>
+      <c r="AA12" s="3">
+        <f t="shared" ref="AA12" si="40">AA7-AA11</f>
+        <v>-250.18730000000028</v>
+      </c>
+      <c r="AB12" s="3">
+        <f t="shared" ref="AB12" si="41">AB7-AB11</f>
+        <v>-122.73635000000058</v>
+      </c>
+      <c r="AC12" s="3">
+        <f t="shared" ref="AC12" si="42">AC7-AC11</f>
+        <v>47.95363099999895</v>
+      </c>
+      <c r="AD12" s="3">
+        <f t="shared" ref="AD12" si="43">AD7-AD11</f>
+        <v>272.30533329999889</v>
+      </c>
+      <c r="AE12" s="3">
+        <f t="shared" ref="AE12" si="44">AE7-AE11</f>
+        <v>563.00347366999813</v>
+      </c>
+      <c r="AF12" s="3">
+        <f t="shared" ref="AF12" si="45">AF7-AF11</f>
+        <v>935.46494948499731</v>
+      </c>
+      <c r="AG12" s="3">
+        <f t="shared" ref="AG12" si="46">AG7-AG11</f>
+        <v>1408.4047985710968</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
         <f>0.551-5.646</f>
         <v>-5.0949999999999998</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E13" s="4">
         <f>0.494-2.085</f>
         <v>-1.591</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F13" s="4">
         <f>0.368-1.814</f>
         <v>-1.4460000000000002</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G13" s="4">
         <f>0.376-1.84</f>
         <v>-1.464</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H13" s="4">
         <f>0.372-0.59</f>
         <v>-0.21799999999999997</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I13" s="4">
         <f>0.379-0.609</f>
         <v>-0.22999999999999998</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J13" s="4">
         <f>0.48-0.601</f>
         <v>-0.121</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K13" s="4">
         <f>0.547-0.594</f>
         <v>-4.6999999999999931E-2</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L13" s="4">
+        <f>1.472-0.67</f>
+        <v>0.80199999999999994</v>
+      </c>
+      <c r="M13" s="4">
         <v>0</v>
       </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="S11" s="3">
+      <c r="N13" s="4">
+        <f>12.75-1.712+44.637</f>
+        <v>55.674999999999997</v>
+      </c>
+      <c r="O13" s="4">
+        <f>20.853-4.136</f>
+        <v>16.717000000000002</v>
+      </c>
+      <c r="P13" s="4">
+        <f>30.31-1.317-9.024</f>
+        <v>19.969000000000001</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>36.864-0.742+3.864</f>
+        <v>39.985999999999997</v>
+      </c>
+      <c r="R13" s="4">
+        <f>44.545-0.136-3.956</f>
+        <v>40.452999999999996</v>
+      </c>
+      <c r="S13" s="4">
+        <f>43.352-13.507</f>
+        <v>29.844999999999999</v>
+      </c>
+      <c r="T13" s="4"/>
+      <c r="Y13" s="3">
         <f>4.68-14.139</f>
         <v>-9.4589999999999996</v>
       </c>
-      <c r="T11" s="3">
+      <c r="Z13" s="3">
         <f>1.607-3.64</f>
         <v>-2.0330000000000004</v>
       </c>
-      <c r="U11" s="3">
+      <c r="AA13" s="3">
         <v>0</v>
       </c>
-      <c r="V11" s="3">
+      <c r="AB13" s="3">
         <v>0</v>
       </c>
-      <c r="W11" s="3">
+      <c r="AC13" s="3">
         <v>0</v>
       </c>
-      <c r="X11" s="3">
+      <c r="AD13" s="3">
         <v>0</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="AE13" s="3">
         <v>0</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="AF13" s="3">
         <v>0</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AG13" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
+    <row r="14" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4">
-        <f>D10-D11</f>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <f t="shared" ref="D14:L14" si="47">D12-D13</f>
         <v>-94.050000000000011</v>
       </c>
-      <c r="E12" s="4">
-        <f>E10-E11</f>
+      <c r="E14" s="4">
+        <f t="shared" si="47"/>
         <v>-846.18600000000004</v>
       </c>
-      <c r="F12" s="4">
-        <f>F10-F11</f>
+      <c r="F14" s="4">
+        <f t="shared" si="47"/>
         <v>-155.12599999999995</v>
       </c>
-      <c r="G12" s="4">
-        <f>G10-G11</f>
+      <c r="G14" s="4">
+        <f t="shared" si="47"/>
         <v>-112.55000000000001</v>
       </c>
-      <c r="H12" s="4">
-        <f>H10-H11</f>
+      <c r="H14" s="4">
+        <f t="shared" si="47"/>
         <v>-145.93000000000004</v>
       </c>
-      <c r="I12" s="4">
-        <f>I10-I11</f>
+      <c r="I14" s="4">
+        <f t="shared" si="47"/>
         <v>-91.711000000000027</v>
       </c>
-      <c r="J12" s="4">
-        <f>J10-J11</f>
+      <c r="J14" s="4">
+        <f t="shared" si="47"/>
         <v>-58.821999999999981</v>
       </c>
-      <c r="K12" s="4">
-        <f>K10-K11</f>
+      <c r="K14" s="4">
+        <f t="shared" si="47"/>
         <v>-39.392000000000024</v>
       </c>
-      <c r="L12" s="4">
-        <f>L10-L11</f>
-        <v>-18.393000000000029</v>
-      </c>
-      <c r="M12" s="4">
-        <f t="shared" ref="M12:N12" si="43">M10-M11</f>
-        <v>-5.2470000000000141</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" si="43"/>
-        <v>32.47399999999999</v>
-      </c>
-      <c r="S12" s="3">
-        <f>S10+S11</f>
+      <c r="L14" s="4">
+        <f t="shared" si="47"/>
+        <v>-42.547000000000004</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" ref="M14" si="48">M12-M13</f>
+        <v>-33.226999999999975</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" ref="N14:S14" si="49">+N12+N13</f>
+        <v>37.848999999999975</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="49"/>
+        <v>20.832000000000068</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="49"/>
+        <v>30.042999999999957</v>
+      </c>
+      <c r="Q14" s="4">
+        <f t="shared" si="49"/>
+        <v>79.968999999999937</v>
+      </c>
+      <c r="R14" s="4">
+        <f t="shared" si="49"/>
+        <v>105.89699999999996</v>
+      </c>
+      <c r="S14" s="4">
+        <f t="shared" si="49"/>
+        <v>110.72599999999997</v>
+      </c>
+      <c r="T14" s="4"/>
+      <c r="Y14" s="3">
+        <f t="shared" ref="Y14:AD14" si="50">Y12+Y13</f>
         <v>-1183.1379999999999</v>
       </c>
-      <c r="T12" s="3">
-        <f>T10+T11</f>
+      <c r="Z14" s="3">
+        <f t="shared" si="50"/>
         <v>-413.07900000000006</v>
       </c>
-      <c r="U12" s="3">
-        <f>U10+U11</f>
-        <v>-216.78550000000018</v>
-      </c>
-      <c r="V12" s="3">
-        <f>V10+V11</f>
-        <v>-82.654190000000426</v>
-      </c>
-      <c r="W12" s="3">
-        <f>W10+W11</f>
-        <v>96.052222999999231</v>
-      </c>
-      <c r="X12" s="3">
-        <f>X10+X11</f>
-        <v>330.02364369999941</v>
-      </c>
-      <c r="Y12" s="3">
-        <f t="shared" ref="Y12" si="44">Y10+Y11</f>
-        <v>632.2654461499983</v>
-      </c>
-      <c r="Z12" s="3">
-        <f t="shared" ref="Z12" si="45">Z10+Z11</f>
-        <v>1018.5793164609981</v>
-      </c>
-      <c r="AA12" s="3">
-        <f t="shared" ref="AA12" si="46">AA10+AA11</f>
-        <v>1508.1420389422974</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
+      <c r="AA14" s="3">
+        <f t="shared" si="50"/>
+        <v>-250.18730000000028</v>
+      </c>
+      <c r="AB14" s="3">
+        <f t="shared" si="50"/>
+        <v>-122.73635000000058</v>
+      </c>
+      <c r="AC14" s="3">
+        <f t="shared" si="50"/>
+        <v>47.95363099999895</v>
+      </c>
+      <c r="AD14" s="3">
+        <f t="shared" si="50"/>
+        <v>272.30533329999889</v>
+      </c>
+      <c r="AE14" s="3">
+        <f t="shared" ref="AE14" si="51">AE12+AE13</f>
+        <v>563.00347366999813</v>
+      </c>
+      <c r="AF14" s="3">
+        <f t="shared" ref="AF14" si="52">AF12+AF13</f>
+        <v>935.46494948499731</v>
+      </c>
+      <c r="AG14" s="3">
+        <f t="shared" ref="AG14" si="53">AG12+AG13</f>
+        <v>1408.4047985710968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
         <f>0.943</f>
         <v>0.94299999999999995</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E15" s="4">
         <v>-8.5429999999999993</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F15" s="4">
         <v>-7.593</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G15" s="4">
         <v>3.1019999999999999</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H15" s="4">
         <v>-5.6609999999999996</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I15" s="4">
         <v>1.4379999999999999</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J15" s="4">
         <v>33.006</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K15" s="4">
         <v>2.0230000000000001</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L15" s="4">
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="M15" s="4">
         <v>0</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N15" s="4">
+        <f>4.36+2.611</f>
+        <v>6.9710000000000001</v>
+      </c>
+      <c r="O15" s="4">
+        <f>1.681+2.349</f>
+        <v>4.03</v>
+      </c>
+      <c r="P15" s="4">
+        <f>2.171-0.255</f>
+        <v>1.9159999999999999</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>6.53+1.934</f>
+        <v>8.4640000000000004</v>
+      </c>
+      <c r="R15" s="4">
+        <f>9.334+3.522</f>
+        <v>12.856</v>
+      </c>
+      <c r="S15" s="4">
+        <f>4.655+0.541</f>
+        <v>5.1960000000000006</v>
+      </c>
+      <c r="T15" s="4"/>
+      <c r="Y15" s="3">
+        <v>-12.635999999999999</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>31.885000000000002</v>
+      </c>
+      <c r="AA15" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="4">
+      <c r="AB15" s="3">
         <v>0</v>
       </c>
-      <c r="S13" s="3">
-        <v>-12.635999999999999</v>
-      </c>
-      <c r="T13" s="3">
-        <v>31.885000000000002</v>
-      </c>
-      <c r="U13" s="3">
+      <c r="AC15" s="3">
         <v>0</v>
       </c>
-      <c r="V13" s="3">
-        <v>0</v>
-      </c>
-      <c r="W13" s="3">
-        <v>0</v>
-      </c>
-      <c r="X13" s="3">
-        <f>X12*0.1</f>
-        <v>33.002364369999945</v>
-      </c>
-      <c r="Y13" s="3">
-        <f t="shared" ref="Y13" si="47">Y12*0.1</f>
-        <v>63.226544614999831</v>
-      </c>
-      <c r="Z13" s="3">
-        <f t="shared" ref="Z13" si="48">Z12*0.1</f>
-        <v>101.85793164609981</v>
-      </c>
-      <c r="AA13" s="3">
-        <f t="shared" ref="AA13" si="49">AA12*0.1</f>
-        <v>150.81420389422973</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+      <c r="AD15" s="3">
+        <f>AD14*0.1</f>
+        <v>27.23053332999989</v>
+      </c>
+      <c r="AE15" s="3">
+        <f t="shared" ref="AE15" si="54">AE14*0.1</f>
+        <v>56.300347366999816</v>
+      </c>
+      <c r="AF15" s="3">
+        <f t="shared" ref="AF15" si="55">AF14*0.1</f>
+        <v>93.546494948499742</v>
+      </c>
+      <c r="AG15" s="3">
+        <f t="shared" ref="AG15" si="56">AG14*0.1</f>
+        <v>140.84047985710967</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4">
-        <f>D12-D13</f>
-        <v>-94.993000000000009</v>
-      </c>
-      <c r="E14" s="4">
-        <f>E12-E13</f>
-        <v>-837.64300000000003</v>
-      </c>
-      <c r="F14" s="4">
-        <f>F12-F13</f>
-        <v>-147.53299999999996</v>
-      </c>
-      <c r="G14" s="4">
-        <f>G12-G13</f>
-        <v>-115.65200000000002</v>
-      </c>
-      <c r="H14" s="4">
-        <f>H12-H13</f>
-        <v>-140.26900000000003</v>
-      </c>
-      <c r="I14" s="4">
-        <f>I12-I13</f>
-        <v>-93.149000000000029</v>
-      </c>
-      <c r="J14" s="4">
-        <f>J12-J13</f>
-        <v>-91.827999999999975</v>
-      </c>
-      <c r="K14" s="4">
-        <f>K12-K13</f>
-        <v>-41.415000000000028</v>
-      </c>
-      <c r="L14" s="4">
-        <f>L12-L13</f>
-        <v>-18.393000000000029</v>
-      </c>
-      <c r="M14" s="4">
-        <f t="shared" ref="M14:N14" si="50">M12-M13</f>
-        <v>-5.2470000000000141</v>
-      </c>
-      <c r="N14" s="4">
-        <f t="shared" si="50"/>
-        <v>32.47399999999999</v>
-      </c>
-      <c r="S14" s="3">
-        <f>S12-S13</f>
-        <v>-1170.502</v>
-      </c>
-      <c r="T14" s="3">
-        <f>T12-T13</f>
-        <v>-444.96400000000006</v>
-      </c>
-      <c r="U14" s="3">
-        <f t="shared" ref="U14:X14" si="51">U12-U13</f>
-        <v>-216.78550000000018</v>
-      </c>
-      <c r="V14" s="3">
-        <f t="shared" si="51"/>
-        <v>-82.654190000000426</v>
-      </c>
-      <c r="W14" s="3">
-        <f t="shared" si="51"/>
-        <v>96.052222999999231</v>
-      </c>
-      <c r="X14" s="3">
-        <f t="shared" si="51"/>
-        <v>297.02127932999946</v>
-      </c>
-      <c r="Y14" s="3">
-        <f t="shared" ref="Y14" si="52">Y12-Y13</f>
-        <v>569.03890153499844</v>
-      </c>
-      <c r="Z14" s="3">
-        <f t="shared" ref="Z14" si="53">Z12-Z13</f>
-        <v>916.72138481489833</v>
-      </c>
-      <c r="AA14" s="3">
-        <f t="shared" ref="AA14" si="54">AA12-AA13</f>
-        <v>1357.3278350480678</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
-        <f>D14/D16</f>
-        <v>-0.14827157237200492</v>
-      </c>
-      <c r="E15" s="7">
-        <f>E14/E16</f>
-        <v>-0.92510011463761044</v>
-      </c>
-      <c r="F15" s="7">
-        <f>F14/F16</f>
-        <v>-8.3658536308756248E-2</v>
-      </c>
-      <c r="G15" s="7">
-        <f>G14/G16</f>
-        <v>-6.3504649239659608E-2</v>
-      </c>
-      <c r="H15" s="7">
-        <f>H14/H16</f>
-        <v>-7.4035973706406522E-2</v>
-      </c>
-      <c r="I15" s="7">
-        <f>I14/I16</f>
-        <v>-4.7418670888492401E-2</v>
-      </c>
-      <c r="J15" s="7">
-        <f>J14/J16</f>
-        <v>-4.5645513091992884E-2</v>
-      </c>
-      <c r="K15" s="7">
-        <f>K14/K16</f>
-        <v>-2.0338288872945007E-2</v>
-      </c>
-      <c r="L15" s="7">
-        <f>L14/L16</f>
-        <v>-9.0325280028993801E-3</v>
-      </c>
-      <c r="M15" s="7">
-        <f t="shared" ref="M15:N15" si="55">M14/M16</f>
-        <v>-2.5767234508352688E-3</v>
-      </c>
-      <c r="N15" s="7">
-        <f t="shared" si="55"/>
-        <v>1.594749711119197E-2</v>
-      </c>
-      <c r="S15" s="1">
-        <f>S14/S16</f>
-        <v>-1.1952069271849119</v>
-      </c>
-      <c r="T15" s="1">
-        <f>T14/T16</f>
-        <v>-0.23131631712549852</v>
-      </c>
-      <c r="U15" s="1">
-        <f t="shared" ref="U15:X15" si="56">U14/U16</f>
-        <v>-0.10646012610082869</v>
-      </c>
-      <c r="V15" s="1">
-        <f t="shared" si="56"/>
-        <v>-4.0590240076766627E-2</v>
-      </c>
-      <c r="W15" s="1">
-        <f t="shared" si="56"/>
-        <v>4.7169814276530615E-2</v>
-      </c>
-      <c r="X15" s="1">
-        <f t="shared" si="56"/>
-        <v>0.14586272076361739</v>
-      </c>
-      <c r="Y15" s="1">
-        <f t="shared" ref="Y15" si="57">Y14/Y16</f>
-        <v>0.27944651839580104</v>
-      </c>
-      <c r="Z15" s="1">
-        <f t="shared" ref="Z15" si="58">Z14/Z16</f>
-        <v>0.450188200902368</v>
-      </c>
-      <c r="AA15" s="1">
-        <f t="shared" ref="AA15" si="59">AA14/AA16</f>
-        <v>0.66656345779298887</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4">
+        <f t="shared" ref="D16:L16" si="57">D14-D15</f>
+        <v>-94.993000000000009</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="57"/>
+        <v>-837.64300000000003</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="57"/>
+        <v>-147.53299999999996</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="57"/>
+        <v>-115.65200000000002</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="57"/>
+        <v>-140.26900000000003</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="57"/>
+        <v>-93.149000000000029</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="57"/>
+        <v>-91.827999999999975</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="57"/>
+        <v>-41.415000000000028</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="57"/>
+        <v>-45.135000000000005</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" ref="M16:N16" si="58">M14-M15</f>
+        <v>-33.226999999999975</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="58"/>
+        <v>30.877999999999975</v>
+      </c>
+      <c r="O16" s="4">
+        <f>+O14-O15</f>
+        <v>16.802000000000067</v>
+      </c>
+      <c r="P16" s="4">
+        <f>+P14-P15</f>
+        <v>28.126999999999956</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>+Q14-Q15</f>
+        <v>71.504999999999939</v>
+      </c>
+      <c r="R16" s="4">
+        <f>+R14-R15</f>
+        <v>93.040999999999968</v>
+      </c>
+      <c r="S16" s="4">
+        <f>+S14-S15</f>
+        <v>105.52999999999997</v>
+      </c>
+      <c r="T16" s="4"/>
+      <c r="Y16" s="3">
+        <f>Y14-Y15</f>
+        <v>-1170.502</v>
+      </c>
+      <c r="Z16" s="3">
+        <f>Z14-Z15</f>
+        <v>-444.96400000000006</v>
+      </c>
+      <c r="AA16" s="3">
+        <f t="shared" ref="AA16:AD16" si="59">AA14-AA15</f>
+        <v>-250.18730000000028</v>
+      </c>
+      <c r="AB16" s="3">
+        <f t="shared" si="59"/>
+        <v>-122.73635000000058</v>
+      </c>
+      <c r="AC16" s="3">
+        <f t="shared" si="59"/>
+        <v>47.95363099999895</v>
+      </c>
+      <c r="AD16" s="3">
+        <f t="shared" si="59"/>
+        <v>245.07479996999899</v>
+      </c>
+      <c r="AE16" s="3">
+        <f t="shared" ref="AE16" si="60">AE14-AE15</f>
+        <v>506.70312630299833</v>
+      </c>
+      <c r="AF16" s="3">
+        <f t="shared" ref="AF16" si="61">AF14-AF15</f>
+        <v>841.91845453649762</v>
+      </c>
+      <c r="AG16" s="3">
+        <f t="shared" ref="AG16" si="62">AG14-AG15</f>
+        <v>1267.5643187139872</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" ref="D17:L17" si="63">D16/D18</f>
+        <v>-0.14827157237200492</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="63"/>
+        <v>-0.92510011463761044</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="63"/>
+        <v>-8.3658536308756248E-2</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="63"/>
+        <v>-6.3504649239659608E-2</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="63"/>
+        <v>-7.4035973706406522E-2</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="63"/>
+        <v>-4.7418670888492401E-2</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="63"/>
+        <v>-4.5645513091992884E-2</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="63"/>
+        <v>-2.0338288872945007E-2</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="63"/>
+        <v>-2.1965652114878394E-2</v>
+      </c>
+      <c r="M17" s="7">
+        <f t="shared" ref="M17:N17" si="64">M16/M18</f>
+        <v>-1.6170438081778302E-2</v>
+      </c>
+      <c r="N17" s="7">
+        <f t="shared" si="64"/>
+        <v>1.4011679273305783E-2</v>
+      </c>
+      <c r="O17" s="7">
+        <f>+O16/O18</f>
+        <v>7.5772095647276289E-3</v>
+      </c>
+      <c r="P17" s="7">
+        <f>+P16/P18</f>
+        <v>1.2346394341034721E-2</v>
+      </c>
+      <c r="Q17" s="7">
+        <f>+Q16/Q18</f>
+        <v>3.0746904024767777E-2</v>
+      </c>
+      <c r="R17" s="7">
+        <f>+R16/R18</f>
+        <v>3.9461908894187728E-2</v>
+      </c>
+      <c r="S17" s="7">
+        <f>+S16/S18</f>
+        <v>4.3968873054409649E-2</v>
+      </c>
+      <c r="T17" s="7"/>
+      <c r="Y17" s="1">
+        <f>Y16/Y18</f>
+        <v>-1.1952069271849119</v>
+      </c>
+      <c r="Z17" s="1">
+        <f>Z16/Z18</f>
+        <v>-0.23131631712549852</v>
+      </c>
+      <c r="AA17" s="1">
+        <f t="shared" ref="AA17:AD17" si="65">AA16/AA18</f>
+        <v>-0.11985539971912569</v>
+      </c>
+      <c r="AB17" s="1">
+        <f t="shared" si="65"/>
+        <v>-5.8798405391946619E-2</v>
+      </c>
+      <c r="AC17" s="1">
+        <f t="shared" si="65"/>
+        <v>2.2972795227768655E-2</v>
+      </c>
+      <c r="AD17" s="1">
+        <f t="shared" si="65"/>
+        <v>0.11740619172711393</v>
+      </c>
+      <c r="AE17" s="1">
+        <f t="shared" ref="AE17" si="66">AE16/AE18</f>
+        <v>0.24274256024177257</v>
+      </c>
+      <c r="AF17" s="1">
+        <f t="shared" ref="AF17" si="67">AF16/AF18</f>
+        <v>0.4033317154762866</v>
+      </c>
+      <c r="AG17" s="1">
+        <f t="shared" ref="AG17" si="68">AG16/AG18</f>
+        <v>0.60724276607631966</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
         <v>640.66899999999998</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E18" s="4">
         <v>905.46199999999999</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F18" s="4">
         <v>1763.5139999999999</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G18" s="4">
         <v>1821.1579999999999</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H18" s="4">
         <v>1894.606</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I18" s="4">
         <v>1964.395</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J18" s="4">
         <v>2011.7639999999999</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K18" s="4">
         <v>2036.307</v>
       </c>
-      <c r="L16" s="4">
-        <f>K16</f>
-        <v>2036.307</v>
-      </c>
-      <c r="M16" s="4">
-        <f t="shared" ref="M16:N16" si="60">L16</f>
-        <v>2036.307</v>
-      </c>
-      <c r="N16" s="4">
-        <f t="shared" si="60"/>
-        <v>2036.307</v>
-      </c>
-      <c r="S16" s="3">
+      <c r="L18" s="4">
+        <v>2054.799</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" ref="M18" si="69">L18</f>
+        <v>2054.799</v>
+      </c>
+      <c r="N18" s="4">
+        <v>2203.7330000000002</v>
+      </c>
+      <c r="O18" s="4">
+        <v>2217.4389999999999</v>
+      </c>
+      <c r="P18" s="4">
+        <v>2278.1550000000002</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>2325.6</v>
+      </c>
+      <c r="R18" s="4">
+        <v>2357.7420000000002</v>
+      </c>
+      <c r="S18" s="4">
+        <v>2400.107</v>
+      </c>
+      <c r="T18" s="4"/>
+      <c r="Y18" s="3">
         <v>979.33</v>
       </c>
-      <c r="T16" s="3">
+      <c r="Z18" s="3">
         <v>1923.617</v>
       </c>
-      <c r="U16" s="3">
-        <f>AVERAGE(K16:N16)</f>
-        <v>2036.307</v>
-      </c>
-      <c r="V16" s="3">
-        <f>U16</f>
-        <v>2036.307</v>
-      </c>
-      <c r="W16" s="3">
-        <f>V16</f>
-        <v>2036.307</v>
-      </c>
-      <c r="X16" s="3">
-        <f>W16</f>
-        <v>2036.307</v>
-      </c>
-      <c r="Y16" s="3">
-        <f t="shared" ref="Y16:Z16" si="61">X16</f>
-        <v>2036.307</v>
-      </c>
-      <c r="Z16" s="3">
-        <f t="shared" ref="Z16:AA16" si="62">Y16</f>
-        <v>2036.307</v>
-      </c>
-      <c r="AA16" s="3">
-        <f t="shared" si="62"/>
-        <v>2036.307</v>
-      </c>
-    </row>
-    <row r="19" spans="2:27" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
+      <c r="AA18" s="3">
+        <f>AVERAGE(K18:N18)</f>
+        <v>2087.4094999999998</v>
+      </c>
+      <c r="AB18" s="3">
+        <f>AA18</f>
+        <v>2087.4094999999998</v>
+      </c>
+      <c r="AC18" s="3">
+        <f>AB18</f>
+        <v>2087.4094999999998</v>
+      </c>
+      <c r="AD18" s="3">
+        <f>AC18</f>
+        <v>2087.4094999999998</v>
+      </c>
+      <c r="AE18" s="3">
+        <f t="shared" ref="AE18" si="70">AD18</f>
+        <v>2087.4094999999998</v>
+      </c>
+      <c r="AF18" s="3">
+        <f t="shared" ref="AF18:AG18" si="71">AE18</f>
+        <v>2087.4094999999998</v>
+      </c>
+      <c r="AG18" s="3">
+        <f t="shared" si="71"/>
+        <v>2087.4094999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10">
-        <f>H3/D3-1</f>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10">
+        <f>H5/D5-1</f>
         <v>0.49129973917082514</v>
       </c>
-      <c r="I19" s="10">
-        <f>I3/E3-1</f>
+      <c r="I21" s="10">
+        <f>I5/E5-1</f>
         <v>0.35519031261447442</v>
       </c>
-      <c r="J19" s="10">
-        <f>J3/F3-1</f>
+      <c r="J21" s="10">
+        <f>J5/F5-1</f>
         <v>0.34392764777656004</v>
       </c>
-      <c r="K19" s="10">
-        <f>K3/G3-1</f>
+      <c r="K21" s="10">
+        <f>K5/G5-1</f>
         <v>0.30806719142875583</v>
       </c>
-      <c r="L19" s="10">
-        <f>L3/H3-1</f>
-        <v>0.25119129383828231</v>
-      </c>
-      <c r="M19" s="10">
-        <f t="shared" ref="M19:N19" si="63">M3/I3-1</f>
-        <v>0.25</v>
-      </c>
-      <c r="N19" s="10">
-        <f t="shared" si="63"/>
-        <v>0.25</v>
-      </c>
-      <c r="T19" s="12">
-        <f>T3/S3-1</f>
+      <c r="L21" s="10">
+        <f>L5/H5-1</f>
+        <v>0.25920424233711881</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" ref="M21:O21" si="72">M5/I5-1</f>
+        <v>0.21862775598884077</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="72"/>
+        <v>0.17501218619113956</v>
+      </c>
+      <c r="O21" s="10">
+        <f t="shared" si="72"/>
+        <v>0.1766052733574246</v>
+      </c>
+      <c r="P21" s="10">
+        <f t="shared" ref="P21:T21" si="73">P5/L5-1</f>
+        <v>0.12749624743662924</v>
+      </c>
+      <c r="Q21" s="10">
+        <f t="shared" si="73"/>
+        <v>0.16798987193437687</v>
+      </c>
+      <c r="R21" s="10">
+        <f t="shared" si="73"/>
+        <v>0.19538205039479051</v>
+      </c>
+      <c r="S21" s="10">
+        <f t="shared" si="73"/>
+        <v>0.20783493847893864</v>
+      </c>
+      <c r="T21" s="10">
+        <f t="shared" si="73"/>
+        <v>0.22816261248000713</v>
+      </c>
+      <c r="Z21" s="12">
+        <f>Z5/Y5-1</f>
         <v>0.41111659206368234</v>
       </c>
-      <c r="U19" s="12">
-        <f>U3/T3-1</f>
-        <v>0.26314102377019366</v>
-      </c>
-      <c r="V19" s="12">
-        <f>V3/U3-1</f>
+      <c r="AA21" s="12">
+        <f>AA5/Z5-1</f>
+        <v>0.23606238840798532</v>
+      </c>
+      <c r="AB21" s="12">
+        <f>AB5/AA5-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="W19" s="12">
-        <f>W3/V3-1</f>
+      <c r="AC21" s="12">
+        <f>AC5/AB5-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="X19" s="12">
-        <f>X3/W3-1</f>
+      <c r="AD21" s="12">
+        <f>AD5/AC5-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="Y19" s="12">
-        <f t="shared" ref="Y19:Z19" si="64">Y3/X3-1</f>
+      <c r="AE21" s="12">
+        <f t="shared" ref="AE21" si="74">AE5/AD5-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="Z19" s="12">
-        <f t="shared" ref="Z19:AA19" si="65">Z3/Y3-1</f>
+      <c r="AF21" s="12">
+        <f t="shared" ref="AF21:AG21" si="75">AF5/AE5-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AA19" s="12">
-        <f t="shared" si="65"/>
+      <c r="AG21" s="12">
+        <f t="shared" si="75"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="8">
-        <f>D5/D3</f>
+      <c r="D22" s="8">
+        <f t="shared" ref="D22:K22" si="76">D7/D5</f>
         <v>0.72841211803611916</v>
       </c>
-      <c r="E20" s="8">
-        <f>E5/E3</f>
+      <c r="E22" s="8">
+        <f t="shared" si="76"/>
         <v>0.48390619492269304</v>
       </c>
-      <c r="F20" s="8">
-        <f>F5/F3</f>
+      <c r="F22" s="8">
+        <f t="shared" si="76"/>
         <v>0.78110844450791861</v>
       </c>
-      <c r="G20" s="8">
-        <f>G5/G3</f>
+      <c r="G22" s="8">
+        <f t="shared" si="76"/>
         <v>0.78281472537906538</v>
       </c>
-      <c r="H20" s="8">
-        <f>H5/H3</f>
+      <c r="H22" s="8">
+        <f t="shared" si="76"/>
         <v>0.75794506471587308</v>
       </c>
-      <c r="I20" s="8">
-        <f>I5/I3</f>
+      <c r="I22" s="8">
+        <f t="shared" si="76"/>
         <v>0.77864366842961541</v>
       </c>
-      <c r="J20" s="8">
-        <f>J5/J3</f>
+      <c r="J22" s="8">
+        <f t="shared" si="76"/>
         <v>0.79771384744043783</v>
       </c>
-      <c r="K20" s="8">
-        <f>K5/K3</f>
+      <c r="K22" s="8">
+        <f t="shared" si="76"/>
         <v>0.78850337286073702</v>
       </c>
-      <c r="L20" s="8">
-        <f t="shared" ref="L20:N20" si="66">L5/L3</f>
+      <c r="L22" s="8">
+        <f t="shared" ref="L22:P22" si="77">L7/L5</f>
+        <v>0.78388617576795416</v>
+      </c>
+      <c r="M22" s="8">
+        <f t="shared" si="77"/>
         <v>0.8</v>
       </c>
-      <c r="M20" s="8">
-        <f t="shared" si="66"/>
+      <c r="N22" s="8">
+        <f t="shared" si="77"/>
+        <v>0.79491530089024498</v>
+      </c>
+      <c r="O22" s="8">
+        <f t="shared" si="77"/>
+        <v>0.79503452110299977</v>
+      </c>
+      <c r="P22" s="8">
+        <f t="shared" si="77"/>
+        <v>0.79955823647099189</v>
+      </c>
+      <c r="Q22" s="8">
+        <f t="shared" ref="Q22:R22" si="78">Q7/Q5</f>
+        <v>0.80664649320354953</v>
+      </c>
+      <c r="R22" s="8">
+        <f t="shared" si="78"/>
+        <v>0.82131743421052628</v>
+      </c>
+      <c r="S22" s="8">
+        <f t="shared" ref="S22:T22" si="79">S7/S5</f>
+        <v>0.81672862101907817</v>
+      </c>
+      <c r="T22" s="8">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="8">
+        <f t="shared" ref="Y22:AD22" si="80">Y7/Y5</f>
+        <v>0.67735360899372454</v>
+      </c>
+      <c r="Z22" s="8">
+        <f t="shared" si="80"/>
+        <v>0.77987779924495215</v>
+      </c>
+      <c r="AA22" s="8">
+        <f t="shared" si="80"/>
         <v>0.8</v>
       </c>
-      <c r="N20" s="8">
-        <f t="shared" si="66"/>
+      <c r="AB22" s="8">
+        <f t="shared" si="80"/>
         <v>0.8</v>
       </c>
-      <c r="S20" s="8">
-        <f t="shared" ref="S20:X20" si="67">S5/S3</f>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="T20" s="8">
-        <f t="shared" si="67"/>
-        <v>0.77987779924495215</v>
-      </c>
-      <c r="U20" s="8">
-        <f t="shared" si="67"/>
+      <c r="AC22" s="8">
+        <f t="shared" si="80"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="AD22" s="8">
+        <f t="shared" si="80"/>
         <v>0.8</v>
       </c>
-      <c r="V20" s="8">
-        <f t="shared" si="67"/>
+      <c r="AE22" s="8">
+        <f t="shared" ref="AE22" si="81">AE7/AE5</f>
         <v>0.8</v>
       </c>
-      <c r="W20" s="8">
-        <f t="shared" si="67"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="X20" s="8">
-        <f t="shared" si="67"/>
-        <v>0.80000000000000016</v>
-      </c>
-      <c r="Y20" s="8">
-        <f t="shared" ref="Y20:Z20" si="68">Y5/Y3</f>
+      <c r="AF22" s="8">
+        <f t="shared" ref="AF22:AG22" si="82">AF7/AF5</f>
         <v>0.8</v>
       </c>
-      <c r="Z20" s="8">
-        <f t="shared" ref="Z20:AA20" si="69">Z5/Z3</f>
+      <c r="AG22" s="8">
+        <f t="shared" si="82"/>
         <v>0.8</v>
       </c>
-      <c r="AA20" s="8">
-        <f t="shared" si="69"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
+    </row>
+    <row r="24" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4">
-        <f>2269.411+33.804+252.563+29.222</f>
-        <v>2585.0000000000005</v>
-      </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2168,15 +2621,37 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4">
-        <v>256.55399999999997</v>
+        <f>2269.411+33.804+252.563+29.222</f>
+        <v>2585.0000000000005</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
-    </row>
-    <row r="25" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O24" s="4">
+        <f>1264.738+1639.797+11.946+12.095</f>
+        <v>2928.5759999999996</v>
+      </c>
+      <c r="P24" s="4">
+        <f>1055.923+2047.329</f>
+        <v>3103.252</v>
+      </c>
+      <c r="Q24" s="4">
+        <f>1040.31+2243.264</f>
+        <v>3283.5740000000001</v>
+      </c>
+      <c r="R24" s="4">
+        <f>831.047+2843.132</f>
+        <v>3674.1790000000001</v>
+      </c>
+      <c r="S24" s="4">
+        <f>520.388+3347.512</f>
+        <v>3867.9</v>
+      </c>
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2187,15 +2662,31 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4">
-        <v>115.042</v>
+        <v>256.55399999999997</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
-    </row>
-    <row r="26" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O25" s="4">
+        <v>254.041</v>
+      </c>
+      <c r="P25" s="4">
+        <v>375.75599999999997</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>430.26900000000001</v>
+      </c>
+      <c r="R25" s="4">
+        <v>364.78399999999999</v>
+      </c>
+      <c r="S25" s="4">
+        <v>486.98599999999999</v>
+      </c>
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2206,15 +2697,31 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4">
-        <v>41.866</v>
+        <v>115.042</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
-    </row>
-    <row r="27" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O26" s="4">
+        <v>85.625</v>
+      </c>
+      <c r="P26" s="4">
+        <v>97.906000000000006</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>95.554000000000002</v>
+      </c>
+      <c r="R26" s="4">
+        <v>99.655000000000001</v>
+      </c>
+      <c r="S26" s="4">
+        <v>81.177999999999997</v>
+      </c>
+      <c r="T26" s="4"/>
+    </row>
+    <row r="27" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2225,15 +2732,31 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4">
-        <v>224.88800000000001</v>
+        <v>41.866</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
-    </row>
-    <row r="28" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="4">
+        <v>63.115000000000002</v>
+      </c>
+      <c r="P27" s="4">
+        <v>54.097000000000001</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>50.133000000000003</v>
+      </c>
+      <c r="R27" s="4">
+        <v>47.758000000000003</v>
+      </c>
+      <c r="S27" s="4">
+        <v>46.905999999999999</v>
+      </c>
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2244,15 +2767,31 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4">
-        <v>95.828999999999994</v>
+        <v>224.88800000000001</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="4">
+        <v>210.01900000000001</v>
+      </c>
+      <c r="P28" s="4">
+        <v>199.661</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>190.191</v>
+      </c>
+      <c r="R28" s="4">
+        <v>182.863</v>
+      </c>
+      <c r="S28" s="4">
+        <v>173.70699999999999</v>
+      </c>
+      <c r="T28" s="4"/>
+    </row>
+    <row r="29" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2263,35 +2802,72 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4">
-        <f>SUM(K23:K28)</f>
-        <v>3319.1790000000005</v>
+        <v>95.828999999999994</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
-    </row>
-    <row r="31" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
+      <c r="O29" s="4">
+        <v>141.762</v>
+      </c>
+      <c r="P29" s="4">
+        <v>149.59200000000001</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>143.696</v>
+      </c>
+      <c r="R29" s="4">
+        <v>153.18600000000001</v>
+      </c>
+      <c r="S29" s="4">
+        <v>150.40199999999999</v>
+      </c>
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4">
+        <f>SUM(K24:K29)</f>
+        <v>3319.1790000000005</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4">
+        <f>SUM(O24:O29)</f>
+        <v>3683.1379999999995</v>
+      </c>
+      <c r="P30" s="4">
+        <f>SUM(P24:P29)</f>
+        <v>3980.2640000000001</v>
+      </c>
+      <c r="Q30" s="4">
+        <f>SUM(Q24:Q29)</f>
+        <v>4193.4169999999995</v>
+      </c>
+      <c r="R30" s="4">
+        <f>SUM(R24:R29)</f>
+        <v>4522.4250000000002</v>
+      </c>
+      <c r="S30" s="4">
+        <f>SUM(S24:S29)</f>
+        <v>4807.0790000000006</v>
+      </c>
+      <c r="T30" s="4"/>
+    </row>
+    <row r="32" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4">
-        <v>27.454000000000001</v>
-      </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2302,15 +2878,31 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4">
-        <v>150.17599999999999</v>
+        <v>27.454000000000001</v>
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O32" s="4">
+        <v>4.53</v>
+      </c>
+      <c r="P32" s="4">
+        <v>4.6130000000000004</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>9.4749999999999996</v>
+      </c>
+      <c r="R32" s="4">
+        <v>12.122</v>
+      </c>
+      <c r="S32" s="4">
+        <v>35.634</v>
+      </c>
+      <c r="T32" s="4"/>
+    </row>
+    <row r="33" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2321,16 +2913,31 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4">
-        <f>218.521+33.244</f>
-        <v>251.76499999999999</v>
+        <v>150.17599999999999</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="4">
+        <v>174.52500000000001</v>
+      </c>
+      <c r="P33" s="4">
+        <v>184.61699999999999</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>174.75299999999999</v>
+      </c>
+      <c r="R33" s="4">
+        <v>222.99100000000001</v>
+      </c>
+      <c r="S33" s="4">
+        <v>206.03399999999999</v>
+      </c>
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2341,16 +2948,37 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4">
-        <f>232.908+22.276</f>
-        <v>255.184</v>
+        <f>218.521+33.244</f>
+        <v>251.76499999999999</v>
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="4">
+        <f>229.551+54.4</f>
+        <v>283.95099999999996</v>
+      </c>
+      <c r="P34" s="4">
+        <f>260.335+50.408</f>
+        <v>310.74299999999999</v>
+      </c>
+      <c r="Q34" s="4">
+        <f>223.507+34.88</f>
+        <v>258.387</v>
+      </c>
+      <c r="R34" s="4">
+        <f>246.901+28.047</f>
+        <v>274.94800000000004</v>
+      </c>
+      <c r="S34" s="4">
+        <f>237.195+20.722</f>
+        <v>257.91699999999997</v>
+      </c>
+      <c r="T34" s="4"/>
+    </row>
+    <row r="35" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2361,16 +2989,37 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4">
-        <f>40.045+227.617</f>
-        <v>267.66199999999998</v>
+        <f>232.908+22.276</f>
+        <v>255.184</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="4">
+        <f>139.741+4.162</f>
+        <v>143.90300000000002</v>
+      </c>
+      <c r="P35" s="4">
+        <f>183.964+3.099</f>
+        <v>187.06299999999999</v>
+      </c>
+      <c r="Q35" s="4">
+        <f>228.986+2.234</f>
+        <v>231.22</v>
+      </c>
+      <c r="R35" s="4">
+        <f>1.477+209.828</f>
+        <v>211.30500000000001</v>
+      </c>
+      <c r="S35" s="4">
+        <f>217.634+1.651</f>
+        <v>219.285</v>
+      </c>
+      <c r="T35" s="4"/>
+    </row>
+    <row r="36" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2381,15 +3030,37 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4">
-        <v>2.1920000000000002</v>
+        <f>40.045+227.617</f>
+        <v>267.66199999999998</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O36" s="4">
+        <f>53.066+206.422</f>
+        <v>259.488</v>
+      </c>
+      <c r="P36" s="4">
+        <f>51.855+194.134</f>
+        <v>245.98899999999998</v>
+      </c>
+      <c r="Q36" s="4">
+        <f>52.204+184.067</f>
+        <v>236.27100000000002</v>
+      </c>
+      <c r="R36" s="4">
+        <f>54.176+175.216</f>
+        <v>229.392</v>
+      </c>
+      <c r="S36" s="4">
+        <f>54.056+163.013</f>
+        <v>217.06900000000002</v>
+      </c>
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2400,15 +3071,31 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4">
-        <v>2364.7460000000001</v>
+        <v>2.1920000000000002</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O37" s="4">
+        <v>13.548</v>
+      </c>
+      <c r="P37" s="4">
+        <v>12.101000000000001</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>11.414</v>
+      </c>
+      <c r="R37" s="4">
+        <v>10.702</v>
+      </c>
+      <c r="S37" s="4">
+        <v>9.968</v>
+      </c>
+      <c r="T37" s="4"/>
+    </row>
+    <row r="38" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -2419,38 +3106,334 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4">
-        <f>SUM(K31:K37)</f>
-        <v>3319.1790000000001</v>
+        <v>2364.7460000000001</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
-    </row>
-    <row r="40" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="3" t="s">
+      <c r="O38" s="4">
+        <v>2803.1930000000002</v>
+      </c>
+      <c r="P38" s="4">
+        <v>3035.1379999999999</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>3271.8969999999999</v>
+      </c>
+      <c r="R38" s="4">
+        <v>3560.9650000000001</v>
+      </c>
+      <c r="S38" s="4">
+        <v>3861.172</v>
+      </c>
+      <c r="T38" s="4"/>
+    </row>
+    <row r="39" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4">
+        <f>SUM(K32:K38)</f>
+        <v>3319.1790000000001</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4">
+        <f>SUM(O32:O38)</f>
+        <v>3683.1379999999999</v>
+      </c>
+      <c r="P39" s="4">
+        <f>SUM(P32:P38)</f>
+        <v>3980.2639999999997</v>
+      </c>
+      <c r="Q39" s="4">
+        <f>SUM(Q32:Q38)</f>
+        <v>4193.4169999999995</v>
+      </c>
+      <c r="R39" s="4">
+        <f>SUM(R32:R38)</f>
+        <v>4522.4250000000002</v>
+      </c>
+      <c r="S39" s="4">
+        <f>SUM(S32:S38)</f>
+        <v>4807.0789999999997</v>
+      </c>
+      <c r="T39" s="4"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O41" s="4">
+        <f>+O16</f>
+        <v>16.802000000000067</v>
+      </c>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4">
+        <f>+S16</f>
+        <v>105.52999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O42" s="4">
+        <v>19.151</v>
+      </c>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4">
+        <v>106.071</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O43" s="4">
+        <v>8.32</v>
+      </c>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4">
+        <v>8.4380000000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B44" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O44" s="4">
+        <v>114.714</v>
+      </c>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4">
+        <v>125.651</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O45" s="4">
+        <v>10.836</v>
+      </c>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4">
+        <v>12.366</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O46" s="4">
+        <v>8.5079999999999991</v>
+      </c>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4">
+        <v>12.353999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B47" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O47" s="4">
+        <v>0</v>
+      </c>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4">
+        <v>-11.907</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B48" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O48" s="4">
+        <v>-11.342000000000001</v>
+      </c>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4">
+        <v>-6.774</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4">
+        <v>116881</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4">
+        <v>35477</v>
+      </c>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4">
+        <f>-0.628+1.973-4.551-39.921+4.271+88.673-2.112-10.536+0.2</f>
+        <v>37.369</v>
+      </c>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4">
+        <f>-121.884+19.399+3.525+23.809-19.105-14.802+7.953-15.482-0.033</f>
+        <v>-116.61999999999999</v>
+      </c>
+      <c r="T49" s="4"/>
+      <c r="Y49" s="3">
+        <v>-296608</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>333851</v>
+      </c>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B50" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4">
-        <v>116881</v>
-      </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4">
-        <v>35477</v>
-      </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="S40" s="3">
-        <v>-296608</v>
-      </c>
-      <c r="T40" s="3">
-        <v>333851</v>
+      <c r="O50" s="4">
+        <f>SUM(O42:O49)</f>
+        <v>187.55600000000001</v>
+      </c>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4">
+        <f>SUM(S42:S49)</f>
+        <v>129.57900000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O52" s="4">
+        <v>-4.7549999999999999</v>
+      </c>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4">
+        <v>-2.6640000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B53" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O53" s="4">
+        <f>-2310.367+709.459+51.072</f>
+        <v>-1549.8360000000002</v>
+      </c>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4">
+        <f>-1260.327+751.746</f>
+        <v>-508.58100000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="O54" s="4">
+        <f>O52+O53</f>
+        <v>-1554.5910000000003</v>
+      </c>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4">
+        <f>SUM(S52:S53)</f>
+        <v>-511.245</v>
+      </c>
+    </row>
+    <row r="56" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="O56" s="4">
+        <v>25.923999999999999</v>
+      </c>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4">
+        <v>83.84</v>
+      </c>
+    </row>
+    <row r="57" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+      <c r="O57" s="4">
+        <v>0</v>
+      </c>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="58" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+      <c r="O58" s="4">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4">
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="O59" s="4">
+        <f>SUM(O56:O58)</f>
+        <v>25.983000000000001</v>
+      </c>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4">
+        <f>SUM(S56:S58)</f>
+        <v>75.248000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="O60" s="4">
+        <v>2.6760000000000002</v>
+      </c>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4">
+        <v>-4.024</v>
+      </c>
+    </row>
+    <row r="61" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="O61" s="4">
+        <f>+O60+O59+O54+O50</f>
+        <v>-1338.3760000000002</v>
+      </c>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4">
+        <f>+S60+S59+S54+S50</f>
+        <v>-310.44200000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2460,5 +3443,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/PLTR.xlsx
+++ b/PLTR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B7EF1D-D336-3048-96F2-9B56F432C7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EB9452-10E1-4A64-AD8B-FCF0EBA1A114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22320" yWindow="500" windowWidth="22320" windowHeight="19620" xr2:uid="{AE04E6E4-A652-4DFB-A34B-BE287D9B2752}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{AE04E6E4-A652-4DFB-A34B-BE287D9B2752}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>tc={977846F7-C7A8-FB40-A05C-AFA5BB1512B9}</author>
   </authors>
   <commentList>
-    <comment ref="T5" authorId="0" shapeId="0" xr:uid="{977846F7-C7A8-FB40-A05C-AFA5BB1512B9}">
+    <comment ref="T7" authorId="0" shapeId="0" xr:uid="{977846F7-C7A8-FB40-A05C-AFA5BB1512B9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>Price</t>
   </si>
@@ -270,13 +270,73 @@
   </si>
   <si>
     <t>Government</t>
+  </si>
+  <si>
+    <t>Gotham, Foundry, Apollo, and AIP</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>Started in counterterrorism</t>
+  </si>
+  <si>
+    <t>Gotham</t>
+  </si>
+  <si>
+    <t>Foundry</t>
+  </si>
+  <si>
+    <t>AIP</t>
+  </si>
+  <si>
+    <t>AI + big data</t>
+  </si>
+  <si>
+    <t>Apollo</t>
+  </si>
+  <si>
+    <t>big data for industry</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>55% of revenue is gov</t>
+  </si>
+  <si>
+    <t>45% of revenue is industrial</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>ExUS</t>
+  </si>
+  <si>
+    <t>Gov</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Top 3 18% of revenue: CIA? FBI?</t>
+  </si>
+  <si>
+    <t>big data for government: CDC, NIH, FDA</t>
+  </si>
+  <si>
+    <t>TRDV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -294,6 +354,12 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -325,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -357,13 +423,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{471E834B-9263-403B-91D8-EE7D3E40F710}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -387,7 +457,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>46718</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -429,15 +499,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>43542</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>43542</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -453,8 +523,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12496800" y="0"/>
-          <a:ext cx="0" cy="6638925"/>
+          <a:off x="17147721" y="0"/>
+          <a:ext cx="0" cy="8654143"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -783,7 +853,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="T5" dT="2024-06-03T23:15:47.24" personId="{74D2DF0D-14E1-8C43-8A69-0402CB2F2E09}" id="{977846F7-C7A8-FB40-A05C-AFA5BB1512B9}">
+  <threadedComment ref="T7" dT="2024-06-03T23:15:47.24" personId="{74D2DF0D-14E1-8C43-8A69-0402CB2F2E09}" id="{977846F7-C7A8-FB40-A05C-AFA5BB1512B9}">
     <text>Q1 guidance: 649-653m</text>
   </threadedComment>
 </ThreadedComments>
@@ -791,23 +861,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144E9D3E-317D-4992-A1EC-7C2CA7695A60}">
-  <dimension ref="K2:M7"/>
+  <dimension ref="B2:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="F13" sqref="F12:F13"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="11:13" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
       <c r="K3" t="s">
         <v>1</v>
       </c>
@@ -818,16 +894,16 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="3">
         <f>L3*L2</f>
-        <v>48002.14</v>
-      </c>
-    </row>
-    <row r="5" spans="11:13" x14ac:dyDescent="0.15">
+        <v>64802.888999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K5" t="s">
         <v>3</v>
       </c>
@@ -838,7 +914,16 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -849,13 +934,47 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>45417.14</v>
+        <v>62217.888999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9">
+        <v>2003</v>
       </c>
     </row>
   </sheetData>
@@ -865,29 +984,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CE0236-0D83-41C7-BB37-83829D679D7F}">
-  <dimension ref="A1:AI61"/>
+  <dimension ref="A1:AI70"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O60" sqref="O60"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="14" width="9.1640625" style="2"/>
-    <col min="15" max="20" width="8.83203125" style="2"/>
+    <col min="3" max="14" width="9.140625" style="2"/>
+    <col min="15" max="20" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -992,1701 +1111,1683 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" s="2">
-        <v>236</v>
-      </c>
-      <c r="P3" s="2">
-        <v>232</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>251</v>
-      </c>
-      <c r="R3" s="2">
-        <v>284</v>
+        <v>91</v>
+      </c>
+      <c r="N3" s="4">
+        <v>3700</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4">
+        <v>3900</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" s="2">
-        <v>289</v>
-      </c>
-      <c r="P4" s="2">
-        <v>302</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>308</v>
-      </c>
-      <c r="R4" s="2">
-        <v>324</v>
-      </c>
+      <c r="AA3" s="3">
+        <f>+N3</f>
+        <v>3700</v>
+      </c>
+      <c r="AB3" s="3">
+        <f>+R3</f>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="2">
+        <v>236</v>
+      </c>
+      <c r="P5" s="2">
+        <v>232</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>251</v>
+      </c>
+      <c r="R5" s="2">
+        <v>284</v>
+      </c>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="AA5" s="3">
+        <v>834</v>
+      </c>
+      <c r="AB5" s="3">
+        <f>SUM(O5:R5)</f>
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" s="2">
+        <v>289</v>
+      </c>
+      <c r="P6" s="2">
+        <v>302</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>308</v>
+      </c>
+      <c r="R6" s="2">
+        <v>324</v>
+      </c>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="AA6" s="3">
+        <v>1071.7760000000001</v>
+      </c>
+      <c r="AB6" s="3">
+        <f>SUM(O6:R6)</f>
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6">
         <v>251.88900000000001</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E7" s="6">
         <v>289.36599999999999</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F7" s="6">
         <v>322.09100000000001</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G7" s="6">
         <v>341.23399999999998</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H7" s="6">
         <v>375.642</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I7" s="6">
         <v>392.14600000000002</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J7" s="6">
         <v>432.86700000000002</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K7" s="6">
         <v>446.35700000000003</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L7" s="6">
         <v>473.01</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M7" s="6">
         <v>477.88</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N7" s="6">
         <v>508.62400000000002</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O7" s="6">
         <v>525.18600000000004</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P7" s="6">
         <v>533.31700000000001</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q7" s="6">
         <v>558.15899999999999</v>
       </c>
-      <c r="R5" s="6">
-        <f>+R4+R3</f>
+      <c r="R7" s="6">
+        <f>+R6+R5</f>
         <v>608</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S7" s="6">
         <v>634.33799999999997</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T7" s="6">
         <v>655</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="U7" s="5">
+        <f>+Q7*1.2</f>
+        <v>669.79079999999999</v>
+      </c>
+      <c r="V7" s="5">
+        <f>+R7*1.2</f>
+        <v>729.6</v>
+      </c>
+      <c r="Y7" s="5">
         <v>1092.673</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="Z7" s="5">
         <v>1541.8889999999999</v>
       </c>
-      <c r="AA5" s="5">
-        <f>SUM(K5:N5)</f>
+      <c r="AA7" s="5">
+        <f>SUM(K7:N7)</f>
         <v>1905.8709999999999</v>
       </c>
-      <c r="AB5" s="5">
-        <f>AA5*1.2</f>
-        <v>2287.0451999999996</v>
-      </c>
-      <c r="AC5" s="5">
-        <f t="shared" ref="AC5:AD5" si="1">AB5*1.2</f>
-        <v>2744.4542399999996</v>
-      </c>
-      <c r="AD5" s="5">
-        <f t="shared" si="1"/>
-        <v>3293.3450879999996</v>
-      </c>
-      <c r="AE5" s="5">
-        <f t="shared" ref="AE5" si="2">AD5*1.2</f>
-        <v>3952.0141055999993</v>
-      </c>
-      <c r="AF5" s="5">
-        <f t="shared" ref="AF5:AG5" si="3">AE5*1.2</f>
-        <v>4742.4169267199986</v>
-      </c>
-      <c r="AG5" s="5">
+      <c r="AB7" s="5">
+        <f>SUM(O7:R7)</f>
+        <v>2224.6620000000003</v>
+      </c>
+      <c r="AC7" s="5">
+        <f>SUM(S7:V7)</f>
+        <v>2688.7287999999999</v>
+      </c>
+      <c r="AD7" s="5">
+        <f t="shared" ref="AD7" si="1">AC7*1.2</f>
+        <v>3226.4745599999997</v>
+      </c>
+      <c r="AE7" s="5">
+        <f t="shared" ref="AE7" si="2">AD7*1.2</f>
+        <v>3871.7694719999995</v>
+      </c>
+      <c r="AF7" s="5">
+        <f t="shared" ref="AF7:AG7" si="3">AE7*1.2</f>
+        <v>4646.1233663999992</v>
+      </c>
+      <c r="AG7" s="5">
         <f t="shared" si="3"/>
-        <v>5690.9003120639982</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="3" t="s">
+        <v>5575.3480396799987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
         <v>68.41</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E8" s="13">
         <v>149.34</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F8" s="4">
         <v>70.503</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G8" s="4">
         <v>74.111000000000004</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H8" s="4">
         <v>90.926000000000002</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I8" s="4">
         <v>86.804000000000002</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J8" s="4">
         <v>87.563000000000002</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K8" s="4">
         <v>94.403000000000006</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L8" s="4">
         <v>102.224</v>
       </c>
-      <c r="M6" s="4">
-        <f t="shared" ref="M6" si="4">M5-M7</f>
+      <c r="M8" s="4">
+        <f t="shared" ref="M8" si="4">M7-M9</f>
         <v>95.575999999999965</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N8" s="4">
         <v>104.31100000000001</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O8" s="4">
         <v>107.645</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P8" s="4">
         <v>106.899</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q8" s="4">
         <v>107.922</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R8" s="4">
         <v>108.639</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S8" s="4">
         <v>116.256</v>
       </c>
-      <c r="T6" s="4"/>
-      <c r="Y6" s="3">
+      <c r="T8" s="4"/>
+      <c r="Y8" s="3">
         <v>352.54700000000003</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z8" s="3">
         <v>339.404</v>
       </c>
-      <c r="AA6" s="3">
-        <f>AA5-AA7</f>
+      <c r="AA8" s="3">
+        <f>AA7-AA9</f>
         <v>381.17419999999993</v>
       </c>
-      <c r="AB6" s="3">
-        <f t="shared" ref="AB6:AD6" si="5">AB5-AB7</f>
-        <v>457.40903999999978</v>
-      </c>
-      <c r="AC6" s="3">
+      <c r="AB8" s="3">
+        <f t="shared" ref="AB8:AD8" si="5">AB7-AB9</f>
+        <v>444.93239999999992</v>
+      </c>
+      <c r="AC8" s="3">
         <f t="shared" si="5"/>
-        <v>548.89084800000001</v>
-      </c>
-      <c r="AD6" s="3">
+        <v>537.74575999999979</v>
+      </c>
+      <c r="AD8" s="3">
         <f t="shared" si="5"/>
-        <v>658.66901759999973</v>
-      </c>
-      <c r="AE6" s="3">
-        <f t="shared" ref="AE6" si="6">AE5-AE7</f>
-        <v>790.40282111999977</v>
-      </c>
-      <c r="AF6" s="3">
-        <f t="shared" ref="AF6" si="7">AF5-AF7</f>
-        <v>948.48338534399954</v>
-      </c>
-      <c r="AG6" s="3">
-        <f t="shared" ref="AG6" si="8">AG5-AG7</f>
-        <v>1138.1800624127991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
+        <v>645.29491199999984</v>
+      </c>
+      <c r="AE8" s="3">
+        <f t="shared" ref="AE8" si="6">AE7-AE9</f>
+        <v>774.35389439999972</v>
+      </c>
+      <c r="AF8" s="3">
+        <f t="shared" ref="AF8" si="7">AF7-AF9</f>
+        <v>929.22467327999948</v>
+      </c>
+      <c r="AG8" s="3">
+        <f t="shared" ref="AG8" si="8">AG7-AG9</f>
+        <v>1115.0696079359996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4">
-        <f t="shared" ref="D7:K7" si="9">D5-D6</f>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
+        <f t="shared" ref="D9:K9" si="9">D7-D8</f>
         <v>183.47900000000001</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E9" s="4">
         <f t="shared" si="9"/>
         <v>140.02599999999998</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F9" s="4">
         <f t="shared" si="9"/>
         <v>251.58800000000002</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G9" s="4">
         <f t="shared" si="9"/>
         <v>267.12299999999999</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H9" s="4">
         <f t="shared" si="9"/>
         <v>284.71600000000001</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I9" s="4">
         <f t="shared" si="9"/>
         <v>305.34199999999998</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J9" s="4">
         <f t="shared" si="9"/>
         <v>345.30400000000003</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K9" s="4">
         <f t="shared" si="9"/>
         <v>351.95400000000001</v>
       </c>
-      <c r="L7" s="4">
-        <f>+L5-L6</f>
+      <c r="L9" s="4">
+        <f>+L7-L8</f>
         <v>370.786</v>
       </c>
-      <c r="M7" s="4">
-        <f t="shared" ref="M7" si="10">M5*0.8</f>
+      <c r="M9" s="4">
+        <f t="shared" ref="M9" si="10">M7*0.8</f>
         <v>382.30400000000003</v>
       </c>
-      <c r="N7" s="4">
-        <f t="shared" ref="N7:S7" si="11">+N5-N6</f>
+      <c r="N9" s="4">
+        <f t="shared" ref="N9:S9" si="11">+N7-N8</f>
         <v>404.31299999999999</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O9" s="4">
         <f t="shared" si="11"/>
         <v>417.54100000000005</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P9" s="4">
         <f t="shared" si="11"/>
         <v>426.41800000000001</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q9" s="4">
         <f t="shared" si="11"/>
         <v>450.23699999999997</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R9" s="4">
         <f t="shared" si="11"/>
         <v>499.36099999999999</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S9" s="4">
         <f t="shared" si="11"/>
         <v>518.08199999999999</v>
       </c>
-      <c r="T7" s="4"/>
-      <c r="Y7" s="3">
-        <f>Y5-Y6</f>
+      <c r="T9" s="4"/>
+      <c r="Y9" s="3">
+        <f>Y7-Y8</f>
         <v>740.12599999999998</v>
       </c>
-      <c r="Z7" s="3">
-        <f>Z5-Z6</f>
+      <c r="Z9" s="3">
+        <f>Z7-Z8</f>
         <v>1202.4849999999999</v>
       </c>
-      <c r="AA7" s="3">
-        <f>AA5*0.8</f>
+      <c r="AA9" s="3">
+        <f>AA7*0.8</f>
         <v>1524.6967999999999</v>
       </c>
-      <c r="AB7" s="3">
-        <f t="shared" ref="AB7:AD7" si="12">AB5*0.8</f>
-        <v>1829.6361599999998</v>
-      </c>
-      <c r="AC7" s="3">
+      <c r="AB9" s="3">
+        <f t="shared" ref="AB9:AD9" si="12">AB7*0.8</f>
+        <v>1779.7296000000003</v>
+      </c>
+      <c r="AC9" s="3">
         <f t="shared" si="12"/>
-        <v>2195.5633919999996</v>
-      </c>
-      <c r="AD7" s="3">
+        <v>2150.9830400000001</v>
+      </c>
+      <c r="AD9" s="3">
         <f t="shared" si="12"/>
-        <v>2634.6760703999998</v>
-      </c>
-      <c r="AE7" s="3">
-        <f t="shared" ref="AE7" si="13">AE5*0.8</f>
-        <v>3161.6112844799995</v>
-      </c>
-      <c r="AF7" s="3">
-        <f t="shared" ref="AF7:AG7" si="14">AF5*0.8</f>
-        <v>3793.9335413759991</v>
-      </c>
-      <c r="AG7" s="3">
+        <v>2581.1796479999998</v>
+      </c>
+      <c r="AE9" s="3">
+        <f t="shared" ref="AE9" si="13">AE7*0.8</f>
+        <v>3097.4155775999998</v>
+      </c>
+      <c r="AF9" s="3">
+        <f t="shared" ref="AF9:AG9" si="14">AF7*0.8</f>
+        <v>3716.8986931199997</v>
+      </c>
+      <c r="AG9" s="3">
         <f t="shared" si="14"/>
-        <v>4552.7202496511991</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="3" t="s">
+        <v>4460.2784317439991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
         <v>102.518</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E10" s="4">
         <v>334.911</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F10" s="4">
         <v>147.619</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G10" s="4">
         <v>136.09700000000001</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H10" s="4">
         <v>162.37899999999999</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I10" s="4">
         <v>153.44300000000001</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J10" s="4">
         <v>162.59299999999999</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K10" s="4">
         <v>160.48500000000001</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L10" s="4">
         <v>168.875</v>
       </c>
-      <c r="M8" s="4">
-        <f t="shared" ref="M8" si="15">L8+1</f>
+      <c r="M10" s="4">
+        <f t="shared" ref="M10" si="15">L10+1</f>
         <v>169.875</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N10" s="4">
         <v>190.233</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O10" s="4">
         <v>187.09299999999999</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P10" s="4">
         <v>184.16300000000001</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q10" s="4">
         <v>176.37299999999999</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R10" s="4">
         <v>197.363</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S10" s="4">
         <v>193.17699999999999</v>
       </c>
-      <c r="T8" s="4"/>
-      <c r="Y8" s="3">
+      <c r="T10" s="4"/>
+      <c r="Y10" s="3">
         <v>683.70100000000002</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z10" s="3">
         <v>614.51199999999994</v>
       </c>
-      <c r="AA8" s="3">
-        <f>Z8*1.1</f>
+      <c r="AA10" s="3">
+        <f>Z10*1.1</f>
         <v>675.96320000000003</v>
       </c>
-      <c r="AB8" s="3">
-        <f t="shared" ref="AB8:AD8" si="16">AA8*1.1</f>
+      <c r="AB10" s="3">
+        <f t="shared" ref="AB10:AD10" si="16">AA10*1.1</f>
         <v>743.55952000000013</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AC10" s="3">
         <f t="shared" si="16"/>
         <v>817.91547200000025</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AD10" s="3">
         <f t="shared" si="16"/>
         <v>899.70701920000033</v>
       </c>
-      <c r="AE8" s="3">
-        <f t="shared" ref="AE8" si="17">AD8*1.1</f>
+      <c r="AE10" s="3">
+        <f t="shared" ref="AE10" si="17">AD10*1.1</f>
         <v>989.67772112000046</v>
       </c>
-      <c r="AF8" s="3">
-        <f t="shared" ref="AF8:AG8" si="18">AE8*1.1</f>
+      <c r="AF10" s="3">
+        <f t="shared" ref="AF10:AG10" si="18">AE10*1.1</f>
         <v>1088.6454932320005</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AG10" s="3">
         <f t="shared" si="18"/>
         <v>1197.5100425552007</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="3" t="s">
+    <row r="11" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
         <v>86.814999999999998</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E11" s="4">
         <v>313.91500000000002</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F11" s="4">
         <v>94.13</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G11" s="4">
         <v>98.471000000000004</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H11" s="4">
         <v>110.524</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I11" s="4">
         <v>94.316000000000003</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J11" s="4">
         <v>84.176000000000002</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K11" s="4">
         <v>88.600999999999999</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L11" s="4">
         <v>88.171000000000006</v>
       </c>
-      <c r="M9" s="4">
-        <f t="shared" ref="M9" si="19">L9+1</f>
+      <c r="M11" s="4">
+        <f t="shared" ref="M11" si="19">L11+1</f>
         <v>89.171000000000006</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N11" s="4">
         <v>82.043999999999997</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O11" s="4">
         <v>90.1</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P11" s="4">
         <v>99.533000000000001</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q11" s="4">
         <v>105.708</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R11" s="4">
         <v>109.283</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S11" s="4">
         <v>110.04</v>
       </c>
-      <c r="T9" s="4"/>
-      <c r="Y9" s="3">
+      <c r="T11" s="4"/>
+      <c r="Y11" s="3">
         <v>560.66</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z11" s="3">
         <v>387.48700000000002</v>
       </c>
-      <c r="AA9" s="3">
-        <f t="shared" ref="AA9:AD9" si="20">Z9*1.1</f>
+      <c r="AA11" s="3">
+        <f t="shared" ref="AA11:AD11" si="20">Z11*1.1</f>
         <v>426.23570000000007</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB11" s="3">
         <f t="shared" si="20"/>
         <v>468.85927000000009</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AC11" s="3">
         <f t="shared" si="20"/>
         <v>515.74519700000019</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AD11" s="3">
         <f t="shared" si="20"/>
         <v>567.3197167000003</v>
       </c>
-      <c r="AE9" s="3">
-        <f t="shared" ref="AE9" si="21">AD9*1.1</f>
+      <c r="AE11" s="3">
+        <f t="shared" ref="AE11" si="21">AD11*1.1</f>
         <v>624.05168837000042</v>
       </c>
-      <c r="AF9" s="3">
-        <f t="shared" ref="AF9:AG9" si="22">AE9*1.1</f>
+      <c r="AF11" s="3">
+        <f t="shared" ref="AF11:AG11" si="22">AE11*1.1</f>
         <v>686.45685720700055</v>
       </c>
-      <c r="AG9" s="3">
+      <c r="AG11" s="3">
         <f t="shared" si="22"/>
         <v>755.10254292770071</v>
       </c>
     </row>
-    <row r="10" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="3" t="s">
+    <row r="12" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
         <v>93.290999999999997</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E12" s="4">
         <v>338.97699999999998</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F12" s="4">
         <v>166.411</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G12" s="4">
         <v>146.56899999999999</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H12" s="4">
         <v>157.96100000000001</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I12" s="4">
         <v>149.524</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J12" s="4">
         <v>157.47800000000001</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K12" s="4">
         <v>142.30699999999999</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L12" s="4">
         <v>155.48500000000001</v>
       </c>
-      <c r="M10" s="4">
-        <f t="shared" ref="M10" si="23">L10+1</f>
+      <c r="M12" s="4">
+        <f t="shared" ref="M12" si="23">L12+1</f>
         <v>156.48500000000001</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N12" s="4">
         <v>149.86199999999999</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O12" s="4">
         <v>136.233</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P12" s="4">
         <v>132.648</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q12" s="4">
         <v>128.173</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R12" s="4">
         <v>127.271</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S12" s="4">
         <v>133.98400000000001</v>
       </c>
-      <c r="T10" s="4"/>
-      <c r="Y10" s="3">
+      <c r="T12" s="4"/>
+      <c r="Y12" s="3">
         <v>669.44399999999996</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z12" s="3">
         <v>611.53200000000004</v>
       </c>
-      <c r="AA10" s="3">
-        <f t="shared" ref="AA10:AD10" si="24">Z10*1.1</f>
+      <c r="AA12" s="3">
+        <f t="shared" ref="AA12:AD12" si="24">Z12*1.1</f>
         <v>672.68520000000012</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB12" s="3">
         <f t="shared" si="24"/>
         <v>739.9537200000002</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AC12" s="3">
         <f t="shared" si="24"/>
         <v>813.94909200000029</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AD12" s="3">
         <f t="shared" si="24"/>
         <v>895.34400120000043</v>
       </c>
-      <c r="AE10" s="3">
-        <f t="shared" ref="AE10" si="25">AD10*1.1</f>
+      <c r="AE12" s="3">
+        <f t="shared" ref="AE12" si="25">AD12*1.1</f>
         <v>984.87840132000053</v>
       </c>
-      <c r="AF10" s="3">
-        <f t="shared" ref="AF10:AG10" si="26">AE10*1.1</f>
+      <c r="AF12" s="3">
+        <f t="shared" ref="AF12:AG12" si="26">AE12*1.1</f>
         <v>1083.3662414520006</v>
       </c>
-      <c r="AG10" s="3">
+      <c r="AG12" s="3">
         <f t="shared" si="26"/>
         <v>1191.7028655972008</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
+    <row r="13" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4">
-        <f t="shared" ref="D11:L11" si="27">SUM(D8:D10)</f>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13:L13" si="27">SUM(D10:D12)</f>
         <v>282.62400000000002</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E13" s="4">
         <f t="shared" si="27"/>
         <v>987.803</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F13" s="4">
         <f t="shared" si="27"/>
         <v>408.15999999999997</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G13" s="4">
         <f t="shared" si="27"/>
         <v>381.137</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H13" s="4">
         <f t="shared" si="27"/>
         <v>430.86400000000003</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I13" s="4">
         <f t="shared" si="27"/>
         <v>397.28300000000002</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J13" s="4">
         <f t="shared" si="27"/>
         <v>404.24700000000001</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K13" s="4">
         <f t="shared" si="27"/>
         <v>391.39300000000003</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L13" s="4">
         <f t="shared" si="27"/>
         <v>412.53100000000001</v>
       </c>
-      <c r="M11" s="4">
-        <f t="shared" ref="M11:N11" si="28">SUM(M8:M10)</f>
+      <c r="M13" s="4">
+        <f t="shared" ref="M13:N13" si="28">SUM(M10:M12)</f>
         <v>415.53100000000001</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N13" s="4">
         <f t="shared" si="28"/>
         <v>422.13900000000001</v>
       </c>
-      <c r="O11" s="4">
-        <f>+O8+O9+O10</f>
+      <c r="O13" s="4">
+        <f>+O10+O11+O12</f>
         <v>413.42599999999999</v>
       </c>
-      <c r="P11" s="4">
-        <f>+P8+P9+P10</f>
+      <c r="P13" s="4">
+        <f>+P10+P11+P12</f>
         <v>416.34400000000005</v>
       </c>
-      <c r="Q11" s="4">
-        <f>+Q8+Q9+Q10</f>
+      <c r="Q13" s="4">
+        <f>+Q10+Q11+Q12</f>
         <v>410.25400000000002</v>
       </c>
-      <c r="R11" s="4">
-        <f>+R8+R9+R10</f>
+      <c r="R13" s="4">
+        <f>+R10+R11+R12</f>
         <v>433.91700000000003</v>
       </c>
-      <c r="S11" s="4">
-        <f>+S8+S9+S10</f>
+      <c r="S13" s="4">
+        <f>+S10+S11+S12</f>
         <v>437.20100000000002</v>
       </c>
-      <c r="T11" s="4"/>
-      <c r="Y11" s="3">
-        <f>SUM(Y8:Y10)</f>
+      <c r="T13" s="4"/>
+      <c r="Y13" s="3">
+        <f>SUM(Y10:Y12)</f>
         <v>1913.8049999999998</v>
       </c>
-      <c r="Z11" s="3">
-        <f t="shared" ref="Z11" si="29">SUM(Z8:Z10)</f>
+      <c r="Z13" s="3">
+        <f t="shared" ref="Z13" si="29">SUM(Z10:Z12)</f>
         <v>1613.5309999999999</v>
       </c>
-      <c r="AA11" s="3">
-        <f t="shared" ref="AA11" si="30">SUM(AA8:AA10)</f>
+      <c r="AA13" s="3">
+        <f t="shared" ref="AA13" si="30">SUM(AA10:AA12)</f>
         <v>1774.8841000000002</v>
       </c>
-      <c r="AB11" s="3">
-        <f t="shared" ref="AB11" si="31">SUM(AB8:AB10)</f>
+      <c r="AB13" s="3">
+        <f t="shared" ref="AB13" si="31">SUM(AB10:AB12)</f>
         <v>1952.3725100000004</v>
       </c>
-      <c r="AC11" s="3">
-        <f t="shared" ref="AC11" si="32">SUM(AC8:AC10)</f>
+      <c r="AC13" s="3">
+        <f t="shared" ref="AC13" si="32">SUM(AC10:AC12)</f>
         <v>2147.6097610000006</v>
       </c>
-      <c r="AD11" s="3">
-        <f t="shared" ref="AD11" si="33">SUM(AD8:AD10)</f>
+      <c r="AD13" s="3">
+        <f t="shared" ref="AD13" si="33">SUM(AD10:AD12)</f>
         <v>2362.370737100001</v>
       </c>
-      <c r="AE11" s="3">
-        <f t="shared" ref="AE11" si="34">SUM(AE8:AE10)</f>
+      <c r="AE13" s="3">
+        <f t="shared" ref="AE13" si="34">SUM(AE10:AE12)</f>
         <v>2598.6078108100014</v>
       </c>
-      <c r="AF11" s="3">
-        <f t="shared" ref="AF11" si="35">SUM(AF8:AF10)</f>
+      <c r="AF13" s="3">
+        <f t="shared" ref="AF13" si="35">SUM(AF10:AF12)</f>
         <v>2858.4685918910018</v>
       </c>
-      <c r="AG11" s="3">
-        <f t="shared" ref="AG11" si="36">SUM(AG8:AG10)</f>
+      <c r="AG13" s="3">
+        <f t="shared" ref="AG13" si="36">SUM(AG10:AG12)</f>
         <v>3144.3154510801023</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="3" t="s">
+    <row r="14" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4">
-        <f t="shared" ref="D12:L12" si="37">D7-D11</f>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <f t="shared" ref="D14:L14" si="37">D9-D13</f>
         <v>-99.14500000000001</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E14" s="4">
         <f t="shared" si="37"/>
         <v>-847.77700000000004</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F14" s="4">
         <f t="shared" si="37"/>
         <v>-156.57199999999995</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G14" s="4">
         <f t="shared" si="37"/>
         <v>-114.01400000000001</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H14" s="4">
         <f t="shared" si="37"/>
         <v>-146.14800000000002</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I14" s="4">
         <f t="shared" si="37"/>
         <v>-91.941000000000031</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J14" s="4">
         <f t="shared" si="37"/>
         <v>-58.942999999999984</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K14" s="4">
         <f t="shared" si="37"/>
         <v>-39.439000000000021</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L14" s="4">
         <f t="shared" si="37"/>
         <v>-41.745000000000005</v>
       </c>
-      <c r="M12" s="4">
-        <f t="shared" ref="M12:N12" si="38">M7-M11</f>
+      <c r="M14" s="4">
+        <f t="shared" ref="M14:N14" si="38">M9-M13</f>
         <v>-33.226999999999975</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N14" s="4">
         <f t="shared" si="38"/>
         <v>-17.826000000000022</v>
       </c>
-      <c r="O12" s="4">
-        <f>+O7-O11</f>
+      <c r="O14" s="4">
+        <f>+O9-O13</f>
         <v>4.1150000000000659</v>
       </c>
-      <c r="P12" s="4">
-        <f>+P7-P11</f>
+      <c r="P14" s="4">
+        <f>+P9-P13</f>
         <v>10.073999999999955</v>
       </c>
-      <c r="Q12" s="4">
-        <f>+Q7-Q11</f>
+      <c r="Q14" s="4">
+        <f>+Q9-Q13</f>
         <v>39.982999999999947</v>
       </c>
-      <c r="R12" s="4">
-        <f>+R7-R11</f>
+      <c r="R14" s="4">
+        <f>+R9-R13</f>
         <v>65.44399999999996</v>
       </c>
-      <c r="S12" s="4">
-        <f>+S7-S11</f>
+      <c r="S14" s="4">
+        <f>+S9-S13</f>
         <v>80.880999999999972</v>
       </c>
-      <c r="T12" s="4"/>
-      <c r="Y12" s="3">
-        <f>Y7-Y11</f>
+      <c r="T14" s="4"/>
+      <c r="Y14" s="3">
+        <f>Y9-Y13</f>
         <v>-1173.6789999999999</v>
       </c>
-      <c r="Z12" s="3">
-        <f t="shared" ref="Z12" si="39">Z7-Z11</f>
+      <c r="Z14" s="3">
+        <f t="shared" ref="Z14" si="39">Z9-Z13</f>
         <v>-411.04600000000005</v>
       </c>
-      <c r="AA12" s="3">
-        <f t="shared" ref="AA12" si="40">AA7-AA11</f>
+      <c r="AA14" s="3">
+        <f t="shared" ref="AA14" si="40">AA9-AA13</f>
         <v>-250.18730000000028</v>
       </c>
-      <c r="AB12" s="3">
-        <f t="shared" ref="AB12" si="41">AB7-AB11</f>
-        <v>-122.73635000000058</v>
-      </c>
-      <c r="AC12" s="3">
-        <f t="shared" ref="AC12" si="42">AC7-AC11</f>
-        <v>47.95363099999895</v>
-      </c>
-      <c r="AD12" s="3">
-        <f t="shared" ref="AD12" si="43">AD7-AD11</f>
-        <v>272.30533329999889</v>
-      </c>
-      <c r="AE12" s="3">
-        <f t="shared" ref="AE12" si="44">AE7-AE11</f>
-        <v>563.00347366999813</v>
-      </c>
-      <c r="AF12" s="3">
-        <f t="shared" ref="AF12" si="45">AF7-AF11</f>
-        <v>935.46494948499731</v>
-      </c>
-      <c r="AG12" s="3">
-        <f t="shared" ref="AG12" si="46">AG7-AG11</f>
-        <v>1408.4047985710968</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="3" t="s">
+      <c r="AB14" s="3">
+        <f t="shared" ref="AB14" si="41">AB9-AB13</f>
+        <v>-172.64291000000003</v>
+      </c>
+      <c r="AC14" s="3">
+        <f t="shared" ref="AC14" si="42">AC9-AC13</f>
+        <v>3.3732789999994566</v>
+      </c>
+      <c r="AD14" s="3">
+        <f t="shared" ref="AD14" si="43">AD9-AD13</f>
+        <v>218.80891089999886</v>
+      </c>
+      <c r="AE14" s="3">
+        <f t="shared" ref="AE14" si="44">AE9-AE13</f>
+        <v>498.80776678999837</v>
+      </c>
+      <c r="AF14" s="3">
+        <f t="shared" ref="AF14" si="45">AF9-AF13</f>
+        <v>858.43010122899796</v>
+      </c>
+      <c r="AG14" s="3">
+        <f t="shared" ref="AG14" si="46">AG9-AG13</f>
+        <v>1315.9629806638968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
         <f>0.551-5.646</f>
         <v>-5.0949999999999998</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E15" s="4">
         <f>0.494-2.085</f>
         <v>-1.591</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F15" s="4">
         <f>0.368-1.814</f>
         <v>-1.4460000000000002</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G15" s="4">
         <f>0.376-1.84</f>
         <v>-1.464</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H15" s="4">
         <f>0.372-0.59</f>
         <v>-0.21799999999999997</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I15" s="4">
         <f>0.379-0.609</f>
         <v>-0.22999999999999998</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J15" s="4">
         <f>0.48-0.601</f>
         <v>-0.121</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K15" s="4">
         <f>0.547-0.594</f>
         <v>-4.6999999999999931E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L15" s="4">
         <f>1.472-0.67</f>
         <v>0.80199999999999994</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M15" s="4">
         <v>0</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N15" s="4">
         <f>12.75-1.712+44.637</f>
         <v>55.674999999999997</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O15" s="4">
         <f>20.853-4.136</f>
         <v>16.717000000000002</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P15" s="4">
         <f>30.31-1.317-9.024</f>
         <v>19.969000000000001</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q15" s="4">
         <f>36.864-0.742+3.864</f>
         <v>39.985999999999997</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R15" s="4">
         <f>44.545-0.136-3.956</f>
         <v>40.452999999999996</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S15" s="4">
         <f>43.352-13.507</f>
         <v>29.844999999999999</v>
       </c>
-      <c r="T13" s="4"/>
-      <c r="Y13" s="3">
+      <c r="T15" s="4"/>
+      <c r="Y15" s="3">
         <f>4.68-14.139</f>
         <v>-9.4589999999999996</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="Z15" s="3">
         <f>1.607-3.64</f>
         <v>-2.0330000000000004</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AA15" s="3">
         <v>0</v>
       </c>
-      <c r="AB13" s="3">
+      <c r="AB15" s="3">
         <v>0</v>
       </c>
-      <c r="AC13" s="3">
+      <c r="AC15" s="3">
         <v>0</v>
       </c>
-      <c r="AD13" s="3">
+      <c r="AD15" s="3">
         <v>0</v>
       </c>
-      <c r="AE13" s="3">
+      <c r="AE15" s="3">
         <v>0</v>
       </c>
-      <c r="AF13" s="3">
+      <c r="AF15" s="3">
         <v>0</v>
       </c>
-      <c r="AG13" s="3">
+      <c r="AG15" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="3" t="s">
+    <row r="16" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4">
-        <f t="shared" ref="D14:L14" si="47">D12-D13</f>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
+        <f t="shared" ref="D16:L16" si="47">D14-D15</f>
         <v>-94.050000000000011</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E16" s="4">
         <f t="shared" si="47"/>
         <v>-846.18600000000004</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F16" s="4">
         <f t="shared" si="47"/>
         <v>-155.12599999999995</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G16" s="4">
         <f t="shared" si="47"/>
         <v>-112.55000000000001</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H16" s="4">
         <f t="shared" si="47"/>
         <v>-145.93000000000004</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I16" s="4">
         <f t="shared" si="47"/>
         <v>-91.711000000000027</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J16" s="4">
         <f t="shared" si="47"/>
         <v>-58.821999999999981</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K16" s="4">
         <f t="shared" si="47"/>
         <v>-39.392000000000024</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L16" s="4">
         <f t="shared" si="47"/>
         <v>-42.547000000000004</v>
       </c>
-      <c r="M14" s="4">
-        <f t="shared" ref="M14" si="48">M12-M13</f>
+      <c r="M16" s="4">
+        <f t="shared" ref="M16" si="48">M14-M15</f>
         <v>-33.226999999999975</v>
       </c>
-      <c r="N14" s="4">
-        <f t="shared" ref="N14:S14" si="49">+N12+N13</f>
+      <c r="N16" s="4">
+        <f t="shared" ref="N16:S16" si="49">+N14+N15</f>
         <v>37.848999999999975</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O16" s="4">
         <f t="shared" si="49"/>
         <v>20.832000000000068</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P16" s="4">
         <f t="shared" si="49"/>
         <v>30.042999999999957</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q16" s="4">
         <f t="shared" si="49"/>
         <v>79.968999999999937</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R16" s="4">
         <f t="shared" si="49"/>
         <v>105.89699999999996</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S16" s="4">
         <f t="shared" si="49"/>
         <v>110.72599999999997</v>
       </c>
-      <c r="T14" s="4"/>
-      <c r="Y14" s="3">
-        <f t="shared" ref="Y14:AD14" si="50">Y12+Y13</f>
+      <c r="T16" s="4"/>
+      <c r="Y16" s="3">
+        <f t="shared" ref="Y16:AD16" si="50">Y14+Y15</f>
         <v>-1183.1379999999999</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z16" s="3">
         <f t="shared" si="50"/>
         <v>-413.07900000000006</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA16" s="3">
         <f t="shared" si="50"/>
         <v>-250.18730000000028</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB16" s="3">
         <f t="shared" si="50"/>
-        <v>-122.73635000000058</v>
-      </c>
-      <c r="AC14" s="3">
+        <v>-172.64291000000003</v>
+      </c>
+      <c r="AC16" s="3">
         <f t="shared" si="50"/>
-        <v>47.95363099999895</v>
-      </c>
-      <c r="AD14" s="3">
+        <v>3.3732789999994566</v>
+      </c>
+      <c r="AD16" s="3">
         <f t="shared" si="50"/>
-        <v>272.30533329999889</v>
-      </c>
-      <c r="AE14" s="3">
-        <f t="shared" ref="AE14" si="51">AE12+AE13</f>
-        <v>563.00347366999813</v>
-      </c>
-      <c r="AF14" s="3">
-        <f t="shared" ref="AF14" si="52">AF12+AF13</f>
-        <v>935.46494948499731</v>
-      </c>
-      <c r="AG14" s="3">
-        <f t="shared" ref="AG14" si="53">AG12+AG13</f>
-        <v>1408.4047985710968</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="3" t="s">
+        <v>218.80891089999886</v>
+      </c>
+      <c r="AE16" s="3">
+        <f t="shared" ref="AE16" si="51">AE14+AE15</f>
+        <v>498.80776678999837</v>
+      </c>
+      <c r="AF16" s="3">
+        <f t="shared" ref="AF16" si="52">AF14+AF15</f>
+        <v>858.43010122899796</v>
+      </c>
+      <c r="AG16" s="3">
+        <f t="shared" ref="AG16" si="53">AG14+AG15</f>
+        <v>1315.9629806638968</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
         <f>0.943</f>
         <v>0.94299999999999995</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E17" s="4">
         <v>-8.5429999999999993</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F17" s="4">
         <v>-7.593</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G17" s="4">
         <v>3.1019999999999999</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H17" s="4">
         <v>-5.6609999999999996</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I17" s="4">
         <v>1.4379999999999999</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J17" s="4">
         <v>33.006</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K17" s="4">
         <v>2.0230000000000001</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L17" s="4">
         <v>2.5880000000000001</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M17" s="4">
         <v>0</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N17" s="4">
         <f>4.36+2.611</f>
         <v>6.9710000000000001</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O17" s="4">
         <f>1.681+2.349</f>
         <v>4.03</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P17" s="4">
         <f>2.171-0.255</f>
         <v>1.9159999999999999</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q17" s="4">
         <f>6.53+1.934</f>
         <v>8.4640000000000004</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R17" s="4">
         <f>9.334+3.522</f>
         <v>12.856</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S17" s="4">
         <f>4.655+0.541</f>
         <v>5.1960000000000006</v>
       </c>
-      <c r="T15" s="4"/>
-      <c r="Y15" s="3">
+      <c r="T17" s="4"/>
+      <c r="Y17" s="3">
         <v>-12.635999999999999</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="Z17" s="3">
         <v>31.885000000000002</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AA17" s="3">
         <v>0</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AB17" s="3">
         <v>0</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AC17" s="3">
         <v>0</v>
       </c>
-      <c r="AD15" s="3">
-        <f>AD14*0.1</f>
-        <v>27.23053332999989</v>
-      </c>
-      <c r="AE15" s="3">
-        <f t="shared" ref="AE15" si="54">AE14*0.1</f>
-        <v>56.300347366999816</v>
-      </c>
-      <c r="AF15" s="3">
-        <f t="shared" ref="AF15" si="55">AF14*0.1</f>
-        <v>93.546494948499742</v>
-      </c>
-      <c r="AG15" s="3">
-        <f t="shared" ref="AG15" si="56">AG14*0.1</f>
-        <v>140.84047985710967</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="3" t="s">
+      <c r="AD17" s="3">
+        <f>AD16*0.1</f>
+        <v>21.880891089999889</v>
+      </c>
+      <c r="AE17" s="3">
+        <f t="shared" ref="AE17" si="54">AE16*0.1</f>
+        <v>49.880776678999837</v>
+      </c>
+      <c r="AF17" s="3">
+        <f t="shared" ref="AF17" si="55">AF16*0.1</f>
+        <v>85.843010122899798</v>
+      </c>
+      <c r="AG17" s="3">
+        <f t="shared" ref="AG17" si="56">AG16*0.1</f>
+        <v>131.59629806638969</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4">
-        <f t="shared" ref="D16:L16" si="57">D14-D15</f>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
+        <f t="shared" ref="D18:L18" si="57">D16-D17</f>
         <v>-94.993000000000009</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E18" s="4">
         <f t="shared" si="57"/>
         <v>-837.64300000000003</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F18" s="4">
         <f t="shared" si="57"/>
         <v>-147.53299999999996</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G18" s="4">
         <f t="shared" si="57"/>
         <v>-115.65200000000002</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H18" s="4">
         <f t="shared" si="57"/>
         <v>-140.26900000000003</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I18" s="4">
         <f t="shared" si="57"/>
         <v>-93.149000000000029</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J18" s="4">
         <f t="shared" si="57"/>
         <v>-91.827999999999975</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K18" s="4">
         <f t="shared" si="57"/>
         <v>-41.415000000000028</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L18" s="4">
         <f t="shared" si="57"/>
         <v>-45.135000000000005</v>
       </c>
-      <c r="M16" s="4">
-        <f t="shared" ref="M16:N16" si="58">M14-M15</f>
+      <c r="M18" s="4">
+        <f t="shared" ref="M18:N18" si="58">M16-M17</f>
         <v>-33.226999999999975</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N18" s="4">
         <f t="shared" si="58"/>
         <v>30.877999999999975</v>
       </c>
-      <c r="O16" s="4">
-        <f>+O14-O15</f>
+      <c r="O18" s="4">
+        <f>+O16-O17</f>
         <v>16.802000000000067</v>
       </c>
-      <c r="P16" s="4">
-        <f>+P14-P15</f>
+      <c r="P18" s="4">
+        <f>+P16-P17</f>
         <v>28.126999999999956</v>
       </c>
-      <c r="Q16" s="4">
-        <f>+Q14-Q15</f>
+      <c r="Q18" s="4">
+        <f>+Q16-Q17</f>
         <v>71.504999999999939</v>
       </c>
-      <c r="R16" s="4">
-        <f>+R14-R15</f>
+      <c r="R18" s="4">
+        <f>+R16-R17</f>
         <v>93.040999999999968</v>
       </c>
-      <c r="S16" s="4">
-        <f>+S14-S15</f>
+      <c r="S18" s="4">
+        <f>+S16-S17</f>
         <v>105.52999999999997</v>
       </c>
-      <c r="T16" s="4"/>
-      <c r="Y16" s="3">
-        <f>Y14-Y15</f>
+      <c r="T18" s="4"/>
+      <c r="Y18" s="3">
+        <f>Y16-Y17</f>
         <v>-1170.502</v>
       </c>
-      <c r="Z16" s="3">
-        <f>Z14-Z15</f>
+      <c r="Z18" s="3">
+        <f>Z16-Z17</f>
         <v>-444.96400000000006</v>
       </c>
-      <c r="AA16" s="3">
-        <f t="shared" ref="AA16:AD16" si="59">AA14-AA15</f>
+      <c r="AA18" s="3">
+        <f t="shared" ref="AA18:AD18" si="59">AA16-AA17</f>
         <v>-250.18730000000028</v>
       </c>
-      <c r="AB16" s="3">
+      <c r="AB18" s="3">
         <f t="shared" si="59"/>
-        <v>-122.73635000000058</v>
-      </c>
-      <c r="AC16" s="3">
+        <v>-172.64291000000003</v>
+      </c>
+      <c r="AC18" s="3">
         <f t="shared" si="59"/>
-        <v>47.95363099999895</v>
-      </c>
-      <c r="AD16" s="3">
+        <v>3.3732789999994566</v>
+      </c>
+      <c r="AD18" s="3">
         <f t="shared" si="59"/>
-        <v>245.07479996999899</v>
-      </c>
-      <c r="AE16" s="3">
-        <f t="shared" ref="AE16" si="60">AE14-AE15</f>
-        <v>506.70312630299833</v>
-      </c>
-      <c r="AF16" s="3">
-        <f t="shared" ref="AF16" si="61">AF14-AF15</f>
-        <v>841.91845453649762</v>
-      </c>
-      <c r="AG16" s="3">
-        <f t="shared" ref="AG16" si="62">AG14-AG15</f>
-        <v>1267.5643187139872</v>
-      </c>
-    </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B17" s="3" t="s">
+        <v>196.92801980999897</v>
+      </c>
+      <c r="AE18" s="3">
+        <f t="shared" ref="AE18" si="60">AE16-AE17</f>
+        <v>448.92699011099853</v>
+      </c>
+      <c r="AF18" s="3">
+        <f t="shared" ref="AF18" si="61">AF16-AF17</f>
+        <v>772.58709110609811</v>
+      </c>
+      <c r="AG18" s="3">
+        <f t="shared" ref="AG18" si="62">AG16-AG17</f>
+        <v>1184.3666825975072</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="7">
-        <f t="shared" ref="D17:L17" si="63">D16/D18</f>
+      <c r="D19" s="7">
+        <f t="shared" ref="D19:L19" si="63">D18/D20</f>
         <v>-0.14827157237200492</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E19" s="7">
         <f t="shared" si="63"/>
         <v>-0.92510011463761044</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F19" s="7">
         <f t="shared" si="63"/>
         <v>-8.3658536308756248E-2</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G19" s="7">
         <f t="shared" si="63"/>
         <v>-6.3504649239659608E-2</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H19" s="7">
         <f t="shared" si="63"/>
         <v>-7.4035973706406522E-2</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I19" s="7">
         <f t="shared" si="63"/>
         <v>-4.7418670888492401E-2</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J19" s="7">
         <f t="shared" si="63"/>
         <v>-4.5645513091992884E-2</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K19" s="7">
         <f t="shared" si="63"/>
         <v>-2.0338288872945007E-2</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L19" s="7">
         <f t="shared" si="63"/>
         <v>-2.1965652114878394E-2</v>
       </c>
-      <c r="M17" s="7">
-        <f t="shared" ref="M17:N17" si="64">M16/M18</f>
+      <c r="M19" s="7">
+        <f t="shared" ref="M19:N19" si="64">M18/M20</f>
         <v>-1.6170438081778302E-2</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N19" s="7">
         <f t="shared" si="64"/>
         <v>1.4011679273305783E-2</v>
       </c>
-      <c r="O17" s="7">
-        <f>+O16/O18</f>
+      <c r="O19" s="7">
+        <f>+O18/O20</f>
         <v>7.5772095647276289E-3</v>
       </c>
-      <c r="P17" s="7">
-        <f>+P16/P18</f>
+      <c r="P19" s="7">
+        <f>+P18/P20</f>
         <v>1.2346394341034721E-2</v>
       </c>
-      <c r="Q17" s="7">
-        <f>+Q16/Q18</f>
+      <c r="Q19" s="7">
+        <f>+Q18/Q20</f>
         <v>3.0746904024767777E-2</v>
       </c>
-      <c r="R17" s="7">
-        <f>+R16/R18</f>
+      <c r="R19" s="7">
+        <f>+R18/R20</f>
         <v>3.9461908894187728E-2</v>
       </c>
-      <c r="S17" s="7">
-        <f>+S16/S18</f>
+      <c r="S19" s="7">
+        <f>+S18/S20</f>
         <v>4.3968873054409649E-2</v>
       </c>
-      <c r="T17" s="7"/>
-      <c r="Y17" s="1">
-        <f>Y16/Y18</f>
+      <c r="T19" s="7"/>
+      <c r="Y19" s="1">
+        <f>Y18/Y20</f>
         <v>-1.1952069271849119</v>
       </c>
-      <c r="Z17" s="1">
-        <f>Z16/Z18</f>
+      <c r="Z19" s="1">
+        <f>Z18/Z20</f>
         <v>-0.23131631712549852</v>
       </c>
-      <c r="AA17" s="1">
-        <f t="shared" ref="AA17:AD17" si="65">AA16/AA18</f>
+      <c r="AA19" s="1">
+        <f t="shared" ref="AA19:AD19" si="65">AA18/AA20</f>
         <v>-0.11985539971912569</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AB19" s="1">
         <f t="shared" si="65"/>
-        <v>-5.8798405391946619E-2</v>
-      </c>
-      <c r="AC17" s="1">
+        <v>-8.2706776030290197E-2</v>
+      </c>
+      <c r="AC19" s="1">
         <f t="shared" si="65"/>
-        <v>2.2972795227768655E-2</v>
-      </c>
-      <c r="AD17" s="1">
+        <v>1.6160120953744137E-3</v>
+      </c>
+      <c r="AD19" s="1">
         <f t="shared" si="65"/>
-        <v>0.11740619172711393</v>
-      </c>
-      <c r="AE17" s="1">
-        <f t="shared" ref="AE17" si="66">AE16/AE18</f>
-        <v>0.24274256024177257</v>
-      </c>
-      <c r="AF17" s="1">
-        <f t="shared" ref="AF17" si="67">AF16/AF18</f>
-        <v>0.4033317154762866</v>
-      </c>
-      <c r="AG17" s="1">
-        <f t="shared" ref="AG17" si="68">AG16/AG18</f>
-        <v>0.60724276607631966</v>
-      </c>
-    </row>
-    <row r="18" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="3" t="s">
+        <v>9.4340865944127869E-2</v>
+      </c>
+      <c r="AE19" s="1">
+        <f t="shared" ref="AE19" si="66">AE18/AE20</f>
+        <v>0.21506416930218944</v>
+      </c>
+      <c r="AF19" s="1">
+        <f t="shared" ref="AF19" si="67">AF18/AF20</f>
+        <v>0.37011764634878697</v>
+      </c>
+      <c r="AG19" s="1">
+        <f t="shared" ref="AG19" si="68">AG18/AG20</f>
+        <v>0.56738588312331972</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4">
         <v>640.66899999999998</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E20" s="4">
         <v>905.46199999999999</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F20" s="4">
         <v>1763.5139999999999</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G20" s="4">
         <v>1821.1579999999999</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H20" s="4">
         <v>1894.606</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I20" s="4">
         <v>1964.395</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J20" s="4">
         <v>2011.7639999999999</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K20" s="4">
         <v>2036.307</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L20" s="4">
         <v>2054.799</v>
       </c>
-      <c r="M18" s="4">
-        <f t="shared" ref="M18" si="69">L18</f>
+      <c r="M20" s="4">
+        <f t="shared" ref="M20" si="69">L20</f>
         <v>2054.799</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N20" s="4">
         <v>2203.7330000000002</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O20" s="4">
         <v>2217.4389999999999</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P20" s="4">
         <v>2278.1550000000002</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q20" s="4">
         <v>2325.6</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R20" s="4">
         <v>2357.7420000000002</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S20" s="4">
         <v>2400.107</v>
       </c>
-      <c r="T18" s="4"/>
-      <c r="Y18" s="3">
+      <c r="T20" s="4"/>
+      <c r="Y20" s="3">
         <v>979.33</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z20" s="3">
         <v>1923.617</v>
       </c>
-      <c r="AA18" s="3">
-        <f>AVERAGE(K18:N18)</f>
+      <c r="AA20" s="3">
+        <f>AVERAGE(K20:N20)</f>
         <v>2087.4094999999998</v>
       </c>
-      <c r="AB18" s="3">
-        <f>AA18</f>
+      <c r="AB20" s="3">
+        <f>AA20</f>
         <v>2087.4094999999998</v>
       </c>
-      <c r="AC18" s="3">
-        <f>AB18</f>
+      <c r="AC20" s="3">
+        <f>AB20</f>
         <v>2087.4094999999998</v>
       </c>
-      <c r="AD18" s="3">
-        <f>AC18</f>
+      <c r="AD20" s="3">
+        <f>AC20</f>
         <v>2087.4094999999998</v>
       </c>
-      <c r="AE18" s="3">
-        <f t="shared" ref="AE18" si="70">AD18</f>
+      <c r="AE20" s="3">
+        <f t="shared" ref="AE20" si="70">AD20</f>
         <v>2087.4094999999998</v>
       </c>
-      <c r="AF18" s="3">
-        <f t="shared" ref="AF18:AG18" si="71">AE18</f>
+      <c r="AF20" s="3">
+        <f t="shared" ref="AF20:AG20" si="71">AE20</f>
         <v>2087.4094999999998</v>
       </c>
-      <c r="AG18" s="3">
+      <c r="AG20" s="3">
         <f t="shared" si="71"/>
         <v>2087.4094999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:33" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="5" t="s">
+    <row r="23" spans="2:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10">
-        <f>H5/D5-1</f>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10">
+        <f>H7/D7-1</f>
         <v>0.49129973917082514</v>
       </c>
-      <c r="I21" s="10">
-        <f>I5/E5-1</f>
+      <c r="I23" s="10">
+        <f>I7/E7-1</f>
         <v>0.35519031261447442</v>
       </c>
-      <c r="J21" s="10">
-        <f>J5/F5-1</f>
+      <c r="J23" s="10">
+        <f>J7/F7-1</f>
         <v>0.34392764777656004</v>
       </c>
-      <c r="K21" s="10">
-        <f>K5/G5-1</f>
+      <c r="K23" s="10">
+        <f>K7/G7-1</f>
         <v>0.30806719142875583</v>
       </c>
-      <c r="L21" s="10">
-        <f>L5/H5-1</f>
+      <c r="L23" s="10">
+        <f>L7/H7-1</f>
         <v>0.25920424233711881</v>
       </c>
-      <c r="M21" s="10">
-        <f t="shared" ref="M21:O21" si="72">M5/I5-1</f>
+      <c r="M23" s="10">
+        <f t="shared" ref="M23:O23" si="72">M7/I7-1</f>
         <v>0.21862775598884077</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N23" s="10">
         <f t="shared" si="72"/>
         <v>0.17501218619113956</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O23" s="10">
         <f t="shared" si="72"/>
         <v>0.1766052733574246</v>
       </c>
-      <c r="P21" s="10">
-        <f t="shared" ref="P21:T21" si="73">P5/L5-1</f>
+      <c r="P23" s="10">
+        <f t="shared" ref="P23:T23" si="73">P7/L7-1</f>
         <v>0.12749624743662924</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="Q23" s="10">
         <f t="shared" si="73"/>
         <v>0.16798987193437687</v>
       </c>
-      <c r="R21" s="10">
+      <c r="R23" s="10">
         <f t="shared" si="73"/>
         <v>0.19538205039479051</v>
       </c>
-      <c r="S21" s="10">
+      <c r="S23" s="10">
         <f t="shared" si="73"/>
         <v>0.20783493847893864</v>
       </c>
-      <c r="T21" s="10">
+      <c r="T23" s="10">
         <f t="shared" si="73"/>
         <v>0.22816261248000713</v>
       </c>
-      <c r="Z21" s="12">
-        <f>Z5/Y5-1</f>
+      <c r="U23" s="10">
+        <f t="shared" ref="U23" si="74">U7/Q7-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="V23" s="10">
+        <f t="shared" ref="V23" si="75">V7/R7-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="Z23" s="12">
+        <f>Z7/Y7-1</f>
         <v>0.41111659206368234</v>
       </c>
-      <c r="AA21" s="12">
-        <f>AA5/Z5-1</f>
+      <c r="AA23" s="12">
+        <f>AA7/Z7-1</f>
         <v>0.23606238840798532</v>
       </c>
-      <c r="AB21" s="12">
-        <f>AB5/AA5-1</f>
+      <c r="AB23" s="12">
+        <f>AB7/AA7-1</f>
+        <v>0.16726787909569985</v>
+      </c>
+      <c r="AC23" s="12">
+        <f>AC7/AB7-1</f>
+        <v>0.20860103692156362</v>
+      </c>
+      <c r="AD23" s="12">
+        <f>AD7/AC7-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AC21" s="12">
-        <f>AC5/AB5-1</f>
+      <c r="AE23" s="12">
+        <f t="shared" ref="AE23" si="76">AE7/AD7-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AD21" s="12">
-        <f>AD5/AC5-1</f>
+      <c r="AF23" s="12">
+        <f t="shared" ref="AF23:AG23" si="77">AF7/AE7-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AE21" s="12">
-        <f t="shared" ref="AE21" si="74">AE5/AD5-1</f>
+      <c r="AG23" s="12">
+        <f t="shared" si="77"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AF21" s="12">
-        <f t="shared" ref="AF21:AG21" si="75">AF5/AE5-1</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AG21" s="12">
-        <f t="shared" si="75"/>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="8">
-        <f t="shared" ref="D22:K22" si="76">D7/D5</f>
+      <c r="D24" s="8">
+        <f t="shared" ref="D24:K24" si="78">D9/D7</f>
         <v>0.72841211803611916</v>
       </c>
-      <c r="E22" s="8">
-        <f t="shared" si="76"/>
+      <c r="E24" s="8">
+        <f t="shared" si="78"/>
         <v>0.48390619492269304</v>
       </c>
-      <c r="F22" s="8">
-        <f t="shared" si="76"/>
+      <c r="F24" s="8">
+        <f t="shared" si="78"/>
         <v>0.78110844450791861</v>
       </c>
-      <c r="G22" s="8">
-        <f t="shared" si="76"/>
+      <c r="G24" s="8">
+        <f t="shared" si="78"/>
         <v>0.78281472537906538</v>
       </c>
-      <c r="H22" s="8">
-        <f t="shared" si="76"/>
+      <c r="H24" s="8">
+        <f t="shared" si="78"/>
         <v>0.75794506471587308</v>
       </c>
-      <c r="I22" s="8">
-        <f t="shared" si="76"/>
+      <c r="I24" s="8">
+        <f t="shared" si="78"/>
         <v>0.77864366842961541</v>
       </c>
-      <c r="J22" s="8">
-        <f t="shared" si="76"/>
+      <c r="J24" s="8">
+        <f t="shared" si="78"/>
         <v>0.79771384744043783</v>
       </c>
-      <c r="K22" s="8">
-        <f t="shared" si="76"/>
+      <c r="K24" s="8">
+        <f t="shared" si="78"/>
         <v>0.78850337286073702</v>
       </c>
-      <c r="L22" s="8">
-        <f t="shared" ref="L22:P22" si="77">L7/L5</f>
+      <c r="L24" s="8">
+        <f t="shared" ref="L24:P24" si="79">L9/L7</f>
         <v>0.78388617576795416</v>
       </c>
-      <c r="M22" s="8">
-        <f t="shared" si="77"/>
+      <c r="M24" s="8">
+        <f t="shared" si="79"/>
         <v>0.8</v>
       </c>
-      <c r="N22" s="8">
-        <f t="shared" si="77"/>
+      <c r="N24" s="8">
+        <f t="shared" si="79"/>
         <v>0.79491530089024498</v>
       </c>
-      <c r="O22" s="8">
-        <f t="shared" si="77"/>
+      <c r="O24" s="8">
+        <f t="shared" si="79"/>
         <v>0.79503452110299977</v>
       </c>
-      <c r="P22" s="8">
-        <f t="shared" si="77"/>
+      <c r="P24" s="8">
+        <f t="shared" si="79"/>
         <v>0.79955823647099189</v>
       </c>
-      <c r="Q22" s="8">
-        <f t="shared" ref="Q22:R22" si="78">Q7/Q5</f>
+      <c r="Q24" s="8">
+        <f t="shared" ref="Q24:R24" si="80">Q9/Q7</f>
         <v>0.80664649320354953</v>
       </c>
-      <c r="R22" s="8">
-        <f t="shared" si="78"/>
+      <c r="R24" s="8">
+        <f t="shared" si="80"/>
         <v>0.82131743421052628</v>
       </c>
-      <c r="S22" s="8">
-        <f t="shared" ref="S22:T22" si="79">S7/S5</f>
+      <c r="S24" s="8">
+        <f t="shared" ref="S24:T24" si="81">S9/S7</f>
         <v>0.81672862101907817</v>
       </c>
-      <c r="T22" s="8">
-        <f t="shared" si="79"/>
+      <c r="T24" s="8">
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="8">
-        <f t="shared" ref="Y22:AD22" si="80">Y7/Y5</f>
+      <c r="Y24" s="8">
+        <f t="shared" ref="Y24:AD24" si="82">Y9/Y7</f>
         <v>0.67735360899372454</v>
       </c>
-      <c r="Z22" s="8">
-        <f t="shared" si="80"/>
+      <c r="Z24" s="8">
+        <f t="shared" si="82"/>
         <v>0.77987779924495215</v>
       </c>
-      <c r="AA22" s="8">
-        <f t="shared" si="80"/>
-        <v>0.8</v>
-      </c>
-      <c r="AB22" s="8">
-        <f t="shared" si="80"/>
-        <v>0.8</v>
-      </c>
-      <c r="AC22" s="8">
-        <f t="shared" si="80"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="AD22" s="8">
-        <f t="shared" si="80"/>
-        <v>0.8</v>
-      </c>
-      <c r="AE22" s="8">
-        <f t="shared" ref="AE22" si="81">AE7/AE5</f>
-        <v>0.8</v>
-      </c>
-      <c r="AF22" s="8">
-        <f t="shared" ref="AF22:AG22" si="82">AF7/AF5</f>
-        <v>0.8</v>
-      </c>
-      <c r="AG22" s="8">
+      <c r="AA24" s="8">
         <f t="shared" si="82"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="24" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="3" t="s">
+      <c r="AB24" s="8">
+        <f t="shared" si="82"/>
+        <v>0.8</v>
+      </c>
+      <c r="AC24" s="8">
+        <f t="shared" si="82"/>
+        <v>0.8</v>
+      </c>
+      <c r="AD24" s="8">
+        <f t="shared" si="82"/>
+        <v>0.8</v>
+      </c>
+      <c r="AE24" s="8">
+        <f t="shared" ref="AE24" si="83">AE9/AE7</f>
+        <v>0.8</v>
+      </c>
+      <c r="AF24" s="8">
+        <f t="shared" ref="AF24:AG24" si="84">AF9/AF7</f>
+        <v>0.8</v>
+      </c>
+      <c r="AG24" s="8">
+        <f t="shared" si="84"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4">
-        <f>2269.411+33.804+252.563+29.222</f>
-        <v>2585.0000000000005</v>
-      </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4">
-        <f>1264.738+1639.797+11.946+12.095</f>
-        <v>2928.5759999999996</v>
-      </c>
-      <c r="P24" s="4">
-        <f>1055.923+2047.329</f>
-        <v>3103.252</v>
-      </c>
-      <c r="Q24" s="4">
-        <f>1040.31+2243.264</f>
-        <v>3283.5740000000001</v>
-      </c>
-      <c r="R24" s="4">
-        <f>831.047+2843.132</f>
-        <v>3674.1790000000001</v>
-      </c>
-      <c r="S24" s="4">
-        <f>520.388+3347.512</f>
-        <v>3867.9</v>
-      </c>
-      <c r="T24" s="4"/>
-    </row>
-    <row r="25" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4">
-        <v>256.55399999999997</v>
-      </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4">
-        <v>254.041</v>
-      </c>
-      <c r="P25" s="4">
-        <v>375.75599999999997</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>430.26900000000001</v>
-      </c>
-      <c r="R25" s="4">
-        <v>364.78399999999999</v>
-      </c>
-      <c r="S25" s="4">
-        <v>486.98599999999999</v>
-      </c>
-      <c r="T25" s="4"/>
-    </row>
-    <row r="26" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2697,31 +2798,41 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4">
-        <v>115.042</v>
+        <f>2269.411+33.804+252.563+29.222</f>
+        <v>2585.0000000000005</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4">
-        <v>85.625</v>
+        <f>1264.738+1639.797+11.946+12.095</f>
+        <v>2928.5759999999996</v>
       </c>
       <c r="P26" s="4">
-        <v>97.906000000000006</v>
+        <f>1055.923+2047.329</f>
+        <v>3103.252</v>
       </c>
       <c r="Q26" s="4">
-        <v>95.554000000000002</v>
+        <f>1040.31+2243.264</f>
+        <v>3283.5740000000001</v>
       </c>
       <c r="R26" s="4">
-        <v>99.655000000000001</v>
+        <f>831.047+2843.132</f>
+        <v>3674.1790000000001</v>
       </c>
       <c r="S26" s="4">
-        <v>81.177999999999997</v>
+        <f>520.388+3347.512</f>
+        <v>3867.9</v>
       </c>
       <c r="T26" s="4"/>
-    </row>
-    <row r="27" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AB26" s="4">
+        <f>831.047+2843.132</f>
+        <v>3674.1790000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2732,31 +2843,34 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4">
-        <v>41.866</v>
+        <v>256.55399999999997</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4">
-        <v>63.115000000000002</v>
+        <v>254.041</v>
       </c>
       <c r="P27" s="4">
-        <v>54.097000000000001</v>
+        <v>375.75599999999997</v>
       </c>
       <c r="Q27" s="4">
-        <v>50.133000000000003</v>
+        <v>430.26900000000001</v>
       </c>
       <c r="R27" s="4">
-        <v>47.758000000000003</v>
+        <v>364.78399999999999</v>
       </c>
       <c r="S27" s="4">
-        <v>46.905999999999999</v>
+        <v>486.98599999999999</v>
       </c>
       <c r="T27" s="4"/>
-    </row>
-    <row r="28" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AB27" s="4">
+        <v>364.78399999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2767,31 +2881,34 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4">
-        <v>224.88800000000001</v>
+        <v>115.042</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4">
-        <v>210.01900000000001</v>
+        <v>85.625</v>
       </c>
       <c r="P28" s="4">
-        <v>199.661</v>
+        <v>97.906000000000006</v>
       </c>
       <c r="Q28" s="4">
-        <v>190.191</v>
+        <v>95.554000000000002</v>
       </c>
       <c r="R28" s="4">
-        <v>182.863</v>
+        <v>99.655000000000001</v>
       </c>
       <c r="S28" s="4">
-        <v>173.70699999999999</v>
+        <v>81.177999999999997</v>
       </c>
       <c r="T28" s="4"/>
-    </row>
-    <row r="29" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AB28" s="4">
+        <v>99.655000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2802,31 +2919,34 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4">
-        <v>95.828999999999994</v>
+        <v>41.866</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4">
-        <v>141.762</v>
+        <v>63.115000000000002</v>
       </c>
       <c r="P29" s="4">
-        <v>149.59200000000001</v>
+        <v>54.097000000000001</v>
       </c>
       <c r="Q29" s="4">
-        <v>143.696</v>
+        <v>50.133000000000003</v>
       </c>
       <c r="R29" s="4">
-        <v>153.18600000000001</v>
+        <v>47.758000000000003</v>
       </c>
       <c r="S29" s="4">
-        <v>150.40199999999999</v>
+        <v>46.905999999999999</v>
       </c>
       <c r="T29" s="4"/>
-    </row>
-    <row r="30" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AB29" s="4">
+        <v>47.758000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2837,37 +2957,72 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4">
-        <f>SUM(K24:K29)</f>
-        <v>3319.1790000000005</v>
+        <v>224.88800000000001</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4">
-        <f>SUM(O24:O29)</f>
-        <v>3683.1379999999995</v>
+        <v>210.01900000000001</v>
       </c>
       <c r="P30" s="4">
-        <f>SUM(P24:P29)</f>
-        <v>3980.2640000000001</v>
+        <v>199.661</v>
       </c>
       <c r="Q30" s="4">
-        <f>SUM(Q24:Q29)</f>
-        <v>4193.4169999999995</v>
+        <v>190.191</v>
       </c>
       <c r="R30" s="4">
-        <f>SUM(R24:R29)</f>
-        <v>4522.4250000000002</v>
+        <v>182.863</v>
       </c>
       <c r="S30" s="4">
-        <f>SUM(S24:S29)</f>
-        <v>4807.0790000000006</v>
+        <v>173.70699999999999</v>
       </c>
       <c r="T30" s="4"/>
-    </row>
-    <row r="32" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AB30" s="4">
+        <v>182.863</v>
+      </c>
+    </row>
+    <row r="31" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4">
+        <v>95.828999999999994</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4">
+        <v>141.762</v>
+      </c>
+      <c r="P31" s="4">
+        <v>149.59200000000001</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>143.696</v>
+      </c>
+      <c r="R31" s="4">
+        <v>153.18600000000001</v>
+      </c>
+      <c r="S31" s="4">
+        <v>150.40199999999999</v>
+      </c>
+      <c r="T31" s="4"/>
+      <c r="AB31" s="4">
+        <v>153.18600000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2878,66 +3033,44 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4">
-        <v>27.454000000000001</v>
+        <f>SUM(K26:K31)</f>
+        <v>3319.1790000000005</v>
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4">
-        <v>4.53</v>
+        <f>SUM(O26:O31)</f>
+        <v>3683.1379999999995</v>
       </c>
       <c r="P32" s="4">
-        <v>4.6130000000000004</v>
+        <f>SUM(P26:P31)</f>
+        <v>3980.2640000000001</v>
       </c>
       <c r="Q32" s="4">
-        <v>9.4749999999999996</v>
+        <f>SUM(Q26:Q31)</f>
+        <v>4193.4169999999995</v>
       </c>
       <c r="R32" s="4">
-        <v>12.122</v>
+        <f>SUM(R26:R31)</f>
+        <v>4522.4250000000002</v>
       </c>
       <c r="S32" s="4">
-        <v>35.634</v>
+        <f>SUM(S26:S31)</f>
+        <v>4807.0790000000006</v>
       </c>
       <c r="T32" s="4"/>
-    </row>
-    <row r="33" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4">
-        <v>150.17599999999999</v>
-      </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4">
-        <v>174.52500000000001</v>
-      </c>
-      <c r="P33" s="4">
-        <v>184.61699999999999</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>174.75299999999999</v>
-      </c>
-      <c r="R33" s="4">
-        <v>222.99100000000001</v>
-      </c>
-      <c r="S33" s="4">
-        <v>206.03399999999999</v>
-      </c>
-      <c r="T33" s="4"/>
-    </row>
-    <row r="34" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AB32" s="4">
+        <f>SUM(AB26:AB31)</f>
+        <v>4522.4250000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB33" s="2"/>
+    </row>
+    <row r="34" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2948,37 +3081,34 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4">
-        <f>218.521+33.244</f>
-        <v>251.76499999999999</v>
+        <v>27.454000000000001</v>
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4">
-        <f>229.551+54.4</f>
-        <v>283.95099999999996</v>
+        <v>4.53</v>
       </c>
       <c r="P34" s="4">
-        <f>260.335+50.408</f>
-        <v>310.74299999999999</v>
+        <v>4.6130000000000004</v>
       </c>
       <c r="Q34" s="4">
-        <f>223.507+34.88</f>
-        <v>258.387</v>
+        <v>9.4749999999999996</v>
       </c>
       <c r="R34" s="4">
-        <f>246.901+28.047</f>
-        <v>274.94800000000004</v>
+        <v>12.122</v>
       </c>
       <c r="S34" s="4">
-        <f>237.195+20.722</f>
-        <v>257.91699999999997</v>
+        <v>35.634</v>
       </c>
       <c r="T34" s="4"/>
-    </row>
-    <row r="35" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AB34" s="4">
+        <v>12.122</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2989,37 +3119,34 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4">
-        <f>232.908+22.276</f>
-        <v>255.184</v>
+        <v>150.17599999999999</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4">
-        <f>139.741+4.162</f>
-        <v>143.90300000000002</v>
+        <v>174.52500000000001</v>
       </c>
       <c r="P35" s="4">
-        <f>183.964+3.099</f>
-        <v>187.06299999999999</v>
+        <v>184.61699999999999</v>
       </c>
       <c r="Q35" s="4">
-        <f>228.986+2.234</f>
-        <v>231.22</v>
+        <v>174.75299999999999</v>
       </c>
       <c r="R35" s="4">
-        <f>1.477+209.828</f>
-        <v>211.30500000000001</v>
+        <v>222.99100000000001</v>
       </c>
       <c r="S35" s="4">
-        <f>217.634+1.651</f>
-        <v>219.285</v>
+        <v>206.03399999999999</v>
       </c>
       <c r="T35" s="4"/>
-    </row>
-    <row r="36" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AB35" s="4">
+        <v>222.99100000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3030,37 +3157,41 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4">
-        <f>40.045+227.617</f>
-        <v>267.66199999999998</v>
+        <f>218.521+33.244</f>
+        <v>251.76499999999999</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4">
-        <f>53.066+206.422</f>
-        <v>259.488</v>
+        <f>229.551+54.4</f>
+        <v>283.95099999999996</v>
       </c>
       <c r="P36" s="4">
-        <f>51.855+194.134</f>
-        <v>245.98899999999998</v>
+        <f>260.335+50.408</f>
+        <v>310.74299999999999</v>
       </c>
       <c r="Q36" s="4">
-        <f>52.204+184.067</f>
-        <v>236.27100000000002</v>
+        <f>223.507+34.88</f>
+        <v>258.387</v>
       </c>
       <c r="R36" s="4">
-        <f>54.176+175.216</f>
-        <v>229.392</v>
+        <f>246.901+28.047</f>
+        <v>274.94800000000004</v>
       </c>
       <c r="S36" s="4">
-        <f>54.056+163.013</f>
-        <v>217.06900000000002</v>
+        <f>237.195+20.722</f>
+        <v>257.91699999999997</v>
       </c>
       <c r="T36" s="4"/>
-    </row>
-    <row r="37" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AB36" s="4">
+        <f>246.901+28.047</f>
+        <v>274.94800000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -3071,31 +3202,41 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4">
-        <v>2.1920000000000002</v>
+        <f>232.908+22.276</f>
+        <v>255.184</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4">
-        <v>13.548</v>
+        <f>139.741+4.162</f>
+        <v>143.90300000000002</v>
       </c>
       <c r="P37" s="4">
-        <v>12.101000000000001</v>
+        <f>183.964+3.099</f>
+        <v>187.06299999999999</v>
       </c>
       <c r="Q37" s="4">
-        <v>11.414</v>
+        <f>228.986+2.234</f>
+        <v>231.22</v>
       </c>
       <c r="R37" s="4">
-        <v>10.702</v>
+        <f>1.477+209.828</f>
+        <v>211.30500000000001</v>
       </c>
       <c r="S37" s="4">
-        <v>9.968</v>
+        <f>217.634+1.651</f>
+        <v>219.285</v>
       </c>
       <c r="T37" s="4"/>
-    </row>
-    <row r="38" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AB37" s="4">
+        <f>1.477+209.828</f>
+        <v>211.30500000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3106,31 +3247,41 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4">
-        <v>2364.7460000000001</v>
+        <f>40.045+227.617</f>
+        <v>267.66199999999998</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4">
-        <v>2803.1930000000002</v>
+        <f>53.066+206.422</f>
+        <v>259.488</v>
       </c>
       <c r="P38" s="4">
-        <v>3035.1379999999999</v>
+        <f>51.855+194.134</f>
+        <v>245.98899999999998</v>
       </c>
       <c r="Q38" s="4">
-        <v>3271.8969999999999</v>
+        <f>52.204+184.067</f>
+        <v>236.27100000000002</v>
       </c>
       <c r="R38" s="4">
-        <v>3560.9650000000001</v>
+        <f>54.176+175.216</f>
+        <v>229.392</v>
       </c>
       <c r="S38" s="4">
-        <v>3861.172</v>
+        <f>54.056+163.013</f>
+        <v>217.06900000000002</v>
       </c>
       <c r="T38" s="4"/>
-    </row>
-    <row r="39" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AB38" s="4">
+        <f>54.176+175.216</f>
+        <v>229.392</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3141,299 +3292,541 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4">
-        <f>SUM(K32:K38)</f>
-        <v>3319.1790000000001</v>
+        <v>2.1920000000000002</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4">
-        <f>SUM(O32:O38)</f>
+        <v>13.548</v>
+      </c>
+      <c r="P39" s="4">
+        <v>12.101000000000001</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>11.414</v>
+      </c>
+      <c r="R39" s="4">
+        <v>10.702</v>
+      </c>
+      <c r="S39" s="4">
+        <v>9.968</v>
+      </c>
+      <c r="T39" s="4"/>
+      <c r="AB39" s="4">
+        <v>10.702</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4">
+        <v>2364.7460000000001</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4">
+        <v>2803.1930000000002</v>
+      </c>
+      <c r="P40" s="4">
+        <v>3035.1379999999999</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>3271.8969999999999</v>
+      </c>
+      <c r="R40" s="4">
+        <v>3560.9650000000001</v>
+      </c>
+      <c r="S40" s="4">
+        <v>3861.172</v>
+      </c>
+      <c r="T40" s="4"/>
+      <c r="AB40" s="4">
+        <v>3560.9650000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4">
+        <f>SUM(K34:K40)</f>
+        <v>3319.1790000000001</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4">
+        <f>SUM(O34:O40)</f>
         <v>3683.1379999999999</v>
       </c>
-      <c r="P39" s="4">
-        <f>SUM(P32:P38)</f>
+      <c r="P41" s="4">
+        <f>SUM(P34:P40)</f>
         <v>3980.2639999999997</v>
       </c>
-      <c r="Q39" s="4">
-        <f>SUM(Q32:Q38)</f>
+      <c r="Q41" s="4">
+        <f>SUM(Q34:Q40)</f>
         <v>4193.4169999999995</v>
       </c>
-      <c r="R39" s="4">
-        <f>SUM(R32:R38)</f>
+      <c r="R41" s="4">
+        <f>SUM(R34:R40)</f>
         <v>4522.4250000000002</v>
       </c>
-      <c r="S39" s="4">
-        <f>SUM(S32:S38)</f>
+      <c r="S41" s="4">
+        <f>SUM(S34:S40)</f>
         <v>4807.0789999999997</v>
       </c>
-      <c r="T39" s="4"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B41" s="3" t="s">
+      <c r="T41" s="4"/>
+      <c r="AB41" s="4">
+        <f>SUM(AB34:AB40)</f>
+        <v>4522.4250000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O41" s="4">
-        <f>+O16</f>
+      <c r="O43" s="4">
+        <f>+O18</f>
         <v>16.802000000000067</v>
-      </c>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4">
-        <f>+S16</f>
-        <v>105.52999999999997</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B42" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O42" s="4">
-        <v>19.151</v>
-      </c>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4">
-        <v>106.071</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B43" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O43" s="4">
-        <v>8.32</v>
       </c>
       <c r="R43" s="4"/>
       <c r="S43" s="4">
-        <v>8.4380000000000006</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.15">
+        <f>+S18</f>
+        <v>105.52999999999997</v>
+      </c>
+      <c r="Z43" s="16">
+        <f>+Z18</f>
+        <v>-444.96400000000006</v>
+      </c>
+      <c r="AA43" s="16">
+        <f>+AA18</f>
+        <v>-250.18730000000028</v>
+      </c>
+      <c r="AB43" s="16">
+        <f>+AB18</f>
+        <v>-172.64291000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O44" s="4">
-        <v>114.714</v>
+        <v>19.151</v>
       </c>
       <c r="R44" s="4"/>
       <c r="S44" s="4">
-        <v>125.651</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.15">
+        <v>106.071</v>
+      </c>
+      <c r="Z44" s="16">
+        <v>-520.37900000000002</v>
+      </c>
+      <c r="AA44" s="16">
+        <v>-371.09399999999999</v>
+      </c>
+      <c r="AB44" s="16">
+        <v>217.375</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="O45" s="4">
-        <v>10.836</v>
+        <v>8.32</v>
       </c>
       <c r="R45" s="4"/>
       <c r="S45" s="4">
-        <v>12.366</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.15">
+        <v>8.4380000000000006</v>
+      </c>
+      <c r="Z45" s="16">
+        <v>14.897</v>
+      </c>
+      <c r="AA45" s="16">
+        <v>22.521999999999998</v>
+      </c>
+      <c r="AB45" s="16">
+        <v>33.353999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O46" s="4">
-        <v>8.5079999999999991</v>
+        <v>114.714</v>
       </c>
       <c r="R46" s="4"/>
       <c r="S46" s="4">
-        <v>12.353999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.15">
+        <v>125.651</v>
+      </c>
+      <c r="Z46" s="16">
+        <v>778.21500000000003</v>
+      </c>
+      <c r="AA46" s="16">
+        <v>564.798</v>
+      </c>
+      <c r="AB46" s="16">
+        <v>475.90300000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="O47" s="4">
-        <v>0</v>
+        <v>10.836</v>
       </c>
       <c r="R47" s="4"/>
       <c r="S47" s="4">
-        <v>-11.907</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.15">
+        <v>12.366</v>
+      </c>
+      <c r="Z47" s="16">
+        <v>33.820999999999998</v>
+      </c>
+      <c r="AA47" s="16">
+        <v>40.308999999999997</v>
+      </c>
+      <c r="AB47" s="16">
+        <v>47.018999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="O48" s="4">
-        <v>-11.342000000000001</v>
+        <v>8.5079999999999991</v>
       </c>
       <c r="R48" s="4"/>
       <c r="S48" s="4">
+        <v>12.353999999999999</v>
+      </c>
+      <c r="Z48" s="16">
+        <v>73.311000000000007</v>
+      </c>
+      <c r="AA48" s="16">
+        <v>272.108</v>
+      </c>
+      <c r="AB48" s="16">
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O49" s="4">
+        <v>0</v>
+      </c>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4">
+        <v>-11.907</v>
+      </c>
+      <c r="Z49" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="16">
+        <v>-15.537000000000001</v>
+      </c>
+      <c r="AB49" s="16">
+        <v>-46.609000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O50" s="4">
+        <v>-11.342000000000001</v>
+      </c>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4">
         <v>-6.774</v>
       </c>
-    </row>
-    <row r="49" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="3" t="s">
+      <c r="Z50" s="16">
+        <f>2.767+43.316</f>
+        <v>46.083000000000006</v>
+      </c>
+      <c r="AA50" s="16">
+        <f>16.328-44.306-0.174</f>
+        <v>-28.151999999999997</v>
+      </c>
+      <c r="AB50" s="16">
+        <f>-4.806-29.449</f>
+        <v>-34.255000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4">
         <v>116881</v>
       </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4">
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4">
         <v>35477</v>
       </c>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4">
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4">
         <f>-0.628+1.973-4.551-39.921+4.271+88.673-2.112-10.536+0.2</f>
         <v>37.369</v>
       </c>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4">
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4">
         <f>-121.884+19.399+3.525+23.809-19.105-14.802+7.953-15.482-0.033</f>
         <v>-116.61999999999999</v>
       </c>
-      <c r="T49" s="4"/>
-      <c r="Y49" s="3">
-        <v>-296608</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>333851</v>
-      </c>
-    </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B50" s="3" t="s">
+      <c r="T51" s="4"/>
+      <c r="Z51" s="16">
+        <f>-35.237-10.974-3.345+57.767+15.245+24.732-104.944-32.156-3.185</f>
+        <v>-92.097000000000008</v>
+      </c>
+      <c r="AA51" s="16">
+        <f>-72.819-24.811+6.033-29.859+5.527-61.154-49.471-34.59-0.073</f>
+        <v>-261.21699999999998</v>
+      </c>
+      <c r="AB51" s="16">
+        <f>-106.159-6.197+3.242-31.832+52.895+79.512+64.347-49.63+0.058</f>
+        <v>6.2360000000000042</v>
+      </c>
+    </row>
+    <row r="52" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O50" s="4">
-        <f>SUM(O42:O49)</f>
+      <c r="O52" s="4">
+        <f>SUM(O44:O51)</f>
         <v>187.55600000000001</v>
-      </c>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4">
-        <f>SUM(S42:S49)</f>
-        <v>129.57900000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B52" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O52" s="4">
-        <v>-4.7549999999999999</v>
       </c>
       <c r="R52" s="4"/>
       <c r="S52" s="4">
+        <f>SUM(S44:S51)</f>
+        <v>129.57900000000001</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>-296608</v>
+      </c>
+      <c r="Z52" s="16">
+        <f>SUM(Z44:Z51)</f>
+        <v>333.851</v>
+      </c>
+      <c r="AA52" s="16">
+        <f>SUM(AA44:AA51)</f>
+        <v>223.73700000000002</v>
+      </c>
+      <c r="AB52" s="16">
+        <f>SUM(AB44:AB51)</f>
+        <v>712.18299999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O54" s="4">
+        <v>-4.7549999999999999</v>
+      </c>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4">
         <v>-2.6640000000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B53" s="3" t="s">
+    <row r="55" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="O53" s="4">
+      <c r="O55" s="4">
         <f>-2310.367+709.459+51.072</f>
         <v>-1549.8360000000002</v>
       </c>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4">
+      <c r="R55" s="4"/>
+      <c r="S55" s="4">
         <f>-1260.327+751.746</f>
         <v>-508.58100000000002</v>
       </c>
     </row>
-    <row r="54" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B54" t="s">
+    <row r="56" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>63</v>
       </c>
-      <c r="O54" s="4">
-        <f>O52+O53</f>
+      <c r="O56" s="4">
+        <f>O54+O55</f>
         <v>-1554.5910000000003</v>
-      </c>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4">
-        <f>SUM(S52:S53)</f>
-        <v>-511.245</v>
-      </c>
-    </row>
-    <row r="56" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B56" t="s">
-        <v>68</v>
-      </c>
-      <c r="O56" s="4">
-        <v>25.923999999999999</v>
       </c>
       <c r="R56" s="4"/>
       <c r="S56" s="4">
-        <v>83.84</v>
-      </c>
-    </row>
-    <row r="57" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B57" t="s">
-        <v>69</v>
-      </c>
-      <c r="O57" s="4">
-        <v>0</v>
-      </c>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="58" spans="2:26" x14ac:dyDescent="0.15">
+        <f>SUM(S54:S55)</f>
+        <v>-511.245</v>
+      </c>
+    </row>
+    <row r="58" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="O58" s="4">
-        <v>5.8999999999999997E-2</v>
+        <v>25.923999999999999</v>
       </c>
       <c r="R58" s="4"/>
       <c r="S58" s="4">
-        <v>0.40799999999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.15">
+        <v>83.84</v>
+      </c>
+    </row>
+    <row r="59" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O59" s="4">
-        <f>SUM(O56:O58)</f>
-        <v>25.983000000000001</v>
+        <v>0</v>
       </c>
       <c r="R59" s="4"/>
       <c r="S59" s="4">
-        <f>SUM(S56:S58)</f>
-        <v>75.248000000000005</v>
-      </c>
-    </row>
-    <row r="60" spans="2:26" x14ac:dyDescent="0.15">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="60" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="O60" s="4">
-        <v>2.6760000000000002</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="R60" s="4"/>
       <c r="S60" s="4">
-        <v>-4.024</v>
-      </c>
-    </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.15">
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O61" s="4">
-        <f>+O60+O59+O54+O50</f>
-        <v>-1338.3760000000002</v>
+        <f>SUM(O58:O60)</f>
+        <v>25.983000000000001</v>
       </c>
       <c r="R61" s="4"/>
       <c r="S61" s="4">
-        <f>+S60+S59+S54+S50</f>
+        <f>SUM(S58:S60)</f>
+        <v>75.248000000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="O62" s="4">
+        <v>2.6760000000000002</v>
+      </c>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4">
+        <v>-4.024</v>
+      </c>
+    </row>
+    <row r="63" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="O63" s="4">
+        <f>+O62+O61+O56+O52</f>
+        <v>-1338.3760000000002</v>
+      </c>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4">
+        <f>+S62+S61+S56+S52</f>
         <v>-310.44200000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>84</v>
+      </c>
+      <c r="N66" s="2">
+        <v>367</v>
+      </c>
+      <c r="R66" s="2">
+        <v>497</v>
+      </c>
+      <c r="AA66">
+        <f>+N66</f>
+        <v>367</v>
+      </c>
+      <c r="AB66">
+        <f>+R66</f>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+      <c r="R67" s="8">
+        <v>0.62</v>
+      </c>
+      <c r="AB67" s="8">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>86</v>
+      </c>
+      <c r="R68" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="AB68" s="8">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>87</v>
+      </c>
+      <c r="R69" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AB69" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>88</v>
+      </c>
+      <c r="R70" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="AB70" s="8">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>

--- a/PLTR.xlsx
+++ b/PLTR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EB9452-10E1-4A64-AD8B-FCF0EBA1A114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A8270A-2EE3-4D32-8B1B-DA54C8A87AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{AE04E6E4-A652-4DFB-A34B-BE287D9B2752}"/>
+    <workbookView xWindow="-26535" yWindow="1830" windowWidth="25215" windowHeight="16575" xr2:uid="{AE04E6E4-A652-4DFB-A34B-BE287D9B2752}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,26 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={977846F7-C7A8-FB40-A05C-AFA5BB1512B9}</author>
-  </authors>
-  <commentList>
-    <comment ref="T7" authorId="0" shapeId="0" xr:uid="{977846F7-C7A8-FB40-A05C-AFA5BB1512B9}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Q1 guidance: 649-653m</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
   <si>
     <t>Price</t>
   </si>
@@ -330,6 +312,18 @@
   </si>
   <si>
     <t>TRDV</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -449,14 +443,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>46718</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19503</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>46718</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19503</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
@@ -473,8 +467,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13463361" y="0"/>
-          <a:ext cx="0" cy="10885714"/>
+          <a:off x="12980307" y="0"/>
+          <a:ext cx="0" cy="11375571"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -499,13 +493,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>43542</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>43542</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -551,9 +545,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Martin Shkreli" id="{74D2DF0D-14E1-8C43-8A69-0402CB2F2E09}" userId="9ffda80931a57275" providerId="Windows Live"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -851,21 +843,11 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="T7" dT="2024-06-03T23:15:47.24" personId="{74D2DF0D-14E1-8C43-8A69-0402CB2F2E09}" id="{977846F7-C7A8-FB40-A05C-AFA5BB1512B9}">
-    <text>Q1 guidance: 649-653m</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144E9D3E-317D-4992-A1EC-7C2CA7695A60}">
   <dimension ref="B2:M9"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -877,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>27</v>
+        <v>80.84</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -888,10 +870,11 @@
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>2400.107</v>
+        <f>2142.323448+96.125336+1.005</f>
+        <v>2239.4537840000003</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -900,7 +883,7 @@
       </c>
       <c r="L4" s="3">
         <f>L3*L2</f>
-        <v>64802.888999999996</v>
+        <v>181037.44389856004</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -908,10 +891,11 @@
         <v>3</v>
       </c>
       <c r="L5" s="3">
-        <v>2585</v>
+        <f>512.659+3485.8</f>
+        <v>3998.4590000000003</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -931,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -949,7 +933,7 @@
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>62217.888999999996</v>
+        <v>177038.98489856004</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -983,14 +967,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CE0236-0D83-41C7-BB37-83829D679D7F}">
-  <dimension ref="A1:AI70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CE0236-0D83-41C7-BB37-83829D679D7F}">
+  <dimension ref="A1:AM70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="M35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="U61" sqref="U61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1001,12 +985,12 @@
     <col min="15" max="20" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1067,51 +1051,63 @@
       <c r="V2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Y2">
+      <c r="W2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC2">
         <v>2020</v>
       </c>
-      <c r="Z2">
-        <f>Y2+1</f>
+      <c r="AD2">
+        <f>AC2+1</f>
         <v>2021</v>
       </c>
-      <c r="AA2">
-        <f>Z2+1</f>
+      <c r="AE2">
+        <f>AD2+1</f>
         <v>2022</v>
       </c>
-      <c r="AB2">
-        <f t="shared" ref="AB2:AI2" si="0">AA2+1</f>
+      <c r="AF2">
+        <f t="shared" ref="AF2:AM2" si="0">AE2+1</f>
         <v>2023</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AD2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AE2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AF2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AG2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AH2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AI2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>91</v>
       </c>
@@ -1126,20 +1122,28 @@
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-      <c r="AA3" s="3">
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AE3" s="3">
         <f>+N3</f>
         <v>3700</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AF3" s="3">
         <f>+R3</f>
         <v>3900</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>70</v>
       </c>
@@ -1157,15 +1161,19 @@
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-      <c r="AA5" s="3">
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AE5" s="3">
         <v>834</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AF5" s="3">
         <f>SUM(O5:R5)</f>
         <v>1003</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>71</v>
       </c>
@@ -1183,15 +1191,19 @@
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-      <c r="AA6" s="3">
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AE6" s="3">
         <v>1071.7760000000001</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AF6" s="3">
         <f>SUM(O6:R6)</f>
         <v>1223</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1245,53 +1257,51 @@
       <c r="S7" s="6">
         <v>634.33799999999997</v>
       </c>
-      <c r="T7" s="6">
-        <v>655</v>
+      <c r="T7" s="5">
+        <v>678.13400000000001</v>
       </c>
       <c r="U7" s="5">
-        <f>+Q7*1.2</f>
-        <v>669.79079999999999</v>
+        <v>725.51599999999996</v>
       </c>
       <c r="V7" s="5">
-        <f>+R7*1.2</f>
-        <v>729.6</v>
-      </c>
-      <c r="Y7" s="5">
+        <v>790</v>
+      </c>
+      <c r="AC7" s="5">
         <v>1092.673</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="AD7" s="5">
         <v>1541.8889999999999</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AE7" s="5">
         <f>SUM(K7:N7)</f>
         <v>1905.8709999999999</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AF7" s="5">
         <f>SUM(O7:R7)</f>
         <v>2224.6620000000003</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AG7" s="5">
         <f>SUM(S7:V7)</f>
-        <v>2688.7287999999999</v>
-      </c>
-      <c r="AD7" s="5">
-        <f t="shared" ref="AD7" si="1">AC7*1.2</f>
-        <v>3226.4745599999997</v>
-      </c>
-      <c r="AE7" s="5">
-        <f t="shared" ref="AE7" si="2">AD7*1.2</f>
-        <v>3871.7694719999995</v>
-      </c>
-      <c r="AF7" s="5">
-        <f t="shared" ref="AF7:AG7" si="3">AE7*1.2</f>
-        <v>4646.1233663999992</v>
-      </c>
-      <c r="AG7" s="5">
+        <v>2827.9879999999998</v>
+      </c>
+      <c r="AH7" s="5">
+        <f t="shared" ref="AH7" si="1">AG7*1.2</f>
+        <v>3393.5855999999999</v>
+      </c>
+      <c r="AI7" s="5">
+        <f t="shared" ref="AI7" si="2">AH7*1.2</f>
+        <v>4072.3027199999997</v>
+      </c>
+      <c r="AJ7" s="5">
+        <f t="shared" ref="AJ7:AK7" si="3">AI7*1.2</f>
+        <v>4886.7632639999993</v>
+      </c>
+      <c r="AK7" s="5">
         <f t="shared" si="3"/>
-        <v>5575.3480396799987</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5864.1159167999986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1345,43 +1355,48 @@
       <c r="S8" s="4">
         <v>116.256</v>
       </c>
-      <c r="T8" s="4"/>
-      <c r="Y8" s="3">
+      <c r="T8" s="3">
+        <v>128.56200000000001</v>
+      </c>
+      <c r="U8" s="3">
+        <v>146.63900000000001</v>
+      </c>
+      <c r="AC8" s="3">
         <v>352.54700000000003</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AD8" s="3">
         <v>339.404</v>
       </c>
-      <c r="AA8" s="3">
-        <f>AA7-AA9</f>
+      <c r="AE8" s="3">
+        <f>AE7-AE9</f>
         <v>381.17419999999993</v>
       </c>
-      <c r="AB8" s="3">
-        <f t="shared" ref="AB8:AD8" si="5">AB7-AB9</f>
+      <c r="AF8" s="3">
+        <f t="shared" ref="AF8:AH8" si="5">AF7-AF9</f>
         <v>444.93239999999992</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AG8" s="3">
         <f t="shared" si="5"/>
-        <v>537.74575999999979</v>
-      </c>
-      <c r="AD8" s="3">
+        <v>565.59760000000006</v>
+      </c>
+      <c r="AH8" s="3">
         <f t="shared" si="5"/>
-        <v>645.29491199999984</v>
-      </c>
-      <c r="AE8" s="3">
-        <f t="shared" ref="AE8" si="6">AE7-AE9</f>
-        <v>774.35389439999972</v>
-      </c>
-      <c r="AF8" s="3">
-        <f t="shared" ref="AF8" si="7">AF7-AF9</f>
-        <v>929.22467327999948</v>
-      </c>
-      <c r="AG8" s="3">
-        <f t="shared" ref="AG8" si="8">AG7-AG9</f>
-        <v>1115.0696079359996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>678.7171199999998</v>
+      </c>
+      <c r="AI8" s="3">
+        <f t="shared" ref="AI8" si="6">AI7-AI9</f>
+        <v>814.46054399999957</v>
+      </c>
+      <c r="AJ8" s="3">
+        <f t="shared" ref="AJ8" si="7">AJ7-AJ9</f>
+        <v>977.35265279999976</v>
+      </c>
+      <c r="AK8" s="3">
+        <f t="shared" ref="AK8" si="8">AK7-AK9</f>
+        <v>1172.8231833599993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1450,45 +1465,52 @@
         <f t="shared" si="11"/>
         <v>518.08199999999999</v>
       </c>
-      <c r="T9" s="4"/>
-      <c r="Y9" s="3">
-        <f>Y7-Y8</f>
+      <c r="T9" s="3">
+        <f>+T7-T8</f>
+        <v>549.572</v>
+      </c>
+      <c r="U9" s="3">
+        <f>+U7-U8</f>
+        <v>578.87699999999995</v>
+      </c>
+      <c r="AC9" s="3">
+        <f>AC7-AC8</f>
         <v>740.12599999999998</v>
       </c>
-      <c r="Z9" s="3">
-        <f>Z7-Z8</f>
+      <c r="AD9" s="3">
+        <f>AD7-AD8</f>
         <v>1202.4849999999999</v>
       </c>
-      <c r="AA9" s="3">
-        <f>AA7*0.8</f>
+      <c r="AE9" s="3">
+        <f>AE7*0.8</f>
         <v>1524.6967999999999</v>
       </c>
-      <c r="AB9" s="3">
-        <f t="shared" ref="AB9:AD9" si="12">AB7*0.8</f>
+      <c r="AF9" s="3">
+        <f t="shared" ref="AF9:AH9" si="12">AF7*0.8</f>
         <v>1779.7296000000003</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AG9" s="3">
         <f t="shared" si="12"/>
-        <v>2150.9830400000001</v>
-      </c>
-      <c r="AD9" s="3">
+        <v>2262.3903999999998</v>
+      </c>
+      <c r="AH9" s="3">
         <f t="shared" si="12"/>
-        <v>2581.1796479999998</v>
-      </c>
-      <c r="AE9" s="3">
-        <f t="shared" ref="AE9" si="13">AE7*0.8</f>
-        <v>3097.4155775999998</v>
-      </c>
-      <c r="AF9" s="3">
-        <f t="shared" ref="AF9:AG9" si="14">AF7*0.8</f>
-        <v>3716.8986931199997</v>
-      </c>
-      <c r="AG9" s="3">
+        <v>2714.8684800000001</v>
+      </c>
+      <c r="AI9" s="3">
+        <f t="shared" ref="AI9" si="13">AI7*0.8</f>
+        <v>3257.8421760000001</v>
+      </c>
+      <c r="AJ9" s="3">
+        <f t="shared" ref="AJ9:AK9" si="14">AJ7*0.8</f>
+        <v>3909.4106111999995</v>
+      </c>
+      <c r="AK9" s="3">
         <f t="shared" si="14"/>
-        <v>4460.2784317439991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>4691.2927334399992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1542,43 +1564,48 @@
       <c r="S10" s="4">
         <v>193.17699999999999</v>
       </c>
-      <c r="T10" s="4"/>
-      <c r="Y10" s="3">
+      <c r="T10" s="3">
+        <v>196.809</v>
+      </c>
+      <c r="U10" s="3">
+        <v>209.47399999999999</v>
+      </c>
+      <c r="AC10" s="3">
         <v>683.70100000000002</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AD10" s="3">
         <v>614.51199999999994</v>
       </c>
-      <c r="AA10" s="3">
-        <f>Z10*1.1</f>
+      <c r="AE10" s="3">
+        <f>AD10*1.1</f>
         <v>675.96320000000003</v>
       </c>
-      <c r="AB10" s="3">
-        <f t="shared" ref="AB10:AD10" si="16">AA10*1.1</f>
+      <c r="AF10" s="3">
+        <f t="shared" ref="AF10:AH10" si="16">AE10*1.1</f>
         <v>743.55952000000013</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AG10" s="3">
         <f t="shared" si="16"/>
         <v>817.91547200000025</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AH10" s="3">
         <f t="shared" si="16"/>
         <v>899.70701920000033</v>
       </c>
-      <c r="AE10" s="3">
-        <f t="shared" ref="AE10" si="17">AD10*1.1</f>
+      <c r="AI10" s="3">
+        <f t="shared" ref="AI10" si="17">AH10*1.1</f>
         <v>989.67772112000046</v>
       </c>
-      <c r="AF10" s="3">
-        <f t="shared" ref="AF10:AG10" si="18">AE10*1.1</f>
+      <c r="AJ10" s="3">
+        <f t="shared" ref="AJ10:AK10" si="18">AI10*1.1</f>
         <v>1088.6454932320005</v>
       </c>
-      <c r="AG10" s="3">
+      <c r="AK10" s="3">
         <f t="shared" si="18"/>
         <v>1197.5100425552007</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1632,43 +1659,48 @@
       <c r="S11" s="4">
         <v>110.04</v>
       </c>
-      <c r="T11" s="4"/>
-      <c r="Y11" s="3">
+      <c r="T11" s="3">
+        <v>108.78100000000001</v>
+      </c>
+      <c r="U11" s="3">
+        <v>117.55500000000001</v>
+      </c>
+      <c r="AC11" s="3">
         <v>560.66</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="AD11" s="3">
         <v>387.48700000000002</v>
       </c>
-      <c r="AA11" s="3">
-        <f t="shared" ref="AA11:AD11" si="20">Z11*1.1</f>
+      <c r="AE11" s="3">
+        <f t="shared" ref="AE11:AH11" si="20">AD11*1.1</f>
         <v>426.23570000000007</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AF11" s="3">
         <f t="shared" si="20"/>
         <v>468.85927000000009</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AG11" s="3">
         <f t="shared" si="20"/>
         <v>515.74519700000019</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AH11" s="3">
         <f t="shared" si="20"/>
         <v>567.3197167000003</v>
       </c>
-      <c r="AE11" s="3">
-        <f t="shared" ref="AE11" si="21">AD11*1.1</f>
+      <c r="AI11" s="3">
+        <f t="shared" ref="AI11" si="21">AH11*1.1</f>
         <v>624.05168837000042</v>
       </c>
-      <c r="AF11" s="3">
-        <f t="shared" ref="AF11:AG11" si="22">AE11*1.1</f>
+      <c r="AJ11" s="3">
+        <f t="shared" ref="AJ11:AK11" si="22">AI11*1.1</f>
         <v>686.45685720700055</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AK11" s="3">
         <f t="shared" si="22"/>
         <v>755.10254292770071</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1722,43 +1754,48 @@
       <c r="S12" s="4">
         <v>133.98400000000001</v>
       </c>
-      <c r="T12" s="4"/>
-      <c r="Y12" s="3">
+      <c r="T12" s="3">
+        <v>138.643</v>
+      </c>
+      <c r="U12" s="3">
+        <v>138.708</v>
+      </c>
+      <c r="AC12" s="3">
         <v>669.44399999999996</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AD12" s="3">
         <v>611.53200000000004</v>
       </c>
-      <c r="AA12" s="3">
-        <f t="shared" ref="AA12:AD12" si="24">Z12*1.1</f>
+      <c r="AE12" s="3">
+        <f t="shared" ref="AE12:AH12" si="24">AD12*1.1</f>
         <v>672.68520000000012</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AF12" s="3">
         <f t="shared" si="24"/>
         <v>739.9537200000002</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AG12" s="3">
         <f t="shared" si="24"/>
         <v>813.94909200000029</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AH12" s="3">
         <f t="shared" si="24"/>
         <v>895.34400120000043</v>
       </c>
-      <c r="AE12" s="3">
-        <f t="shared" ref="AE12" si="25">AD12*1.1</f>
+      <c r="AI12" s="3">
+        <f t="shared" ref="AI12" si="25">AH12*1.1</f>
         <v>984.87840132000053</v>
       </c>
-      <c r="AF12" s="3">
-        <f t="shared" ref="AF12:AG12" si="26">AE12*1.1</f>
+      <c r="AJ12" s="3">
+        <f t="shared" ref="AJ12:AK12" si="26">AI12*1.1</f>
         <v>1083.3662414520006</v>
       </c>
-      <c r="AG12" s="3">
+      <c r="AK12" s="3">
         <f t="shared" si="26"/>
         <v>1191.7028655972008</v>
       </c>
     </row>
-    <row r="13" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
@@ -1827,45 +1864,52 @@
         <f>+S10+S11+S12</f>
         <v>437.20100000000002</v>
       </c>
-      <c r="T13" s="4"/>
-      <c r="Y13" s="3">
-        <f>SUM(Y10:Y12)</f>
+      <c r="T13" s="4">
+        <f>+T10+T11+T12</f>
+        <v>444.23300000000006</v>
+      </c>
+      <c r="U13" s="4">
+        <f>+U10+U11+U12</f>
+        <v>465.73699999999997</v>
+      </c>
+      <c r="AC13" s="3">
+        <f>SUM(AC10:AC12)</f>
         <v>1913.8049999999998</v>
       </c>
-      <c r="Z13" s="3">
-        <f t="shared" ref="Z13" si="29">SUM(Z10:Z12)</f>
+      <c r="AD13" s="3">
+        <f t="shared" ref="AD13" si="29">SUM(AD10:AD12)</f>
         <v>1613.5309999999999</v>
       </c>
-      <c r="AA13" s="3">
-        <f t="shared" ref="AA13" si="30">SUM(AA10:AA12)</f>
+      <c r="AE13" s="3">
+        <f t="shared" ref="AE13" si="30">SUM(AE10:AE12)</f>
         <v>1774.8841000000002</v>
       </c>
-      <c r="AB13" s="3">
-        <f t="shared" ref="AB13" si="31">SUM(AB10:AB12)</f>
+      <c r="AF13" s="3">
+        <f t="shared" ref="AF13" si="31">SUM(AF10:AF12)</f>
         <v>1952.3725100000004</v>
       </c>
-      <c r="AC13" s="3">
-        <f t="shared" ref="AC13" si="32">SUM(AC10:AC12)</f>
+      <c r="AG13" s="3">
+        <f t="shared" ref="AG13" si="32">SUM(AG10:AG12)</f>
         <v>2147.6097610000006</v>
       </c>
-      <c r="AD13" s="3">
-        <f t="shared" ref="AD13" si="33">SUM(AD10:AD12)</f>
+      <c r="AH13" s="3">
+        <f t="shared" ref="AH13" si="33">SUM(AH10:AH12)</f>
         <v>2362.370737100001</v>
       </c>
-      <c r="AE13" s="3">
-        <f t="shared" ref="AE13" si="34">SUM(AE10:AE12)</f>
+      <c r="AI13" s="3">
+        <f t="shared" ref="AI13" si="34">SUM(AI10:AI12)</f>
         <v>2598.6078108100014</v>
       </c>
-      <c r="AF13" s="3">
-        <f t="shared" ref="AF13" si="35">SUM(AF10:AF12)</f>
+      <c r="AJ13" s="3">
+        <f t="shared" ref="AJ13" si="35">SUM(AJ10:AJ12)</f>
         <v>2858.4685918910018</v>
       </c>
-      <c r="AG13" s="3">
-        <f t="shared" ref="AG13" si="36">SUM(AG10:AG12)</f>
+      <c r="AK13" s="3">
+        <f t="shared" ref="AK13" si="36">SUM(AK10:AK12)</f>
         <v>3144.3154510801023</v>
       </c>
     </row>
-    <row r="14" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1934,45 +1978,52 @@
         <f>+S9-S13</f>
         <v>80.880999999999972</v>
       </c>
-      <c r="T14" s="4"/>
-      <c r="Y14" s="3">
-        <f>Y9-Y13</f>
+      <c r="T14" s="4">
+        <f>+T9-T13</f>
+        <v>105.33899999999994</v>
+      </c>
+      <c r="U14" s="4">
+        <f>+U9-U13</f>
+        <v>113.13999999999999</v>
+      </c>
+      <c r="AC14" s="3">
+        <f>AC9-AC13</f>
         <v>-1173.6789999999999</v>
       </c>
-      <c r="Z14" s="3">
-        <f t="shared" ref="Z14" si="39">Z9-Z13</f>
+      <c r="AD14" s="3">
+        <f t="shared" ref="AD14" si="39">AD9-AD13</f>
         <v>-411.04600000000005</v>
       </c>
-      <c r="AA14" s="3">
-        <f t="shared" ref="AA14" si="40">AA9-AA13</f>
+      <c r="AE14" s="3">
+        <f t="shared" ref="AE14" si="40">AE9-AE13</f>
         <v>-250.18730000000028</v>
       </c>
-      <c r="AB14" s="3">
-        <f t="shared" ref="AB14" si="41">AB9-AB13</f>
+      <c r="AF14" s="3">
+        <f t="shared" ref="AF14" si="41">AF9-AF13</f>
         <v>-172.64291000000003</v>
       </c>
-      <c r="AC14" s="3">
-        <f t="shared" ref="AC14" si="42">AC9-AC13</f>
-        <v>3.3732789999994566</v>
-      </c>
-      <c r="AD14" s="3">
-        <f t="shared" ref="AD14" si="43">AD9-AD13</f>
-        <v>218.80891089999886</v>
-      </c>
-      <c r="AE14" s="3">
-        <f t="shared" ref="AE14" si="44">AE9-AE13</f>
-        <v>498.80776678999837</v>
-      </c>
-      <c r="AF14" s="3">
-        <f t="shared" ref="AF14" si="45">AF9-AF13</f>
-        <v>858.43010122899796</v>
-      </c>
       <c r="AG14" s="3">
-        <f t="shared" ref="AG14" si="46">AG9-AG13</f>
-        <v>1315.9629806638968</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AG14" si="42">AG9-AG13</f>
+        <v>114.78063899999916</v>
+      </c>
+      <c r="AH14" s="3">
+        <f t="shared" ref="AH14" si="43">AH9-AH13</f>
+        <v>352.49774289999914</v>
+      </c>
+      <c r="AI14" s="3">
+        <f t="shared" ref="AI14" si="44">AI9-AI13</f>
+        <v>659.2343651899987</v>
+      </c>
+      <c r="AJ14" s="3">
+        <f t="shared" ref="AJ14" si="45">AJ9-AJ13</f>
+        <v>1050.9420193089977</v>
+      </c>
+      <c r="AK14" s="3">
+        <f t="shared" ref="AK14" si="46">AK9-AK13</f>
+        <v>1546.9772823598969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
@@ -2040,27 +2091,22 @@
         <f>43.352-13.507</f>
         <v>29.844999999999999</v>
       </c>
-      <c r="T15" s="4"/>
-      <c r="Y15" s="3">
+      <c r="T15" s="3">
+        <f>46.593-11.173</f>
+        <v>35.42</v>
+      </c>
+      <c r="U15" s="3">
+        <f>52.12-8.11</f>
+        <v>44.01</v>
+      </c>
+      <c r="AC15" s="3">
         <f>4.68-14.139</f>
         <v>-9.4589999999999996</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AD15" s="3">
         <f>1.607-3.64</f>
         <v>-2.0330000000000004</v>
       </c>
-      <c r="AA15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>0</v>
-      </c>
       <c r="AE15" s="3">
         <v>0</v>
       </c>
@@ -2070,8 +2116,20 @@
       <c r="AG15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
@@ -2117,7 +2175,7 @@
         <v>-33.226999999999975</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" ref="N16:S16" si="49">+N14+N15</f>
+        <f t="shared" ref="N16:U16" si="49">+N14+N15</f>
         <v>37.848999999999975</v>
       </c>
       <c r="O16" s="4">
@@ -2140,45 +2198,52 @@
         <f t="shared" si="49"/>
         <v>110.72599999999997</v>
       </c>
-      <c r="T16" s="4"/>
-      <c r="Y16" s="3">
-        <f t="shared" ref="Y16:AD16" si="50">Y14+Y15</f>
+      <c r="T16" s="4">
+        <f t="shared" ref="T16" si="50">+T14+T15</f>
+        <v>140.75899999999996</v>
+      </c>
+      <c r="U16" s="4">
+        <f t="shared" si="49"/>
+        <v>157.14999999999998</v>
+      </c>
+      <c r="AC16" s="3">
+        <f t="shared" ref="AC16:AH16" si="51">AC14+AC15</f>
         <v>-1183.1379999999999</v>
       </c>
-      <c r="Z16" s="3">
-        <f t="shared" si="50"/>
+      <c r="AD16" s="3">
+        <f t="shared" si="51"/>
         <v>-413.07900000000006</v>
       </c>
-      <c r="AA16" s="3">
-        <f t="shared" si="50"/>
+      <c r="AE16" s="3">
+        <f t="shared" si="51"/>
         <v>-250.18730000000028</v>
       </c>
-      <c r="AB16" s="3">
-        <f t="shared" si="50"/>
+      <c r="AF16" s="3">
+        <f t="shared" si="51"/>
         <v>-172.64291000000003</v>
       </c>
-      <c r="AC16" s="3">
-        <f t="shared" si="50"/>
-        <v>3.3732789999994566</v>
-      </c>
-      <c r="AD16" s="3">
-        <f t="shared" si="50"/>
-        <v>218.80891089999886</v>
-      </c>
-      <c r="AE16" s="3">
-        <f t="shared" ref="AE16" si="51">AE14+AE15</f>
-        <v>498.80776678999837</v>
-      </c>
-      <c r="AF16" s="3">
-        <f t="shared" ref="AF16" si="52">AF14+AF15</f>
-        <v>858.43010122899796</v>
-      </c>
       <c r="AG16" s="3">
-        <f t="shared" ref="AG16" si="53">AG14+AG15</f>
-        <v>1315.9629806638968</v>
-      </c>
-    </row>
-    <row r="17" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="51"/>
+        <v>114.78063899999916</v>
+      </c>
+      <c r="AH16" s="3">
+        <f t="shared" si="51"/>
+        <v>352.49774289999914</v>
+      </c>
+      <c r="AI16" s="3">
+        <f t="shared" ref="AI16" si="52">AI14+AI15</f>
+        <v>659.2343651899987</v>
+      </c>
+      <c r="AJ16" s="3">
+        <f t="shared" ref="AJ16" si="53">AJ14+AJ15</f>
+        <v>1050.9420193089977</v>
+      </c>
+      <c r="AK16" s="3">
+        <f t="shared" ref="AK16" si="54">AK14+AK15</f>
+        <v>1546.9772823598969</v>
+      </c>
+    </row>
+    <row r="17" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
@@ -2238,86 +2303,93 @@
         <f>4.655+0.541</f>
         <v>5.1960000000000006</v>
       </c>
-      <c r="T17" s="4"/>
-      <c r="Y17" s="3">
+      <c r="T17" s="3">
+        <f>5.189+1.444</f>
+        <v>6.633</v>
+      </c>
+      <c r="U17" s="3">
+        <f>7.809+5.816</f>
+        <v>13.625</v>
+      </c>
+      <c r="AC17" s="3">
         <v>-12.635999999999999</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AD17" s="3">
         <v>31.885000000000002</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AE17" s="3">
         <v>0</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AF17" s="3">
         <v>0</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AG17" s="3">
         <v>0</v>
       </c>
-      <c r="AD17" s="3">
-        <f>AD16*0.1</f>
-        <v>21.880891089999889</v>
-      </c>
-      <c r="AE17" s="3">
-        <f t="shared" ref="AE17" si="54">AE16*0.1</f>
-        <v>49.880776678999837</v>
-      </c>
-      <c r="AF17" s="3">
-        <f t="shared" ref="AF17" si="55">AF16*0.1</f>
-        <v>85.843010122899798</v>
-      </c>
-      <c r="AG17" s="3">
-        <f t="shared" ref="AG17" si="56">AG16*0.1</f>
-        <v>131.59629806638969</v>
-      </c>
-    </row>
-    <row r="18" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH17" s="3">
+        <f>AH16*0.1</f>
+        <v>35.249774289999912</v>
+      </c>
+      <c r="AI17" s="3">
+        <f t="shared" ref="AI17" si="55">AI16*0.1</f>
+        <v>65.923436518999878</v>
+      </c>
+      <c r="AJ17" s="3">
+        <f t="shared" ref="AJ17" si="56">AJ16*0.1</f>
+        <v>105.09420193089977</v>
+      </c>
+      <c r="AK17" s="3">
+        <f t="shared" ref="AK17" si="57">AK16*0.1</f>
+        <v>154.6977282359897</v>
+      </c>
+    </row>
+    <row r="18" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4">
-        <f t="shared" ref="D18:L18" si="57">D16-D17</f>
+        <f t="shared" ref="D18:L18" si="58">D16-D17</f>
         <v>-94.993000000000009</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-837.64300000000003</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-147.53299999999996</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-115.65200000000002</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-140.26900000000003</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-93.149000000000029</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-91.827999999999975</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-41.415000000000028</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-45.135000000000005</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" ref="M18:N18" si="58">M16-M17</f>
+        <f t="shared" ref="M18:N18" si="59">M16-M17</f>
         <v>-33.226999999999975</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>30.877999999999975</v>
       </c>
       <c r="O18" s="4">
@@ -2340,90 +2412,97 @@
         <f>+S16-S17</f>
         <v>105.52999999999997</v>
       </c>
-      <c r="T18" s="4"/>
-      <c r="Y18" s="3">
-        <f>Y16-Y17</f>
+      <c r="T18" s="4">
+        <f t="shared" ref="T18:U18" si="60">+T16-T17</f>
+        <v>134.12599999999995</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" si="60"/>
+        <v>143.52499999999998</v>
+      </c>
+      <c r="AC18" s="3">
+        <f>AC16-AC17</f>
         <v>-1170.502</v>
       </c>
-      <c r="Z18" s="3">
-        <f>Z16-Z17</f>
+      <c r="AD18" s="3">
+        <f>AD16-AD17</f>
         <v>-444.96400000000006</v>
       </c>
-      <c r="AA18" s="3">
-        <f t="shared" ref="AA18:AD18" si="59">AA16-AA17</f>
+      <c r="AE18" s="3">
+        <f t="shared" ref="AE18:AH18" si="61">AE16-AE17</f>
         <v>-250.18730000000028</v>
       </c>
-      <c r="AB18" s="3">
-        <f t="shared" si="59"/>
+      <c r="AF18" s="3">
+        <f t="shared" si="61"/>
         <v>-172.64291000000003</v>
       </c>
-      <c r="AC18" s="3">
-        <f t="shared" si="59"/>
-        <v>3.3732789999994566</v>
-      </c>
-      <c r="AD18" s="3">
-        <f t="shared" si="59"/>
-        <v>196.92801980999897</v>
-      </c>
-      <c r="AE18" s="3">
-        <f t="shared" ref="AE18" si="60">AE16-AE17</f>
-        <v>448.92699011099853</v>
-      </c>
-      <c r="AF18" s="3">
-        <f t="shared" ref="AF18" si="61">AF16-AF17</f>
-        <v>772.58709110609811</v>
-      </c>
       <c r="AG18" s="3">
-        <f t="shared" ref="AG18" si="62">AG16-AG17</f>
-        <v>1184.3666825975072</v>
-      </c>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
+        <f t="shared" si="61"/>
+        <v>114.78063899999916</v>
+      </c>
+      <c r="AH18" s="3">
+        <f t="shared" si="61"/>
+        <v>317.24796860999925</v>
+      </c>
+      <c r="AI18" s="3">
+        <f t="shared" ref="AI18" si="62">AI16-AI17</f>
+        <v>593.31092867099881</v>
+      </c>
+      <c r="AJ18" s="3">
+        <f t="shared" ref="AJ18" si="63">AJ16-AJ17</f>
+        <v>945.84781737809794</v>
+      </c>
+      <c r="AK18" s="3">
+        <f t="shared" ref="AK18" si="64">AK16-AK17</f>
+        <v>1392.2795541239072</v>
+      </c>
+    </row>
+    <row r="19" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" ref="D19:L19" si="63">D18/D20</f>
+        <f t="shared" ref="D19:L19" si="65">D18/D20</f>
         <v>-0.14827157237200492</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>-0.92510011463761044</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>-8.3658536308756248E-2</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>-6.3504649239659608E-2</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>-7.4035973706406522E-2</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>-4.7418670888492401E-2</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>-4.5645513091992884E-2</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>-2.0338288872945007E-2</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>-2.1965652114878394E-2</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" ref="M19:N19" si="64">M18/M20</f>
+        <f t="shared" ref="M19:N19" si="66">M18/M20</f>
         <v>-1.6170438081778302E-2</v>
       </c>
       <c r="N19" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1.4011679273305783E-2</v>
       </c>
       <c r="O19" s="7">
@@ -2446,45 +2525,52 @@
         <f>+S18/S20</f>
         <v>4.3968873054409649E-2</v>
       </c>
-      <c r="T19" s="7"/>
-      <c r="Y19" s="1">
-        <f>Y18/Y20</f>
+      <c r="T19" s="7">
+        <f t="shared" ref="T19:U19" si="67">+T18/T20</f>
+        <v>5.5545708445286675E-2</v>
+      </c>
+      <c r="U19" s="7">
+        <f t="shared" si="67"/>
+        <v>5.8353245196656835E-2</v>
+      </c>
+      <c r="AC19" s="1">
+        <f>AC18/AC20</f>
         <v>-1.1952069271849119</v>
       </c>
-      <c r="Z19" s="1">
-        <f>Z18/Z20</f>
+      <c r="AD19" s="1">
+        <f>AD18/AD20</f>
         <v>-0.23131631712549852</v>
       </c>
-      <c r="AA19" s="1">
-        <f t="shared" ref="AA19:AD19" si="65">AA18/AA20</f>
+      <c r="AE19" s="1">
+        <f t="shared" ref="AE19:AH19" si="68">AE18/AE20</f>
         <v>-0.11985539971912569</v>
       </c>
-      <c r="AB19" s="1">
-        <f t="shared" si="65"/>
+      <c r="AF19" s="1">
+        <f t="shared" si="68"/>
         <v>-8.2706776030290197E-2</v>
       </c>
-      <c r="AC19" s="1">
-        <f t="shared" si="65"/>
-        <v>1.6160120953744137E-3</v>
-      </c>
-      <c r="AD19" s="1">
-        <f t="shared" si="65"/>
-        <v>9.4340865944127869E-2</v>
-      </c>
-      <c r="AE19" s="1">
-        <f t="shared" ref="AE19" si="66">AE18/AE20</f>
-        <v>0.21506416930218944</v>
-      </c>
-      <c r="AF19" s="1">
-        <f t="shared" ref="AF19" si="67">AF18/AF20</f>
-        <v>0.37011764634878697</v>
-      </c>
       <c r="AG19" s="1">
-        <f t="shared" ref="AG19" si="68">AG18/AG20</f>
-        <v>0.56738588312331972</v>
-      </c>
-    </row>
-    <row r="20" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="68"/>
+        <v>5.4987121118304373E-2</v>
+      </c>
+      <c r="AH19" s="1">
+        <f t="shared" si="68"/>
+        <v>0.15198166368889252</v>
+      </c>
+      <c r="AI19" s="1">
+        <f t="shared" ref="AI19" si="69">AI18/AI20</f>
+        <v>0.28423312659590699</v>
+      </c>
+      <c r="AJ19" s="1">
+        <f t="shared" ref="AJ19" si="70">AJ18/AJ20</f>
+        <v>0.45312039510124774</v>
+      </c>
+      <c r="AK19" s="1">
+        <f t="shared" ref="AK19" si="71">AK18/AK20</f>
+        <v>0.66698918162627285</v>
+      </c>
+    </row>
+    <row r="20" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
@@ -2517,7 +2603,7 @@
         <v>2054.799</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" ref="M20" si="69">L20</f>
+        <f t="shared" ref="M20" si="72">L20</f>
         <v>2054.799</v>
       </c>
       <c r="N20" s="4">
@@ -2538,43 +2624,48 @@
       <c r="S20" s="4">
         <v>2400.107</v>
       </c>
-      <c r="T20" s="4"/>
-      <c r="Y20" s="3">
+      <c r="T20" s="3">
+        <v>2414.6959999999999</v>
+      </c>
+      <c r="U20" s="3">
+        <v>2459.5889999999999</v>
+      </c>
+      <c r="AC20" s="3">
         <v>979.33</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AD20" s="3">
         <v>1923.617</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AE20" s="3">
         <f>AVERAGE(K20:N20)</f>
         <v>2087.4094999999998</v>
       </c>
-      <c r="AB20" s="3">
-        <f>AA20</f>
+      <c r="AF20" s="3">
+        <f>AE20</f>
         <v>2087.4094999999998</v>
       </c>
-      <c r="AC20" s="3">
-        <f>AB20</f>
+      <c r="AG20" s="3">
+        <f>AF20</f>
         <v>2087.4094999999998</v>
       </c>
-      <c r="AD20" s="3">
-        <f>AC20</f>
+      <c r="AH20" s="3">
+        <f>AG20</f>
         <v>2087.4094999999998</v>
       </c>
-      <c r="AE20" s="3">
-        <f t="shared" ref="AE20" si="70">AD20</f>
+      <c r="AI20" s="3">
+        <f t="shared" ref="AI20" si="73">AH20</f>
         <v>2087.4094999999998</v>
       </c>
-      <c r="AF20" s="3">
-        <f t="shared" ref="AF20:AG20" si="71">AE20</f>
+      <c r="AJ20" s="3">
+        <f t="shared" ref="AJ20:AK20" si="74">AI20</f>
         <v>2087.4094999999998</v>
       </c>
-      <c r="AG20" s="3">
-        <f t="shared" si="71"/>
+      <c r="AK20" s="3">
+        <f t="shared" si="74"/>
         <v>2087.4094999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:37" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
@@ -2604,188 +2695,200 @@
         <v>0.25920424233711881</v>
       </c>
       <c r="M23" s="10">
-        <f t="shared" ref="M23:O23" si="72">M7/I7-1</f>
+        <f t="shared" ref="M23:O23" si="75">M7/I7-1</f>
         <v>0.21862775598884077</v>
       </c>
       <c r="N23" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.17501218619113956</v>
       </c>
       <c r="O23" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.1766052733574246</v>
       </c>
       <c r="P23" s="10">
-        <f t="shared" ref="P23:T23" si="73">P7/L7-1</f>
+        <f t="shared" ref="P23:T23" si="76">P7/L7-1</f>
         <v>0.12749624743662924</v>
       </c>
       <c r="Q23" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.16798987193437687</v>
       </c>
       <c r="R23" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.19538205039479051</v>
       </c>
       <c r="S23" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0.20783493847893864</v>
       </c>
       <c r="T23" s="10">
-        <f t="shared" si="73"/>
-        <v>0.22816261248000713</v>
+        <f t="shared" si="76"/>
+        <v>0.2715401909183468</v>
       </c>
       <c r="U23" s="10">
-        <f t="shared" ref="U23" si="74">U7/Q7-1</f>
-        <v>0.19999999999999996</v>
+        <f t="shared" ref="U23" si="77">U7/Q7-1</f>
+        <v>0.2998375015004684</v>
       </c>
       <c r="V23" s="10">
-        <f t="shared" ref="V23" si="75">V7/R7-1</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="Z23" s="12">
-        <f>Z7/Y7-1</f>
-        <v>0.41111659206368234</v>
-      </c>
-      <c r="AA23" s="12">
-        <f>AA7/Z7-1</f>
-        <v>0.23606238840798532</v>
-      </c>
-      <c r="AB23" s="12">
-        <f>AB7/AA7-1</f>
-        <v>0.16726787909569985</v>
-      </c>
-      <c r="AC23" s="12">
-        <f>AC7/AB7-1</f>
-        <v>0.20860103692156362</v>
-      </c>
+        <f t="shared" ref="V23" si="78">V7/R7-1</f>
+        <v>0.29934210526315796</v>
+      </c>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
       <c r="AD23" s="12">
         <f>AD7/AC7-1</f>
+        <v>0.41111659206368234</v>
+      </c>
+      <c r="AE23" s="12">
+        <f>AE7/AD7-1</f>
+        <v>0.23606238840798532</v>
+      </c>
+      <c r="AF23" s="12">
+        <f>AF7/AE7-1</f>
+        <v>0.16726787909569985</v>
+      </c>
+      <c r="AG23" s="12">
+        <f>AG7/AF7-1</f>
+        <v>0.2711989506720569</v>
+      </c>
+      <c r="AH23" s="12">
+        <f>AH7/AG7-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AE23" s="12">
-        <f t="shared" ref="AE23" si="76">AE7/AD7-1</f>
+      <c r="AI23" s="12">
+        <f t="shared" ref="AI23" si="79">AI7/AH7-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AF23" s="12">
-        <f t="shared" ref="AF23:AG23" si="77">AF7/AE7-1</f>
+      <c r="AJ23" s="12">
+        <f t="shared" ref="AJ23:AK23" si="80">AJ7/AI7-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AG23" s="12">
-        <f t="shared" si="77"/>
+      <c r="AK23" s="12">
+        <f t="shared" si="80"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" ref="D24:K24" si="78">D9/D7</f>
+        <f t="shared" ref="D24:K24" si="81">D9/D7</f>
         <v>0.72841211803611916</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.48390619492269304</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.78110844450791861</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.78281472537906538</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.75794506471587308</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.77864366842961541</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.79771384744043783</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.78850337286073702</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" ref="L24:P24" si="79">L9/L7</f>
+        <f t="shared" ref="L24:P24" si="82">L9/L7</f>
         <v>0.78388617576795416</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="79"/>
-        <v>0.8</v>
-      </c>
-      <c r="N24" s="8">
-        <f t="shared" si="79"/>
-        <v>0.79491530089024498</v>
-      </c>
-      <c r="O24" s="8">
-        <f t="shared" si="79"/>
-        <v>0.79503452110299977</v>
-      </c>
-      <c r="P24" s="8">
-        <f t="shared" si="79"/>
-        <v>0.79955823647099189</v>
-      </c>
-      <c r="Q24" s="8">
-        <f t="shared" ref="Q24:R24" si="80">Q9/Q7</f>
-        <v>0.80664649320354953</v>
-      </c>
-      <c r="R24" s="8">
-        <f t="shared" si="80"/>
-        <v>0.82131743421052628</v>
-      </c>
-      <c r="S24" s="8">
-        <f t="shared" ref="S24:T24" si="81">S9/S7</f>
-        <v>0.81672862101907817</v>
-      </c>
-      <c r="T24" s="8">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="8">
-        <f t="shared" ref="Y24:AD24" si="82">Y9/Y7</f>
-        <v>0.67735360899372454</v>
-      </c>
-      <c r="Z24" s="8">
-        <f t="shared" si="82"/>
-        <v>0.77987779924495215</v>
-      </c>
-      <c r="AA24" s="8">
         <f t="shared" si="82"/>
         <v>0.8</v>
       </c>
-      <c r="AB24" s="8">
+      <c r="N24" s="8">
         <f t="shared" si="82"/>
+        <v>0.79491530089024498</v>
+      </c>
+      <c r="O24" s="8">
+        <f t="shared" si="82"/>
+        <v>0.79503452110299977</v>
+      </c>
+      <c r="P24" s="8">
+        <f t="shared" si="82"/>
+        <v>0.79955823647099189</v>
+      </c>
+      <c r="Q24" s="8">
+        <f t="shared" ref="Q24:R24" si="83">Q9/Q7</f>
+        <v>0.80664649320354953</v>
+      </c>
+      <c r="R24" s="8">
+        <f t="shared" si="83"/>
+        <v>0.82131743421052628</v>
+      </c>
+      <c r="S24" s="8">
+        <f t="shared" ref="S24:V24" si="84">S9/S7</f>
+        <v>0.81672862101907817</v>
+      </c>
+      <c r="T24" s="8">
+        <f t="shared" si="84"/>
+        <v>0.81041799998230435</v>
+      </c>
+      <c r="U24" s="8">
+        <f t="shared" si="84"/>
+        <v>0.79788316177727303</v>
+      </c>
+      <c r="V24" s="8">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="8">
+        <f t="shared" ref="AC24:AH24" si="85">AC9/AC7</f>
+        <v>0.67735360899372454</v>
+      </c>
+      <c r="AD24" s="8">
+        <f t="shared" si="85"/>
+        <v>0.77987779924495215</v>
+      </c>
+      <c r="AE24" s="8">
+        <f t="shared" si="85"/>
         <v>0.8</v>
       </c>
-      <c r="AC24" s="8">
-        <f t="shared" si="82"/>
+      <c r="AF24" s="8">
+        <f t="shared" si="85"/>
         <v>0.8</v>
       </c>
-      <c r="AD24" s="8">
-        <f t="shared" si="82"/>
+      <c r="AG24" s="8">
+        <f t="shared" si="85"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="AH24" s="8">
+        <f t="shared" si="85"/>
         <v>0.8</v>
       </c>
-      <c r="AE24" s="8">
-        <f t="shared" ref="AE24" si="83">AE9/AE7</f>
+      <c r="AI24" s="8">
+        <f t="shared" ref="AI24" si="86">AI9/AI7</f>
         <v>0.8</v>
       </c>
-      <c r="AF24" s="8">
-        <f t="shared" ref="AF24:AG24" si="84">AF9/AF7</f>
+      <c r="AJ24" s="8">
+        <f t="shared" ref="AJ24:AK24" si="87">AJ9/AJ7</f>
         <v>0.8</v>
       </c>
-      <c r="AG24" s="8">
-        <f t="shared" si="84"/>
+      <c r="AK24" s="8">
+        <f t="shared" si="87"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="26" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2824,13 +2927,20 @@
         <f>520.388+3347.512</f>
         <v>3867.9</v>
       </c>
-      <c r="T26" s="4"/>
-      <c r="AB26" s="4">
+      <c r="T26" s="4">
+        <f>512.659+3485.8</f>
+        <v>3998.4590000000003</v>
+      </c>
+      <c r="U26" s="3">
+        <f>768.71+3795.949</f>
+        <v>4564.6589999999997</v>
+      </c>
+      <c r="AF26" s="4">
         <f>831.047+2843.132</f>
         <v>3674.1790000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>34</v>
       </c>
@@ -2863,12 +2973,17 @@
       <c r="S27" s="4">
         <v>486.98599999999999</v>
       </c>
-      <c r="T27" s="4"/>
-      <c r="AB27" s="4">
+      <c r="T27" s="4">
+        <v>659.33900000000006</v>
+      </c>
+      <c r="U27" s="3">
+        <v>668.11</v>
+      </c>
+      <c r="AF27" s="4">
         <v>364.78399999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>35</v>
       </c>
@@ -2901,12 +3016,17 @@
       <c r="S28" s="4">
         <v>81.177999999999997</v>
       </c>
-      <c r="T28" s="4"/>
-      <c r="AB28" s="4">
+      <c r="T28" s="4">
+        <v>115.712</v>
+      </c>
+      <c r="U28" s="3">
+        <v>119.193</v>
+      </c>
+      <c r="AF28" s="4">
         <v>99.655000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>36</v>
       </c>
@@ -2939,12 +3059,17 @@
       <c r="S29" s="4">
         <v>46.905999999999999</v>
       </c>
-      <c r="T29" s="4"/>
-      <c r="AB29" s="4">
+      <c r="T29" s="4">
+        <v>43.482999999999997</v>
+      </c>
+      <c r="U29" s="3">
+        <v>40.344999999999999</v>
+      </c>
+      <c r="AF29" s="4">
         <v>47.758000000000003</v>
       </c>
     </row>
-    <row r="30" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>37</v>
       </c>
@@ -2977,12 +3102,17 @@
       <c r="S30" s="4">
         <v>173.70699999999999</v>
       </c>
-      <c r="T30" s="4"/>
-      <c r="AB30" s="4">
+      <c r="T30" s="4">
+        <v>213.453</v>
+      </c>
+      <c r="U30" s="3">
+        <v>211.57</v>
+      </c>
+      <c r="AF30" s="4">
         <v>182.863</v>
       </c>
     </row>
-    <row r="31" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>38</v>
       </c>
@@ -3015,12 +3145,17 @@
       <c r="S31" s="4">
         <v>150.40199999999999</v>
       </c>
-      <c r="T31" s="4"/>
-      <c r="AB31" s="4">
+      <c r="T31" s="4">
+        <v>161.434</v>
+      </c>
+      <c r="U31" s="3">
+        <v>164.22</v>
+      </c>
+      <c r="AF31" s="4">
         <v>153.18600000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>39</v>
       </c>
@@ -3059,16 +3194,23 @@
         <f>SUM(S26:S31)</f>
         <v>4807.0790000000006</v>
       </c>
-      <c r="T32" s="4"/>
-      <c r="AB32" s="4">
-        <f>SUM(AB26:AB31)</f>
+      <c r="T32" s="4">
+        <f>SUM(T26:T31)</f>
+        <v>5191.8800000000019</v>
+      </c>
+      <c r="U32" s="4">
+        <f>SUM(U26:U31)</f>
+        <v>5768.0969999999998</v>
+      </c>
+      <c r="AF32" s="4">
+        <f>SUM(AF26:AF31)</f>
         <v>4522.4250000000002</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="AB33" s="2"/>
-    </row>
-    <row r="34" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AF33" s="2"/>
+    </row>
+    <row r="34" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>40</v>
       </c>
@@ -3101,12 +3243,17 @@
       <c r="S34" s="4">
         <v>35.634</v>
       </c>
-      <c r="T34" s="4"/>
-      <c r="AB34" s="4">
+      <c r="T34" s="4">
+        <v>67.344999999999999</v>
+      </c>
+      <c r="U34" s="3">
+        <v>27.021000000000001</v>
+      </c>
+      <c r="AF34" s="4">
         <v>12.122</v>
       </c>
     </row>
-    <row r="35" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>41</v>
       </c>
@@ -3139,12 +3286,17 @@
       <c r="S35" s="4">
         <v>206.03399999999999</v>
       </c>
-      <c r="T35" s="4"/>
-      <c r="AB35" s="4">
+      <c r="T35" s="4">
+        <v>195.489</v>
+      </c>
+      <c r="U35" s="3">
+        <v>265.24400000000003</v>
+      </c>
+      <c r="AF35" s="4">
         <v>222.99100000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>42</v>
       </c>
@@ -3183,13 +3335,20 @@
         <f>237.195+20.722</f>
         <v>257.91699999999997</v>
       </c>
-      <c r="T36" s="4"/>
-      <c r="AB36" s="4">
+      <c r="T36" s="4">
+        <f>278.441+15.649</f>
+        <v>294.08999999999997</v>
+      </c>
+      <c r="U36" s="3">
+        <f>236.608+7.825</f>
+        <v>244.43299999999999</v>
+      </c>
+      <c r="AF36" s="4">
         <f>246.901+28.047</f>
         <v>274.94800000000004</v>
       </c>
     </row>
-    <row r="37" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>43</v>
       </c>
@@ -3228,13 +3387,20 @@
         <f>217.634+1.651</f>
         <v>219.285</v>
       </c>
-      <c r="T37" s="4"/>
-      <c r="AB37" s="4">
+      <c r="T37" s="4">
+        <f>221.519+1.527</f>
+        <v>223.04599999999999</v>
+      </c>
+      <c r="U37" s="3">
+        <f>366.946+3.681</f>
+        <v>370.62700000000001</v>
+      </c>
+      <c r="AF37" s="4">
         <f>1.477+209.828</f>
         <v>211.30500000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>37</v>
       </c>
@@ -3273,13 +3439,20 @@
         <f>54.056+163.013</f>
         <v>217.06900000000002</v>
       </c>
-      <c r="T38" s="4"/>
-      <c r="AB38" s="4">
+      <c r="T38" s="4">
+        <f>44.125+214.334</f>
+        <v>258.459</v>
+      </c>
+      <c r="U38" s="3">
+        <f>47.637+207.278</f>
+        <v>254.91499999999999</v>
+      </c>
+      <c r="AF38" s="4">
         <f>54.176+175.216</f>
         <v>229.392</v>
       </c>
     </row>
-    <row r="39" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>46</v>
       </c>
@@ -3312,12 +3485,17 @@
       <c r="S39" s="4">
         <v>9.968</v>
       </c>
-      <c r="T39" s="4"/>
-      <c r="AB39" s="4">
+      <c r="T39" s="4">
+        <v>15.645</v>
+      </c>
+      <c r="U39" s="3">
+        <v>14.494999999999999</v>
+      </c>
+      <c r="AF39" s="4">
         <v>10.702</v>
       </c>
     </row>
-    <row r="40" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>44</v>
       </c>
@@ -3350,12 +3528,17 @@
       <c r="S40" s="4">
         <v>3861.172</v>
       </c>
-      <c r="T40" s="4"/>
-      <c r="AB40" s="4">
+      <c r="T40" s="4">
+        <v>4137.8059999999996</v>
+      </c>
+      <c r="U40" s="3">
+        <v>4591.3620000000001</v>
+      </c>
+      <c r="AF40" s="4">
         <v>3560.9650000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>45</v>
       </c>
@@ -3394,13 +3577,20 @@
         <f>SUM(S34:S40)</f>
         <v>4807.0789999999997</v>
       </c>
-      <c r="T41" s="4"/>
-      <c r="AB41" s="4">
-        <f>SUM(AB34:AB40)</f>
+      <c r="T41" s="4">
+        <f>SUM(T34:T40)</f>
+        <v>5191.8799999999992</v>
+      </c>
+      <c r="U41" s="4">
+        <f>SUM(U34:U40)</f>
+        <v>5768.0969999999998</v>
+      </c>
+      <c r="AF41" s="4">
+        <f>SUM(AF34:AF40)</f>
         <v>4522.4250000000002</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>56</v>
       </c>
@@ -3413,20 +3603,28 @@
         <f>+S18</f>
         <v>105.52999999999997</v>
       </c>
-      <c r="Z43" s="16">
-        <f>+Z18</f>
+      <c r="T43" s="4">
+        <f>+T18</f>
+        <v>134.12599999999995</v>
+      </c>
+      <c r="U43" s="4">
+        <f>+U18</f>
+        <v>143.52499999999998</v>
+      </c>
+      <c r="AD43" s="16">
+        <f>+AD18</f>
         <v>-444.96400000000006</v>
       </c>
-      <c r="AA43" s="16">
-        <f>+AA18</f>
+      <c r="AE43" s="16">
+        <f>+AE18</f>
         <v>-250.18730000000028</v>
       </c>
-      <c r="AB43" s="16">
-        <f>+AB18</f>
+      <c r="AF43" s="16">
+        <f>+AF18</f>
         <v>-172.64291000000003</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>57</v>
       </c>
@@ -3437,17 +3635,25 @@
       <c r="S44" s="4">
         <v>106.071</v>
       </c>
-      <c r="Z44" s="16">
+      <c r="T44" s="4">
+        <f>241.641-S44</f>
+        <v>135.57</v>
+      </c>
+      <c r="U44" s="3">
+        <f>390.982-T44-S44</f>
+        <v>149.34100000000004</v>
+      </c>
+      <c r="AD44" s="16">
         <v>-520.37900000000002</v>
       </c>
-      <c r="AA44" s="16">
+      <c r="AE44" s="16">
         <v>-371.09399999999999</v>
       </c>
-      <c r="AB44" s="16">
+      <c r="AF44" s="16">
         <v>217.375</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>58</v>
       </c>
@@ -3458,17 +3664,25 @@
       <c r="S45" s="4">
         <v>8.4380000000000006</v>
       </c>
-      <c r="Z45" s="16">
+      <c r="T45" s="4">
+        <f>16.494-S45</f>
+        <v>8.0559999999999992</v>
+      </c>
+      <c r="U45" s="3">
+        <f>24.581-T45-S45</f>
+        <v>8.086999999999998</v>
+      </c>
+      <c r="AD45" s="16">
         <v>14.897</v>
       </c>
-      <c r="AA45" s="16">
+      <c r="AE45" s="16">
         <v>22.521999999999998</v>
       </c>
-      <c r="AB45" s="16">
+      <c r="AF45" s="16">
         <v>33.353999999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>59</v>
       </c>
@@ -3479,17 +3693,25 @@
       <c r="S46" s="4">
         <v>125.651</v>
       </c>
-      <c r="Z46" s="16">
+      <c r="T46" s="4">
+        <f>267.415-S46</f>
+        <v>141.76400000000001</v>
+      </c>
+      <c r="U46" s="3">
+        <f>409.84-T46-S46</f>
+        <v>142.42499999999995</v>
+      </c>
+      <c r="AD46" s="16">
         <v>778.21500000000003</v>
       </c>
-      <c r="AA46" s="16">
+      <c r="AE46" s="16">
         <v>564.798</v>
       </c>
-      <c r="AB46" s="16">
+      <c r="AF46" s="16">
         <v>475.90300000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>37</v>
       </c>
@@ -3500,17 +3722,25 @@
       <c r="S47" s="4">
         <v>12.366</v>
       </c>
-      <c r="Z47" s="16">
+      <c r="T47" s="4">
+        <f>22.439-S47</f>
+        <v>10.073</v>
+      </c>
+      <c r="U47" s="3">
+        <f>32.041-T47-S47</f>
+        <v>9.6019999999999968</v>
+      </c>
+      <c r="AD47" s="16">
         <v>33.820999999999998</v>
       </c>
-      <c r="AA47" s="16">
+      <c r="AE47" s="16">
         <v>40.308999999999997</v>
       </c>
-      <c r="AB47" s="16">
+      <c r="AF47" s="16">
         <v>47.018999999999998</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>60</v>
       </c>
@@ -3521,17 +3751,25 @@
       <c r="S48" s="4">
         <v>12.353999999999999</v>
       </c>
-      <c r="Z48" s="16">
+      <c r="T48" s="4">
+        <f>20.042-S48</f>
+        <v>7.6880000000000024</v>
+      </c>
+      <c r="U48" s="3">
+        <f>26.021-T48-S48</f>
+        <v>5.9789999999999992</v>
+      </c>
+      <c r="AD48" s="16">
         <v>73.311000000000007</v>
       </c>
-      <c r="AA48" s="16">
+      <c r="AE48" s="16">
         <v>272.108</v>
       </c>
-      <c r="AB48" s="16">
+      <c r="AF48" s="16">
         <v>13.16</v>
       </c>
     </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>61</v>
       </c>
@@ -3542,17 +3780,25 @@
       <c r="S49" s="4">
         <v>-11.907</v>
       </c>
-      <c r="Z49" s="16">
+      <c r="T49" s="4">
+        <f>-26.484-S49</f>
+        <v>-14.577000000000002</v>
+      </c>
+      <c r="U49" s="3">
+        <f>-34.789-T49-S49</f>
+        <v>-8.3049999999999997</v>
+      </c>
+      <c r="AD49" s="16">
         <v>0</v>
       </c>
-      <c r="AA49" s="16">
+      <c r="AE49" s="16">
         <v>-15.537000000000001</v>
       </c>
-      <c r="AB49" s="16">
+      <c r="AF49" s="16">
         <v>-46.609000000000002</v>
       </c>
     </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>38</v>
       </c>
@@ -3563,20 +3809,28 @@
       <c r="S50" s="4">
         <v>-6.774</v>
       </c>
-      <c r="Z50" s="16">
+      <c r="T50" s="4">
+        <f>-11.088-S50</f>
+        <v>-4.3139999999999992</v>
+      </c>
+      <c r="U50" s="3">
+        <f>19.115-T50-S50</f>
+        <v>30.202999999999999</v>
+      </c>
+      <c r="AD50" s="16">
         <f>2.767+43.316</f>
         <v>46.083000000000006</v>
       </c>
-      <c r="AA50" s="16">
+      <c r="AE50" s="16">
         <f>16.328-44.306-0.174</f>
         <v>-28.151999999999997</v>
       </c>
-      <c r="AB50" s="16">
+      <c r="AF50" s="16">
         <f>-4.806-29.449</f>
         <v>-34.255000000000003</v>
       </c>
     </row>
-    <row r="51" spans="2:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>62</v>
       </c>
@@ -3607,21 +3861,28 @@
         <f>-121.884+19.399+3.525+23.809-19.105-14.802+7.953-15.482-0.033</f>
         <v>-116.61999999999999</v>
       </c>
-      <c r="T51" s="4"/>
-      <c r="Z51" s="16">
+      <c r="T51" s="4">
+        <f>-298.311-2.774+5.571+53.372-30.548+21.463+11.806-23.778+6.506-S51</f>
+        <v>-140.07299999999998</v>
+      </c>
+      <c r="U51" s="3">
+        <f>-311.699-19.547+4.056+7.71+42.149-27.117+159.457-35.205+5.943-T51-S51</f>
+        <v>82.439999999999898</v>
+      </c>
+      <c r="AD51" s="16">
         <f>-35.237-10.974-3.345+57.767+15.245+24.732-104.944-32.156-3.185</f>
         <v>-92.097000000000008</v>
       </c>
-      <c r="AA51" s="16">
+      <c r="AE51" s="16">
         <f>-72.819-24.811+6.033-29.859+5.527-61.154-49.471-34.59-0.073</f>
         <v>-261.21699999999998</v>
       </c>
-      <c r="AB51" s="16">
+      <c r="AF51" s="16">
         <f>-106.159-6.197+3.242-31.832+52.895+79.512+64.347-49.63+0.058</f>
         <v>6.2360000000000042</v>
       </c>
     </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>47</v>
       </c>
@@ -3634,23 +3895,31 @@
         <f>SUM(S44:S51)</f>
         <v>129.57900000000001</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="T52" s="4">
+        <f>SUM(T44:T51)</f>
+        <v>144.18699999999995</v>
+      </c>
+      <c r="U52" s="4">
+        <f>SUM(U44:U51)</f>
+        <v>419.77199999999976</v>
+      </c>
+      <c r="AC52" s="3">
         <v>-296608</v>
       </c>
-      <c r="Z52" s="16">
-        <f>SUM(Z44:Z51)</f>
+      <c r="AD52" s="16">
+        <f>SUM(AD44:AD51)</f>
         <v>333.851</v>
       </c>
-      <c r="AA52" s="16">
-        <f>SUM(AA44:AA51)</f>
+      <c r="AE52" s="16">
+        <f>SUM(AE44:AE51)</f>
         <v>223.73700000000002</v>
       </c>
-      <c r="AB52" s="16">
-        <f>SUM(AB44:AB51)</f>
+      <c r="AF52" s="16">
+        <f>SUM(AF44:AF51)</f>
         <v>712.18299999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>36</v>
       </c>
@@ -3661,8 +3930,16 @@
       <c r="S54" s="4">
         <v>-2.6640000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="T54" s="4">
+        <f>-5.543-S54</f>
+        <v>-2.879</v>
+      </c>
+      <c r="U54" s="3">
+        <f>-9.528-T54-S54</f>
+        <v>-3.9850000000000008</v>
+      </c>
+    </row>
+    <row r="55" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>64</v>
       </c>
@@ -3675,8 +3952,16 @@
         <f>-1260.327+751.746</f>
         <v>-508.58100000000002</v>
       </c>
-    </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="T55" s="4">
+        <f>-1784.115+1133.535-4-S55</f>
+        <v>-145.99899999999991</v>
+      </c>
+      <c r="U55" s="3">
+        <f>-3418.699+2451.378-4-T55-S55</f>
+        <v>-316.74099999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>63</v>
       </c>
@@ -3689,8 +3974,16 @@
         <f>SUM(S54:S55)</f>
         <v>-511.245</v>
       </c>
-    </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="T56" s="4">
+        <f>SUM(T54:T55)</f>
+        <v>-148.8779999999999</v>
+      </c>
+      <c r="U56" s="4">
+        <f>SUM(U54:U55)</f>
+        <v>-320.726</v>
+      </c>
+    </row>
+    <row r="58" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>68</v>
       </c>
@@ -3701,8 +3994,16 @@
       <c r="S58" s="4">
         <v>83.84</v>
       </c>
-    </row>
-    <row r="59" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="T58" s="4">
+        <f>99.87-S58</f>
+        <v>16.03</v>
+      </c>
+      <c r="U58" s="3">
+        <f>270.207-T58-S58</f>
+        <v>170.33699999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>69</v>
       </c>
@@ -3713,8 +4014,16 @@
       <c r="S59" s="4">
         <v>-9</v>
       </c>
-    </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="T59" s="4">
+        <f>-26.699-S59</f>
+        <v>-17.699000000000002</v>
+      </c>
+      <c r="U59" s="3">
+        <f>-45.598-T59-S59</f>
+        <v>-18.898999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>38</v>
       </c>
@@ -3725,8 +4034,16 @@
       <c r="S60" s="4">
         <v>0.40799999999999997</v>
       </c>
-    </row>
-    <row r="61" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="T60" s="4">
+        <f>0.102-S60</f>
+        <v>-0.30599999999999999</v>
+      </c>
+      <c r="U60" s="3">
+        <f>0.091-T60-S60</f>
+        <v>-1.0999999999999954E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>67</v>
       </c>
@@ -3739,8 +4056,16 @@
         <f>SUM(S58:S60)</f>
         <v>75.248000000000005</v>
       </c>
-    </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="T61" s="4">
+        <f>SUM(T58:T60)</f>
+        <v>-1.9750000000000005</v>
+      </c>
+      <c r="U61" s="4">
+        <f>SUM(U58:U60)</f>
+        <v>151.42699999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4076,16 @@
       <c r="S62" s="4">
         <v>-4.024</v>
       </c>
-    </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="T62" s="4">
+        <f>-4.948-S62</f>
+        <v>-0.92400000000000038</v>
+      </c>
+      <c r="U62" s="3">
+        <f>0.96-T62-S62</f>
+        <v>5.9080000000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>65</v>
       </c>
@@ -3765,8 +4098,16 @@
         <f>+S62+S61+S56+S52</f>
         <v>-310.44200000000001</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="T63" s="4">
+        <f t="shared" ref="T63:U63" si="88">+T62+T61+T56+T52</f>
+        <v>-7.5899999999999466</v>
+      </c>
+      <c r="U63" s="4">
+        <f t="shared" si="88"/>
+        <v>256.38099999999974</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>84</v>
       </c>
@@ -3776,56 +4117,56 @@
       <c r="R66" s="2">
         <v>497</v>
       </c>
-      <c r="AA66">
+      <c r="AE66">
         <f>+N66</f>
         <v>367</v>
       </c>
-      <c r="AB66">
+      <c r="AF66">
         <f>+R66</f>
         <v>497</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>85</v>
       </c>
       <c r="R67" s="8">
         <v>0.62</v>
       </c>
-      <c r="AB67" s="8">
+      <c r="AF67" s="8">
         <v>0.62</v>
       </c>
     </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>86</v>
       </c>
       <c r="R68" s="8">
         <v>0.38</v>
       </c>
-      <c r="AB68" s="8">
+      <c r="AF68" s="8">
         <v>0.38</v>
       </c>
     </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>87</v>
       </c>
       <c r="R69" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AB69" s="8">
+      <c r="AF69" s="8">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>88</v>
       </c>
       <c r="R70" s="8">
         <v>0.45</v>
       </c>
-      <c r="AB70" s="8">
+      <c r="AF70" s="8">
         <v>0.45</v>
       </c>
     </row>
@@ -3836,6 +4177,5 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/PLTR.xlsx
+++ b/PLTR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A8270A-2EE3-4D32-8B1B-DA54C8A87AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25D219C-4DF6-441C-AD7F-7644B09A8B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26535" yWindow="1830" windowWidth="25215" windowHeight="16575" xr2:uid="{AE04E6E4-A652-4DFB-A34B-BE287D9B2752}"/>
+    <workbookView xWindow="-27195" yWindow="1725" windowWidth="21570" windowHeight="17925" activeTab="1" xr2:uid="{AE04E6E4-A652-4DFB-A34B-BE287D9B2752}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -330,7 +330,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -354,6 +354,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -385,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -419,6 +426,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -443,15 +461,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19503</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>26307</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19503</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>26307</xdr:colOff>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -467,7 +485,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12980307" y="0"/>
+          <a:off x="13579021" y="0"/>
           <a:ext cx="0" cy="11375571"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -542,10 +560,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -847,7 +861,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144E9D3E-317D-4992-A1EC-7C2CA7695A60}">
   <dimension ref="B2:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -859,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>80.84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -870,11 +886,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <f>2142.323448+96.125336+1.005</f>
-        <v>2239.4537840000003</v>
+        <v>2528</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -883,7 +898,7 @@
       </c>
       <c r="L4" s="3">
         <f>L3*L2</f>
-        <v>181037.44389856004</v>
+        <v>257856</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -891,11 +906,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="3">
-        <f>512.659+3485.8</f>
-        <v>3998.4590000000003</v>
+        <v>5230</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -915,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -933,7 +947,7 @@
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>177038.98489856004</v>
+        <v>252626</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -968,13 +982,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CE0236-0D83-41C7-BB37-83829D679D7F}">
-  <dimension ref="A1:AM70"/>
+  <dimension ref="A1:AM73"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U61" sqref="U61"/>
+      <selection pane="bottomRight" activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1264,7 +1278,22 @@
         <v>725.51599999999996</v>
       </c>
       <c r="V7" s="5">
-        <v>790</v>
+        <v>827.51900000000001</v>
+      </c>
+      <c r="W7" s="5">
+        <v>870</v>
+      </c>
+      <c r="X7" s="5">
+        <f>+T7*1.35</f>
+        <v>915.48090000000013</v>
+      </c>
+      <c r="Y7" s="5">
+        <f>+U7*1.35</f>
+        <v>979.44659999999999</v>
+      </c>
+      <c r="Z7" s="5">
+        <f>+V7*1.35</f>
+        <v>1117.15065</v>
       </c>
       <c r="AC7" s="5">
         <v>1092.673</v>
@@ -1282,23 +1311,23 @@
       </c>
       <c r="AG7" s="5">
         <f>SUM(S7:V7)</f>
-        <v>2827.9879999999998</v>
+        <v>2865.5069999999996</v>
       </c>
       <c r="AH7" s="5">
-        <f t="shared" ref="AH7" si="1">AG7*1.2</f>
-        <v>3393.5855999999999</v>
+        <f>SUM(W7:Z7)</f>
+        <v>3882.0781499999998</v>
       </c>
       <c r="AI7" s="5">
-        <f t="shared" ref="AI7" si="2">AH7*1.2</f>
-        <v>4072.3027199999997</v>
+        <f t="shared" ref="AI7" si="1">AH7*1.2</f>
+        <v>4658.4937799999998</v>
       </c>
       <c r="AJ7" s="5">
-        <f t="shared" ref="AJ7:AK7" si="3">AI7*1.2</f>
-        <v>4886.7632639999993</v>
+        <f t="shared" ref="AJ7:AK7" si="2">AI7*1.2</f>
+        <v>5590.1925359999996</v>
       </c>
       <c r="AK7" s="5">
-        <f t="shared" si="3"/>
-        <v>5864.1159167999986</v>
+        <f t="shared" si="2"/>
+        <v>6708.2310431999995</v>
       </c>
     </row>
     <row r="8" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1334,7 +1363,7 @@
         <v>102.224</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" ref="M8" si="4">M7-M9</f>
+        <f t="shared" ref="M8" si="3">M7-M9</f>
         <v>95.575999999999965</v>
       </c>
       <c r="N8" s="4">
@@ -1360,6 +1389,9 @@
       </c>
       <c r="U8" s="3">
         <v>146.63900000000001</v>
+      </c>
+      <c r="V8" s="3">
+        <v>174.53299999999999</v>
       </c>
       <c r="AC8" s="3">
         <v>352.54700000000003</v>
@@ -1372,28 +1404,28 @@
         <v>381.17419999999993</v>
       </c>
       <c r="AF8" s="3">
-        <f t="shared" ref="AF8:AH8" si="5">AF7-AF9</f>
+        <f t="shared" ref="AF8:AH8" si="4">AF7-AF9</f>
         <v>444.93239999999992</v>
       </c>
       <c r="AG8" s="3">
-        <f t="shared" si="5"/>
-        <v>565.59760000000006</v>
+        <f t="shared" si="4"/>
+        <v>573.10140000000001</v>
       </c>
       <c r="AH8" s="3">
-        <f t="shared" si="5"/>
-        <v>678.7171199999998</v>
+        <f t="shared" si="4"/>
+        <v>776.41562999999996</v>
       </c>
       <c r="AI8" s="3">
-        <f t="shared" ref="AI8" si="6">AI7-AI9</f>
-        <v>814.46054399999957</v>
+        <f t="shared" ref="AI8" si="5">AI7-AI9</f>
+        <v>931.69875599999978</v>
       </c>
       <c r="AJ8" s="3">
-        <f t="shared" ref="AJ8" si="7">AJ7-AJ9</f>
-        <v>977.35265279999976</v>
+        <f t="shared" ref="AJ8" si="6">AJ7-AJ9</f>
+        <v>1118.0385071999999</v>
       </c>
       <c r="AK8" s="3">
-        <f t="shared" ref="AK8" si="8">AK7-AK9</f>
-        <v>1172.8231833599993</v>
+        <f t="shared" ref="AK8" si="7">AK7-AK9</f>
+        <v>1341.6462086399997</v>
       </c>
     </row>
     <row r="9" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1402,35 +1434,35 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4">
-        <f t="shared" ref="D9:K9" si="9">D7-D8</f>
+        <f t="shared" ref="D9:K9" si="8">D7-D8</f>
         <v>183.47900000000001</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>140.02599999999998</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>251.58800000000002</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>267.12299999999999</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>284.71600000000001</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>305.34199999999998</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>345.30400000000003</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>351.95400000000001</v>
       </c>
       <c r="L9" s="4">
@@ -1438,31 +1470,31 @@
         <v>370.786</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" ref="M9" si="10">M7*0.8</f>
+        <f t="shared" ref="M9" si="9">M7*0.8</f>
         <v>382.30400000000003</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" ref="N9:S9" si="11">+N7-N8</f>
+        <f t="shared" ref="N9:S9" si="10">+N7-N8</f>
         <v>404.31299999999999</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>417.54100000000005</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>426.41800000000001</v>
       </c>
       <c r="Q9" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>450.23699999999997</v>
       </c>
       <c r="R9" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>499.36099999999999</v>
       </c>
       <c r="S9" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>518.08199999999999</v>
       </c>
       <c r="T9" s="3">
@@ -1473,6 +1505,10 @@
         <f>+U7-U8</f>
         <v>578.87699999999995</v>
       </c>
+      <c r="V9" s="3">
+        <f>+V7-V8</f>
+        <v>652.98599999999999</v>
+      </c>
       <c r="AC9" s="3">
         <f>AC7-AC8</f>
         <v>740.12599999999998</v>
@@ -1486,28 +1522,28 @@
         <v>1524.6967999999999</v>
       </c>
       <c r="AF9" s="3">
-        <f t="shared" ref="AF9:AH9" si="12">AF7*0.8</f>
+        <f t="shared" ref="AF9:AH9" si="11">AF7*0.8</f>
         <v>1779.7296000000003</v>
       </c>
       <c r="AG9" s="3">
-        <f t="shared" si="12"/>
-        <v>2262.3903999999998</v>
+        <f t="shared" si="11"/>
+        <v>2292.4055999999996</v>
       </c>
       <c r="AH9" s="3">
-        <f t="shared" si="12"/>
-        <v>2714.8684800000001</v>
+        <f t="shared" si="11"/>
+        <v>3105.6625199999999</v>
       </c>
       <c r="AI9" s="3">
-        <f t="shared" ref="AI9" si="13">AI7*0.8</f>
-        <v>3257.8421760000001</v>
+        <f t="shared" ref="AI9" si="12">AI7*0.8</f>
+        <v>3726.795024</v>
       </c>
       <c r="AJ9" s="3">
-        <f t="shared" ref="AJ9:AK9" si="14">AJ7*0.8</f>
-        <v>3909.4106111999995</v>
+        <f t="shared" ref="AJ9:AK9" si="13">AJ7*0.8</f>
+        <v>4472.1540287999997</v>
       </c>
       <c r="AK9" s="3">
-        <f t="shared" si="14"/>
-        <v>4691.2927334399992</v>
+        <f t="shared" si="13"/>
+        <v>5366.5848345599998</v>
       </c>
     </row>
     <row r="10" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1543,7 +1579,7 @@
         <v>168.875</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" ref="M10" si="15">L10+1</f>
+        <f t="shared" ref="M10" si="14">L10+1</f>
         <v>169.875</v>
       </c>
       <c r="N10" s="4">
@@ -1569,6 +1605,9 @@
       </c>
       <c r="U10" s="3">
         <v>209.47399999999999</v>
+      </c>
+      <c r="V10" s="3">
+        <v>288.29500000000002</v>
       </c>
       <c r="AC10" s="3">
         <v>683.70100000000002</v>
@@ -1581,27 +1620,27 @@
         <v>675.96320000000003</v>
       </c>
       <c r="AF10" s="3">
-        <f t="shared" ref="AF10:AH10" si="16">AE10*1.1</f>
+        <f t="shared" ref="AF10:AH10" si="15">AE10*1.1</f>
         <v>743.55952000000013</v>
       </c>
       <c r="AG10" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>817.91547200000025</v>
       </c>
       <c r="AH10" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>899.70701920000033</v>
       </c>
       <c r="AI10" s="3">
-        <f t="shared" ref="AI10" si="17">AH10*1.1</f>
+        <f t="shared" ref="AI10" si="16">AH10*1.1</f>
         <v>989.67772112000046</v>
       </c>
       <c r="AJ10" s="3">
-        <f t="shared" ref="AJ10:AK10" si="18">AI10*1.1</f>
+        <f t="shared" ref="AJ10:AK10" si="17">AI10*1.1</f>
         <v>1088.6454932320005</v>
       </c>
       <c r="AK10" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1197.5100425552007</v>
       </c>
     </row>
@@ -1638,7 +1677,7 @@
         <v>88.171000000000006</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" ref="M11" si="19">L11+1</f>
+        <f t="shared" ref="M11" si="18">L11+1</f>
         <v>89.171000000000006</v>
       </c>
       <c r="N11" s="4">
@@ -1665,6 +1704,9 @@
       <c r="U11" s="3">
         <v>117.55500000000001</v>
       </c>
+      <c r="V11" s="3">
+        <v>171.50200000000001</v>
+      </c>
       <c r="AC11" s="3">
         <v>560.66</v>
       </c>
@@ -1672,31 +1714,31 @@
         <v>387.48700000000002</v>
       </c>
       <c r="AE11" s="3">
-        <f t="shared" ref="AE11:AH11" si="20">AD11*1.1</f>
+        <f t="shared" ref="AE11:AH11" si="19">AD11*1.1</f>
         <v>426.23570000000007</v>
       </c>
       <c r="AF11" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>468.85927000000009</v>
       </c>
       <c r="AG11" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>515.74519700000019</v>
       </c>
       <c r="AH11" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>567.3197167000003</v>
       </c>
       <c r="AI11" s="3">
-        <f t="shared" ref="AI11" si="21">AH11*1.1</f>
+        <f t="shared" ref="AI11" si="20">AH11*1.1</f>
         <v>624.05168837000042</v>
       </c>
       <c r="AJ11" s="3">
-        <f t="shared" ref="AJ11:AK11" si="22">AI11*1.1</f>
+        <f t="shared" ref="AJ11:AK11" si="21">AI11*1.1</f>
         <v>686.45685720700055</v>
       </c>
       <c r="AK11" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>755.10254292770071</v>
       </c>
     </row>
@@ -1733,7 +1775,7 @@
         <v>155.48500000000001</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" ref="M12" si="23">L12+1</f>
+        <f t="shared" ref="M12" si="22">L12+1</f>
         <v>156.48500000000001</v>
       </c>
       <c r="N12" s="4">
@@ -1760,6 +1802,9 @@
       <c r="U12" s="3">
         <v>138.708</v>
       </c>
+      <c r="V12" s="3">
+        <v>182.14599999999999</v>
+      </c>
       <c r="AC12" s="3">
         <v>669.44399999999996</v>
       </c>
@@ -1767,31 +1812,31 @@
         <v>611.53200000000004</v>
       </c>
       <c r="AE12" s="3">
-        <f t="shared" ref="AE12:AH12" si="24">AD12*1.1</f>
+        <f t="shared" ref="AE12:AH12" si="23">AD12*1.1</f>
         <v>672.68520000000012</v>
       </c>
       <c r="AF12" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>739.9537200000002</v>
       </c>
       <c r="AG12" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>813.94909200000029</v>
       </c>
       <c r="AH12" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>895.34400120000043</v>
       </c>
       <c r="AI12" s="3">
-        <f t="shared" ref="AI12" si="25">AH12*1.1</f>
+        <f t="shared" ref="AI12" si="24">AH12*1.1</f>
         <v>984.87840132000053</v>
       </c>
       <c r="AJ12" s="3">
-        <f t="shared" ref="AJ12:AK12" si="26">AI12*1.1</f>
+        <f t="shared" ref="AJ12:AK12" si="25">AI12*1.1</f>
         <v>1083.3662414520006</v>
       </c>
       <c r="AK12" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1191.7028655972008</v>
       </c>
     </row>
@@ -1801,76 +1846,84 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4">
-        <f t="shared" ref="D13:L13" si="27">SUM(D10:D12)</f>
+        <f t="shared" ref="D13:L13" si="26">SUM(D10:D12)</f>
         <v>282.62400000000002</v>
       </c>
       <c r="E13" s="4">
+        <f t="shared" si="26"/>
+        <v>987.803</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="26"/>
+        <v>408.15999999999997</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="26"/>
+        <v>381.137</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="26"/>
+        <v>430.86400000000003</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="26"/>
+        <v>397.28300000000002</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="26"/>
+        <v>404.24700000000001</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="26"/>
+        <v>391.39300000000003</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="26"/>
+        <v>412.53100000000001</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" ref="M13:N13" si="27">SUM(M10:M12)</f>
+        <v>415.53100000000001</v>
+      </c>
+      <c r="N13" s="4">
         <f t="shared" si="27"/>
-        <v>987.803</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="27"/>
-        <v>408.15999999999997</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="27"/>
-        <v>381.137</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="27"/>
-        <v>430.86400000000003</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="27"/>
-        <v>397.28300000000002</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="27"/>
-        <v>404.24700000000001</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="27"/>
-        <v>391.39300000000003</v>
-      </c>
-      <c r="L13" s="4">
-        <f t="shared" si="27"/>
-        <v>412.53100000000001</v>
-      </c>
-      <c r="M13" s="4">
-        <f t="shared" ref="M13:N13" si="28">SUM(M10:M12)</f>
-        <v>415.53100000000001</v>
-      </c>
-      <c r="N13" s="4">
+        <v>422.13900000000001</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" ref="O13:W13" si="28">+O10+O11+O12</f>
+        <v>413.42599999999999</v>
+      </c>
+      <c r="P13" s="4">
         <f t="shared" si="28"/>
-        <v>422.13900000000001</v>
-      </c>
-      <c r="O13" s="4">
-        <f>+O10+O11+O12</f>
-        <v>413.42599999999999</v>
-      </c>
-      <c r="P13" s="4">
-        <f>+P10+P11+P12</f>
         <v>416.34400000000005</v>
       </c>
       <c r="Q13" s="4">
-        <f>+Q10+Q11+Q12</f>
+        <f t="shared" si="28"/>
         <v>410.25400000000002</v>
       </c>
       <c r="R13" s="4">
-        <f>+R10+R11+R12</f>
+        <f t="shared" si="28"/>
         <v>433.91700000000003</v>
       </c>
       <c r="S13" s="4">
-        <f>+S10+S11+S12</f>
+        <f t="shared" si="28"/>
         <v>437.20100000000002</v>
       </c>
       <c r="T13" s="4">
-        <f>+T10+T11+T12</f>
+        <f t="shared" si="28"/>
         <v>444.23300000000006</v>
       </c>
       <c r="U13" s="4">
-        <f>+U10+U11+U12</f>
+        <f t="shared" si="28"/>
         <v>465.73699999999997</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="28"/>
+        <v>641.94299999999998</v>
+      </c>
+      <c r="W13" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="AC13" s="3">
         <f>SUM(AC10:AC12)</f>
@@ -1959,68 +2012,76 @@
         <v>-17.826000000000022</v>
       </c>
       <c r="O14" s="4">
-        <f>+O9-O13</f>
+        <f t="shared" ref="O14:W14" si="39">+O9-O13</f>
         <v>4.1150000000000659</v>
       </c>
       <c r="P14" s="4">
-        <f>+P9-P13</f>
+        <f t="shared" si="39"/>
         <v>10.073999999999955</v>
       </c>
       <c r="Q14" s="4">
-        <f>+Q9-Q13</f>
+        <f t="shared" si="39"/>
         <v>39.982999999999947</v>
       </c>
       <c r="R14" s="4">
-        <f>+R9-R13</f>
+        <f t="shared" si="39"/>
         <v>65.44399999999996</v>
       </c>
       <c r="S14" s="4">
-        <f>+S9-S13</f>
+        <f t="shared" si="39"/>
         <v>80.880999999999972</v>
       </c>
       <c r="T14" s="4">
-        <f>+T9-T13</f>
+        <f t="shared" si="39"/>
         <v>105.33899999999994</v>
       </c>
       <c r="U14" s="4">
-        <f>+U9-U13</f>
+        <f t="shared" si="39"/>
         <v>113.13999999999999</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" si="39"/>
+        <v>11.043000000000006</v>
+      </c>
+      <c r="W14" s="4">
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="AC14" s="3">
         <f>AC9-AC13</f>
         <v>-1173.6789999999999</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" ref="AD14" si="39">AD9-AD13</f>
+        <f t="shared" ref="AD14" si="40">AD9-AD13</f>
         <v>-411.04600000000005</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" ref="AE14" si="40">AE9-AE13</f>
+        <f t="shared" ref="AE14" si="41">AE9-AE13</f>
         <v>-250.18730000000028</v>
       </c>
       <c r="AF14" s="3">
-        <f t="shared" ref="AF14" si="41">AF9-AF13</f>
+        <f t="shared" ref="AF14" si="42">AF9-AF13</f>
         <v>-172.64291000000003</v>
       </c>
       <c r="AG14" s="3">
-        <f t="shared" ref="AG14" si="42">AG9-AG13</f>
-        <v>114.78063899999916</v>
+        <f t="shared" ref="AG14" si="43">AG9-AG13</f>
+        <v>144.79583899999898</v>
       </c>
       <c r="AH14" s="3">
-        <f t="shared" ref="AH14" si="43">AH9-AH13</f>
-        <v>352.49774289999914</v>
+        <f t="shared" ref="AH14" si="44">AH9-AH13</f>
+        <v>743.29178289999891</v>
       </c>
       <c r="AI14" s="3">
-        <f t="shared" ref="AI14" si="44">AI9-AI13</f>
-        <v>659.2343651899987</v>
+        <f t="shared" ref="AI14" si="45">AI9-AI13</f>
+        <v>1128.1872131899986</v>
       </c>
       <c r="AJ14" s="3">
-        <f t="shared" ref="AJ14" si="45">AJ9-AJ13</f>
-        <v>1050.9420193089977</v>
+        <f t="shared" ref="AJ14" si="46">AJ9-AJ13</f>
+        <v>1613.6854369089979</v>
       </c>
       <c r="AK14" s="3">
-        <f t="shared" ref="AK14" si="46">AK9-AK13</f>
-        <v>1546.9772823598969</v>
+        <f t="shared" ref="AK14" si="47">AK9-AK13</f>
+        <v>2222.2693834798974</v>
       </c>
     </row>
     <row r="15" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2099,6 +2160,9 @@
         <f>52.12-8.11</f>
         <v>44.01</v>
       </c>
+      <c r="V15" s="3">
+        <v>54.726999999999997</v>
+      </c>
       <c r="AC15" s="3">
         <f>4.68-14.139</f>
         <v>-9.4589999999999996</v>
@@ -2135,112 +2199,120 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4">
-        <f t="shared" ref="D16:L16" si="47">D14-D15</f>
+        <f t="shared" ref="D16:L16" si="48">D14-D15</f>
         <v>-94.050000000000011</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-846.18600000000004</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-155.12599999999995</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-112.55000000000001</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-145.93000000000004</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-91.711000000000027</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-58.821999999999981</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-39.392000000000024</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-42.547000000000004</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" ref="M16" si="48">M14-M15</f>
+        <f t="shared" ref="M16" si="49">M14-M15</f>
         <v>-33.226999999999975</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" ref="N16:U16" si="49">+N14+N15</f>
+        <f t="shared" ref="N16:W16" si="50">+N14+N15</f>
         <v>37.848999999999975</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>20.832000000000068</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>30.042999999999957</v>
       </c>
       <c r="Q16" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>79.968999999999937</v>
       </c>
       <c r="R16" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>105.89699999999996</v>
       </c>
       <c r="S16" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>110.72599999999997</v>
       </c>
       <c r="T16" s="4">
-        <f t="shared" ref="T16" si="50">+T14+T15</f>
+        <f t="shared" ref="T16" si="51">+T14+T15</f>
         <v>140.75899999999996</v>
       </c>
       <c r="U16" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>157.14999999999998</v>
       </c>
+      <c r="V16" s="4">
+        <f t="shared" si="50"/>
+        <v>65.77000000000001</v>
+      </c>
+      <c r="W16" s="4">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="AC16" s="3">
-        <f t="shared" ref="AC16:AH16" si="51">AC14+AC15</f>
+        <f t="shared" ref="AC16:AH16" si="52">AC14+AC15</f>
         <v>-1183.1379999999999</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>-413.07900000000006</v>
       </c>
       <c r="AE16" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>-250.18730000000028</v>
       </c>
       <c r="AF16" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>-172.64291000000003</v>
       </c>
       <c r="AG16" s="3">
-        <f t="shared" si="51"/>
-        <v>114.78063899999916</v>
+        <f t="shared" si="52"/>
+        <v>144.79583899999898</v>
       </c>
       <c r="AH16" s="3">
-        <f t="shared" si="51"/>
-        <v>352.49774289999914</v>
+        <f t="shared" si="52"/>
+        <v>743.29178289999891</v>
       </c>
       <c r="AI16" s="3">
-        <f t="shared" ref="AI16" si="52">AI14+AI15</f>
-        <v>659.2343651899987</v>
+        <f t="shared" ref="AI16" si="53">AI14+AI15</f>
+        <v>1128.1872131899986</v>
       </c>
       <c r="AJ16" s="3">
-        <f t="shared" ref="AJ16" si="53">AJ14+AJ15</f>
-        <v>1050.9420193089977</v>
+        <f t="shared" ref="AJ16" si="54">AJ14+AJ15</f>
+        <v>1613.6854369089979</v>
       </c>
       <c r="AK16" s="3">
-        <f t="shared" ref="AK16" si="54">AK14+AK15</f>
-        <v>1546.9772823598969</v>
+        <f t="shared" ref="AK16" si="55">AK14+AK15</f>
+        <v>2222.2693834798974</v>
       </c>
     </row>
     <row r="17" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2311,6 +2383,9 @@
         <f>7.809+5.816</f>
         <v>13.625</v>
       </c>
+      <c r="V17" s="3">
+        <v>3.6019999999999999</v>
+      </c>
       <c r="AC17" s="3">
         <v>-12.635999999999999</v>
       </c>
@@ -2328,19 +2403,19 @@
       </c>
       <c r="AH17" s="3">
         <f>AH16*0.1</f>
-        <v>35.249774289999912</v>
+        <v>74.329178289999888</v>
       </c>
       <c r="AI17" s="3">
-        <f t="shared" ref="AI17" si="55">AI16*0.1</f>
-        <v>65.923436518999878</v>
+        <f t="shared" ref="AI17" si="56">AI16*0.1</f>
+        <v>112.81872131899986</v>
       </c>
       <c r="AJ17" s="3">
-        <f t="shared" ref="AJ17" si="56">AJ16*0.1</f>
-        <v>105.09420193089977</v>
+        <f t="shared" ref="AJ17" si="57">AJ16*0.1</f>
+        <v>161.3685436908998</v>
       </c>
       <c r="AK17" s="3">
-        <f t="shared" ref="AK17" si="57">AK16*0.1</f>
-        <v>154.6977282359897</v>
+        <f t="shared" ref="AK17" si="58">AK16*0.1</f>
+        <v>222.22693834798974</v>
       </c>
     </row>
     <row r="18" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2349,47 +2424,47 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4">
-        <f t="shared" ref="D18:L18" si="58">D16-D17</f>
+        <f t="shared" ref="D18:L18" si="59">D16-D17</f>
         <v>-94.993000000000009</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-837.64300000000003</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-147.53299999999996</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-115.65200000000002</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-140.26900000000003</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-93.149000000000029</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-91.827999999999975</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-41.415000000000028</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-45.135000000000005</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" ref="M18:N18" si="59">M16-M17</f>
+        <f t="shared" ref="M18:N18" si="60">M16-M17</f>
         <v>-33.226999999999975</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>30.877999999999975</v>
       </c>
       <c r="O18" s="4">
@@ -2413,12 +2488,20 @@
         <v>105.52999999999997</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" ref="T18:U18" si="60">+T16-T17</f>
+        <f t="shared" ref="T18:W18" si="61">+T16-T17</f>
         <v>134.12599999999995</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>143.52499999999998</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="61"/>
+        <v>62.168000000000013</v>
+      </c>
+      <c r="W18" s="4">
+        <f t="shared" si="61"/>
+        <v>0</v>
       </c>
       <c r="AC18" s="3">
         <f>AC16-AC17</f>
@@ -2429,32 +2512,32 @@
         <v>-444.96400000000006</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" ref="AE18:AH18" si="61">AE16-AE17</f>
+        <f t="shared" ref="AE18:AH18" si="62">AE16-AE17</f>
         <v>-250.18730000000028</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>-172.64291000000003</v>
       </c>
       <c r="AG18" s="3">
-        <f t="shared" si="61"/>
-        <v>114.78063899999916</v>
+        <f t="shared" si="62"/>
+        <v>144.79583899999898</v>
       </c>
       <c r="AH18" s="3">
-        <f t="shared" si="61"/>
-        <v>317.24796860999925</v>
+        <f t="shared" si="62"/>
+        <v>668.96260460999906</v>
       </c>
       <c r="AI18" s="3">
-        <f t="shared" ref="AI18" si="62">AI16-AI17</f>
-        <v>593.31092867099881</v>
+        <f t="shared" ref="AI18" si="63">AI16-AI17</f>
+        <v>1015.3684918709987</v>
       </c>
       <c r="AJ18" s="3">
-        <f t="shared" ref="AJ18" si="63">AJ16-AJ17</f>
-        <v>945.84781737809794</v>
+        <f t="shared" ref="AJ18" si="64">AJ16-AJ17</f>
+        <v>1452.3168932180981</v>
       </c>
       <c r="AK18" s="3">
-        <f t="shared" ref="AK18" si="64">AK16-AK17</f>
-        <v>1392.2795541239072</v>
+        <f t="shared" ref="AK18" si="65">AK16-AK17</f>
+        <v>2000.0424451319077</v>
       </c>
     </row>
     <row r="19" spans="2:37" x14ac:dyDescent="0.2">
@@ -2462,47 +2545,47 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" ref="D19:L19" si="65">D18/D20</f>
+        <f t="shared" ref="D19:L19" si="66">D18/D20</f>
         <v>-0.14827157237200492</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-0.92510011463761044</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-8.3658536308756248E-2</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-6.3504649239659608E-2</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-7.4035973706406522E-2</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-4.7418670888492401E-2</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-4.5645513091992884E-2</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-2.0338288872945007E-2</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-2.1965652114878394E-2</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" ref="M19:N19" si="66">M18/M20</f>
+        <f t="shared" ref="M19:N19" si="67">M18/M20</f>
         <v>-1.6170438081778302E-2</v>
       </c>
       <c r="N19" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>1.4011679273305783E-2</v>
       </c>
       <c r="O19" s="7">
@@ -2526,13 +2609,18 @@
         <v>4.3968873054409649E-2</v>
       </c>
       <c r="T19" s="7">
-        <f t="shared" ref="T19:U19" si="67">+T18/T20</f>
+        <f t="shared" ref="T19:V19" si="68">+T18/T20</f>
         <v>5.5545708445286675E-2</v>
       </c>
       <c r="U19" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>5.8353245196656835E-2</v>
       </c>
+      <c r="V19" s="7">
+        <f t="shared" si="68"/>
+        <v>2.4589058406924241E-2</v>
+      </c>
+      <c r="W19" s="7"/>
       <c r="AC19" s="1">
         <f>AC18/AC20</f>
         <v>-1.1952069271849119</v>
@@ -2542,32 +2630,32 @@
         <v>-0.23131631712549852</v>
       </c>
       <c r="AE19" s="1">
-        <f t="shared" ref="AE19:AH19" si="68">AE18/AE20</f>
+        <f t="shared" ref="AE19:AH19" si="69">AE18/AE20</f>
         <v>-0.11985539971912569</v>
       </c>
       <c r="AF19" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>-8.2706776030290197E-2</v>
       </c>
       <c r="AG19" s="1">
-        <f t="shared" si="68"/>
-        <v>5.4987121118304373E-2</v>
+        <f t="shared" si="69"/>
+        <v>6.9366283424502476E-2</v>
       </c>
       <c r="AH19" s="1">
-        <f t="shared" si="68"/>
-        <v>0.15198166368889252</v>
+        <f t="shared" si="69"/>
+        <v>0.32047502160452901</v>
       </c>
       <c r="AI19" s="1">
-        <f t="shared" ref="AI19" si="69">AI18/AI20</f>
-        <v>0.28423312659590699</v>
+        <f t="shared" ref="AI19" si="70">AI18/AI20</f>
+        <v>0.48642515609467085</v>
       </c>
       <c r="AJ19" s="1">
-        <f t="shared" ref="AJ19" si="70">AJ18/AJ20</f>
-        <v>0.45312039510124774</v>
+        <f t="shared" ref="AJ19" si="71">AJ18/AJ20</f>
+        <v>0.69575083049976461</v>
       </c>
       <c r="AK19" s="1">
-        <f t="shared" ref="AK19" si="71">AK18/AK20</f>
-        <v>0.66698918162627285</v>
+        <f t="shared" ref="AK19" si="72">AK18/AK20</f>
+        <v>0.95814570410449307</v>
       </c>
     </row>
     <row r="20" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2603,7 +2691,7 @@
         <v>2054.799</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" ref="M20" si="72">L20</f>
+        <f t="shared" ref="M20" si="73">L20</f>
         <v>2054.799</v>
       </c>
       <c r="N20" s="4">
@@ -2629,6 +2717,9 @@
       </c>
       <c r="U20" s="3">
         <v>2459.5889999999999</v>
+      </c>
+      <c r="V20" s="3">
+        <v>2528.279</v>
       </c>
       <c r="AC20" s="3">
         <v>979.33</v>
@@ -2653,15 +2744,15 @@
         <v>2087.4094999999998</v>
       </c>
       <c r="AI20" s="3">
-        <f t="shared" ref="AI20" si="73">AH20</f>
+        <f t="shared" ref="AI20" si="74">AH20</f>
         <v>2087.4094999999998</v>
       </c>
       <c r="AJ20" s="3">
-        <f t="shared" ref="AJ20:AK20" si="74">AI20</f>
+        <f t="shared" ref="AJ20:AK20" si="75">AI20</f>
         <v>2087.4094999999998</v>
       </c>
       <c r="AK20" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>2087.4094999999998</v>
       </c>
     </row>
@@ -2695,49 +2786,61 @@
         <v>0.25920424233711881</v>
       </c>
       <c r="M23" s="10">
-        <f t="shared" ref="M23:O23" si="75">M7/I7-1</f>
+        <f t="shared" ref="M23:O23" si="76">M7/I7-1</f>
         <v>0.21862775598884077</v>
       </c>
       <c r="N23" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.17501218619113956</v>
       </c>
       <c r="O23" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.1766052733574246</v>
       </c>
       <c r="P23" s="10">
-        <f t="shared" ref="P23:T23" si="76">P7/L7-1</f>
+        <f t="shared" ref="P23:T23" si="77">P7/L7-1</f>
         <v>0.12749624743662924</v>
       </c>
       <c r="Q23" s="10">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.16798987193437687</v>
       </c>
       <c r="R23" s="10">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.19538205039479051</v>
       </c>
       <c r="S23" s="10">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.20783493847893864</v>
       </c>
       <c r="T23" s="10">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.2715401909183468</v>
       </c>
       <c r="U23" s="10">
-        <f t="shared" ref="U23" si="77">U7/Q7-1</f>
+        <f t="shared" ref="U23" si="78">U7/Q7-1</f>
         <v>0.2998375015004684</v>
       </c>
       <c r="V23" s="10">
-        <f t="shared" ref="V23" si="78">V7/R7-1</f>
-        <v>0.29934210526315796</v>
-      </c>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
+        <f t="shared" ref="V23:Z23" si="79">V7/R7-1</f>
+        <v>0.36105098684210524</v>
+      </c>
+      <c r="W23" s="10">
+        <f t="shared" si="79"/>
+        <v>0.37150856483452044</v>
+      </c>
+      <c r="X23" s="10">
+        <f t="shared" si="79"/>
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="Y23" s="10">
+        <f t="shared" si="79"/>
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="Z23" s="10">
+        <f t="shared" si="79"/>
+        <v>0.35000000000000009</v>
+      </c>
       <c r="AD23" s="12">
         <f>AD7/AC7-1</f>
         <v>0.41111659206368234</v>
@@ -2752,22 +2855,22 @@
       </c>
       <c r="AG23" s="12">
         <f>AG7/AF7-1</f>
-        <v>0.2711989506720569</v>
+        <v>0.28806398455136084</v>
       </c>
       <c r="AH23" s="12">
         <f>AH7/AG7-1</f>
+        <v>0.35476135636730266</v>
+      </c>
+      <c r="AI23" s="12">
+        <f t="shared" ref="AI23" si="80">AI7/AH7-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AI23" s="12">
-        <f t="shared" ref="AI23" si="79">AI7/AH7-1</f>
+      <c r="AJ23" s="12">
+        <f t="shared" ref="AJ23:AK23" si="81">AJ7/AI7-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AJ23" s="12">
-        <f t="shared" ref="AJ23:AK23" si="80">AJ7/AI7-1</f>
-        <v>0.19999999999999996</v>
-      </c>
       <c r="AK23" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -2776,115 +2879,119 @@
         <v>33</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" ref="D24:K24" si="81">D9/D7</f>
+        <f t="shared" ref="D24:K24" si="82">D9/D7</f>
         <v>0.72841211803611916</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.48390619492269304</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.78110844450791861</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.78281472537906538</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.75794506471587308</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.77864366842961541</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.79771384744043783</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0.78850337286073702</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" ref="L24:P24" si="82">L9/L7</f>
+        <f t="shared" ref="L24:P24" si="83">L9/L7</f>
         <v>0.78388617576795416</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0.8</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0.79491530089024498</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0.79503452110299977</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0.79955823647099189</v>
       </c>
       <c r="Q24" s="8">
-        <f t="shared" ref="Q24:R24" si="83">Q9/Q7</f>
+        <f t="shared" ref="Q24:R24" si="84">Q9/Q7</f>
         <v>0.80664649320354953</v>
       </c>
       <c r="R24" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>0.82131743421052628</v>
       </c>
       <c r="S24" s="8">
-        <f t="shared" ref="S24:V24" si="84">S9/S7</f>
+        <f t="shared" ref="S24:W24" si="85">S9/S7</f>
         <v>0.81672862101907817</v>
       </c>
       <c r="T24" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.81041799998230435</v>
       </c>
       <c r="U24" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>0.79788316177727303</v>
       </c>
       <c r="V24" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
+        <v>0.7890888305887841</v>
+      </c>
+      <c r="W24" s="8">
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="AC24" s="8">
-        <f t="shared" ref="AC24:AH24" si="85">AC9/AC7</f>
+        <f t="shared" ref="AC24:AH24" si="86">AC9/AC7</f>
         <v>0.67735360899372454</v>
       </c>
       <c r="AD24" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.77987779924495215</v>
       </c>
       <c r="AE24" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.8</v>
       </c>
       <c r="AF24" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.8</v>
       </c>
       <c r="AG24" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="AH24" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>0.8</v>
       </c>
       <c r="AI24" s="8">
-        <f t="shared" ref="AI24" si="86">AI9/AI7</f>
+        <f t="shared" ref="AI24" si="87">AI9/AI7</f>
         <v>0.8</v>
       </c>
       <c r="AJ24" s="8">
-        <f t="shared" ref="AJ24:AK24" si="87">AJ9/AJ7</f>
+        <f t="shared" ref="AJ24:AK24" si="88">AJ9/AJ7</f>
         <v>0.8</v>
       </c>
       <c r="AK24" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>0.8</v>
       </c>
     </row>
@@ -2935,6 +3042,10 @@
         <f>768.71+3795.949</f>
         <v>4564.6589999999997</v>
       </c>
+      <c r="V26" s="3">
+        <f>2098.524+3131.463</f>
+        <v>5229.9870000000001</v>
+      </c>
       <c r="AF26" s="4">
         <f>831.047+2843.132</f>
         <v>3674.1790000000001</v>
@@ -2979,6 +3090,9 @@
       <c r="U27" s="3">
         <v>668.11</v>
       </c>
+      <c r="V27" s="3">
+        <v>575.048</v>
+      </c>
       <c r="AF27" s="4">
         <v>364.78399999999999</v>
       </c>
@@ -3022,6 +3136,9 @@
       <c r="U28" s="3">
         <v>119.193</v>
       </c>
+      <c r="V28" s="3">
+        <v>129.25399999999999</v>
+      </c>
       <c r="AF28" s="4">
         <v>99.655000000000001</v>
       </c>
@@ -3065,6 +3182,9 @@
       <c r="U29" s="3">
         <v>40.344999999999999</v>
       </c>
+      <c r="V29" s="3">
+        <v>39.637999999999998</v>
+      </c>
       <c r="AF29" s="4">
         <v>47.758000000000003</v>
       </c>
@@ -3108,6 +3228,9 @@
       <c r="U30" s="3">
         <v>211.57</v>
       </c>
+      <c r="V30" s="3">
+        <v>200.74</v>
+      </c>
       <c r="AF30" s="4">
         <v>182.863</v>
       </c>
@@ -3150,6 +3273,9 @@
       </c>
       <c r="U31" s="3">
         <v>164.22</v>
+      </c>
+      <c r="V31" s="3">
+        <v>166.21700000000001</v>
       </c>
       <c r="AF31" s="4">
         <v>153.18600000000001</v>
@@ -3175,32 +3301,36 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4">
-        <f>SUM(O26:O31)</f>
+        <f t="shared" ref="O32:V32" si="89">SUM(O26:O31)</f>
         <v>3683.1379999999995</v>
       </c>
       <c r="P32" s="4">
-        <f>SUM(P26:P31)</f>
+        <f t="shared" si="89"/>
         <v>3980.2640000000001</v>
       </c>
       <c r="Q32" s="4">
-        <f>SUM(Q26:Q31)</f>
+        <f t="shared" si="89"/>
         <v>4193.4169999999995</v>
       </c>
       <c r="R32" s="4">
-        <f>SUM(R26:R31)</f>
+        <f t="shared" si="89"/>
         <v>4522.4250000000002</v>
       </c>
       <c r="S32" s="4">
-        <f>SUM(S26:S31)</f>
+        <f t="shared" si="89"/>
         <v>4807.0790000000006</v>
       </c>
       <c r="T32" s="4">
-        <f>SUM(T26:T31)</f>
+        <f t="shared" si="89"/>
         <v>5191.8800000000019</v>
       </c>
       <c r="U32" s="4">
-        <f>SUM(U26:U31)</f>
+        <f t="shared" si="89"/>
         <v>5768.0969999999998</v>
+      </c>
+      <c r="V32" s="4">
+        <f t="shared" si="89"/>
+        <v>6340.8839999999991</v>
       </c>
       <c r="AF32" s="4">
         <f>SUM(AF26:AF31)</f>
@@ -3249,6 +3379,9 @@
       <c r="U34" s="3">
         <v>27.021000000000001</v>
       </c>
+      <c r="V34" s="3">
+        <v>0.10299999999999999</v>
+      </c>
       <c r="AF34" s="4">
         <v>12.122</v>
       </c>
@@ -3291,6 +3424,9 @@
       </c>
       <c r="U35" s="3">
         <v>265.24400000000003</v>
+      </c>
+      <c r="V35" s="3">
+        <v>427.04599999999999</v>
       </c>
       <c r="AF35" s="4">
         <v>222.99100000000001</v>
@@ -3343,6 +3479,10 @@
         <f>236.608+7.825</f>
         <v>244.43299999999999</v>
       </c>
+      <c r="V36" s="3">
+        <f>259.624+39.885</f>
+        <v>299.50900000000001</v>
+      </c>
       <c r="AF36" s="4">
         <f>246.901+28.047</f>
         <v>274.94800000000004</v>
@@ -3395,6 +3535,10 @@
         <f>366.946+3.681</f>
         <v>370.62700000000001</v>
       </c>
+      <c r="V37" s="3">
+        <f>1.663+265.252</f>
+        <v>266.91500000000002</v>
+      </c>
       <c r="AF37" s="4">
         <f>1.477+209.828</f>
         <v>211.30500000000001</v>
@@ -3447,6 +3591,10 @@
         <f>47.637+207.278</f>
         <v>254.91499999999999</v>
       </c>
+      <c r="V38" s="3">
+        <f>195.226+43.993</f>
+        <v>239.21899999999999</v>
+      </c>
       <c r="AF38" s="4">
         <f>54.176+175.216</f>
         <v>229.392</v>
@@ -3491,6 +3639,9 @@
       <c r="U39" s="3">
         <v>14.494999999999999</v>
       </c>
+      <c r="V39" s="3">
+        <v>13.685</v>
+      </c>
       <c r="AF39" s="4">
         <v>10.702</v>
       </c>
@@ -3533,6 +3684,9 @@
       </c>
       <c r="U40" s="3">
         <v>4591.3620000000001</v>
+      </c>
+      <c r="V40" s="3">
+        <v>5094.4070000000002</v>
       </c>
       <c r="AF40" s="4">
         <v>3560.9650000000001</v>
@@ -3558,32 +3712,36 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4">
-        <f>SUM(O34:O40)</f>
+        <f t="shared" ref="O41:V41" si="90">SUM(O34:O40)</f>
         <v>3683.1379999999999</v>
       </c>
       <c r="P41" s="4">
-        <f>SUM(P34:P40)</f>
+        <f t="shared" si="90"/>
         <v>3980.2639999999997</v>
       </c>
       <c r="Q41" s="4">
-        <f>SUM(Q34:Q40)</f>
+        <f t="shared" si="90"/>
         <v>4193.4169999999995</v>
       </c>
       <c r="R41" s="4">
-        <f>SUM(R34:R40)</f>
+        <f t="shared" si="90"/>
         <v>4522.4250000000002</v>
       </c>
       <c r="S41" s="4">
-        <f>SUM(S34:S40)</f>
+        <f t="shared" si="90"/>
         <v>4807.0789999999997</v>
       </c>
       <c r="T41" s="4">
-        <f>SUM(T34:T40)</f>
+        <f t="shared" si="90"/>
         <v>5191.8799999999992</v>
       </c>
       <c r="U41" s="4">
-        <f>SUM(U34:U40)</f>
+        <f t="shared" si="90"/>
         <v>5768.0969999999998</v>
+      </c>
+      <c r="V41" s="4">
+        <f t="shared" si="90"/>
+        <v>6340.884</v>
       </c>
       <c r="AF41" s="4">
         <f>SUM(AF34:AF40)</f>
@@ -3611,6 +3769,10 @@
         <f>+U18</f>
         <v>143.52499999999998</v>
       </c>
+      <c r="V43" s="4">
+        <f>+V18</f>
+        <v>62.168000000000013</v>
+      </c>
       <c r="AD43" s="16">
         <f>+AD18</f>
         <v>-444.96400000000006</v>
@@ -3643,6 +3805,10 @@
         <f>390.982-T44-S44</f>
         <v>149.34100000000004</v>
       </c>
+      <c r="V44" s="3">
+        <f>467.918-U44-T44-S44</f>
+        <v>76.936000000000007</v>
+      </c>
       <c r="AD44" s="16">
         <v>-520.37900000000002</v>
       </c>
@@ -3672,6 +3838,10 @@
         <f>24.581-T45-S45</f>
         <v>8.086999999999998</v>
       </c>
+      <c r="V45" s="3">
+        <f>31.587-U45-T45-S45</f>
+        <v>7.0060000000000002</v>
+      </c>
       <c r="AD45" s="16">
         <v>14.897</v>
       </c>
@@ -3701,6 +3871,10 @@
         <f>409.84-T46-S46</f>
         <v>142.42499999999995</v>
       </c>
+      <c r="V46" s="3">
+        <f>691.638-U46-T46-S46</f>
+        <v>281.79800000000006</v>
+      </c>
       <c r="AD46" s="16">
         <v>778.21500000000003</v>
       </c>
@@ -3730,6 +3904,10 @@
         <f>32.041-T47-S47</f>
         <v>9.6019999999999968</v>
       </c>
+      <c r="V47" s="3">
+        <f>41.239-U47-T47-S47</f>
+        <v>9.1980000000000004</v>
+      </c>
       <c r="AD47" s="16">
         <v>33.820999999999998</v>
       </c>
@@ -3759,6 +3937,10 @@
         <f>26.021-T48-S48</f>
         <v>5.9789999999999992</v>
       </c>
+      <c r="V48" s="3">
+        <f>19.306-U48-T48-S48</f>
+        <v>-6.7149999999999999</v>
+      </c>
       <c r="AD48" s="16">
         <v>73.311000000000007</v>
       </c>
@@ -3769,7 +3951,7 @@
         <v>13.16</v>
       </c>
     </row>
-    <row r="49" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>61</v>
       </c>
@@ -3788,6 +3970,10 @@
         <f>-34.789-T49-S49</f>
         <v>-8.3049999999999997</v>
       </c>
+      <c r="V49" s="3">
+        <f>-52.521-U49-T49-S49</f>
+        <v>-17.731999999999999</v>
+      </c>
       <c r="AD49" s="16">
         <v>0</v>
       </c>
@@ -3798,7 +3984,7 @@
         <v>-46.609000000000002</v>
       </c>
     </row>
-    <row r="50" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>38</v>
       </c>
@@ -3817,6 +4003,10 @@
         <f>19.115-T50-S50</f>
         <v>30.202999999999999</v>
       </c>
+      <c r="V50" s="3">
+        <f>24.795-U50-T50-S50</f>
+        <v>5.6800000000000015</v>
+      </c>
       <c r="AD50" s="16">
         <f>2.767+43.316</f>
         <v>46.083000000000006</v>
@@ -3830,7 +4020,7 @@
         <v>-34.255000000000003</v>
       </c>
     </row>
-    <row r="51" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>62</v>
       </c>
@@ -3869,6 +4059,10 @@
         <f>-311.699-19.547+4.056+7.71+42.149-27.117+159.457-35.205+5.943-T51-S51</f>
         <v>82.439999999999898</v>
       </c>
+      <c r="V51" s="3">
+        <f>-211.157+7.202+4.681-18.841+115.634+22.356+54.44-48.966+4.554-U51-T51-S51</f>
+        <v>104.15600000000005</v>
+      </c>
       <c r="AD51" s="16">
         <f>-35.237-10.974-3.345+57.767+15.245+24.732-104.944-32.156-3.185</f>
         <v>-92.097000000000008</v>
@@ -3882,7 +4076,7 @@
         <v>6.2360000000000042</v>
       </c>
     </row>
-    <row r="52" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>47</v>
       </c>
@@ -3903,6 +4097,14 @@
         <f>SUM(U44:U51)</f>
         <v>419.77199999999976</v>
       </c>
+      <c r="V52" s="4">
+        <f>SUM(V44:V51)</f>
+        <v>460.32700000000017</v>
+      </c>
+      <c r="W52" s="4">
+        <f>+W7*0.56</f>
+        <v>487.20000000000005</v>
+      </c>
       <c r="AC52" s="3">
         <v>-296608</v>
       </c>
@@ -3918,256 +4120,324 @@
         <f>SUM(AF44:AF51)</f>
         <v>712.18299999999999</v>
       </c>
-    </row>
-    <row r="54" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B54" s="3" t="s">
+      <c r="AG52" s="3">
+        <f>SUM(S52:V52)</f>
+        <v>1153.865</v>
+      </c>
+      <c r="AH52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AI52" s="3">
+        <f>+AH52*1.5</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="53" spans="2:35" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="19"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="21"/>
+      <c r="AC53" s="19"/>
+      <c r="AD53" s="22"/>
+      <c r="AE53" s="22"/>
+      <c r="AF53" s="23">
+        <f>AF52/AE52-1</f>
+        <v>2.1831257235057229</v>
+      </c>
+      <c r="AG53" s="23">
+        <f>AG52/AF52-1</f>
+        <v>0.62018048731856834</v>
+      </c>
+      <c r="AH53" s="23">
+        <f>AH52/AG52-1</f>
+        <v>0.55997452041616658</v>
+      </c>
+      <c r="AI53" s="23">
+        <f>AI52/AH52-1</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O54" s="4">
+      <c r="O55" s="4">
         <v>-4.7549999999999999</v>
       </c>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4">
+      <c r="R55" s="4"/>
+      <c r="S55" s="4">
         <v>-2.6640000000000001</v>
       </c>
-      <c r="T54" s="4">
-        <f>-5.543-S54</f>
+      <c r="T55" s="4">
+        <f>-5.543-S55</f>
         <v>-2.879</v>
       </c>
-      <c r="U54" s="3">
-        <f>-9.528-T54-S54</f>
+      <c r="U55" s="3">
+        <f>-9.528-T55-S55</f>
         <v>-3.9850000000000008</v>
       </c>
     </row>
-    <row r="55" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B55" s="3" t="s">
+    <row r="56" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="O55" s="4">
+      <c r="O56" s="4">
         <f>-2310.367+709.459+51.072</f>
         <v>-1549.8360000000002</v>
       </c>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4">
+      <c r="R56" s="4"/>
+      <c r="S56" s="4">
         <f>-1260.327+751.746</f>
         <v>-508.58100000000002</v>
       </c>
-      <c r="T55" s="4">
-        <f>-1784.115+1133.535-4-S55</f>
+      <c r="T56" s="4">
+        <f>-1784.115+1133.535-4-S56</f>
         <v>-145.99899999999991</v>
       </c>
-      <c r="U55" s="3">
-        <f>-3418.699+2451.378-4-T55-S55</f>
+      <c r="U56" s="3">
+        <f>-3418.699+2451.378-4-T56-S56</f>
         <v>-316.74099999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+    <row r="57" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>63</v>
       </c>
-      <c r="O56" s="4">
-        <f>O54+O55</f>
+      <c r="O57" s="4">
+        <f>O55+O56</f>
         <v>-1554.5910000000003</v>
       </c>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4">
-        <f>SUM(S54:S55)</f>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4">
+        <f>SUM(S55:S56)</f>
         <v>-511.245</v>
       </c>
-      <c r="T56" s="4">
-        <f>SUM(T54:T55)</f>
+      <c r="T57" s="4">
+        <f>SUM(T55:T56)</f>
         <v>-148.8779999999999</v>
       </c>
-      <c r="U56" s="4">
-        <f>SUM(U54:U55)</f>
+      <c r="U57" s="4">
+        <f>SUM(U55:U56)</f>
         <v>-320.726</v>
       </c>
     </row>
-    <row r="58" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
+    <row r="59" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>68</v>
       </c>
-      <c r="O58" s="4">
+      <c r="O59" s="4">
         <v>25.923999999999999</v>
-      </c>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4">
-        <v>83.84</v>
-      </c>
-      <c r="T58" s="4">
-        <f>99.87-S58</f>
-        <v>16.03</v>
-      </c>
-      <c r="U58" s="3">
-        <f>270.207-T58-S58</f>
-        <v>170.33699999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>69</v>
-      </c>
-      <c r="O59" s="4">
-        <v>0</v>
       </c>
       <c r="R59" s="4"/>
       <c r="S59" s="4">
-        <v>-9</v>
+        <v>83.84</v>
       </c>
       <c r="T59" s="4">
-        <f>-26.699-S59</f>
-        <v>-17.699000000000002</v>
+        <f>99.87-S59</f>
+        <v>16.03</v>
       </c>
       <c r="U59" s="3">
-        <f>-45.598-T59-S59</f>
-        <v>-18.898999999999997</v>
-      </c>
-    </row>
-    <row r="60" spans="2:32" x14ac:dyDescent="0.2">
+        <f>270.207-T59-S59</f>
+        <v>170.33699999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="O60" s="4">
-        <v>5.8999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="R60" s="4"/>
       <c r="S60" s="4">
-        <v>0.40799999999999997</v>
+        <v>-9</v>
       </c>
       <c r="T60" s="4">
-        <f>0.102-S60</f>
-        <v>-0.30599999999999999</v>
+        <f>-26.699-S60</f>
+        <v>-17.699000000000002</v>
       </c>
       <c r="U60" s="3">
-        <f>0.091-T60-S60</f>
-        <v>-1.0999999999999954E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="2:32" x14ac:dyDescent="0.2">
+        <f>-45.598-T60-S60</f>
+        <v>-18.898999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="O61" s="4">
-        <f>SUM(O58:O60)</f>
-        <v>25.983000000000001</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="R61" s="4"/>
       <c r="S61" s="4">
-        <f>SUM(S58:S60)</f>
-        <v>75.248000000000005</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="T61" s="4">
-        <f>SUM(T58:T60)</f>
-        <v>-1.9750000000000005</v>
-      </c>
-      <c r="U61" s="4">
-        <f>SUM(U58:U60)</f>
-        <v>151.42699999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="2:32" x14ac:dyDescent="0.2">
+        <f>0.102-S61</f>
+        <v>-0.30599999999999999</v>
+      </c>
+      <c r="U61" s="3">
+        <f>0.091-T61-S61</f>
+        <v>-1.0999999999999954E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O62" s="4">
-        <v>2.6760000000000002</v>
+        <f>SUM(O59:O61)</f>
+        <v>25.983000000000001</v>
       </c>
       <c r="R62" s="4"/>
       <c r="S62" s="4">
-        <v>-4.024</v>
+        <f>SUM(S59:S61)</f>
+        <v>75.248000000000005</v>
       </c>
       <c r="T62" s="4">
-        <f>-4.948-S62</f>
-        <v>-0.92400000000000038</v>
-      </c>
-      <c r="U62" s="3">
-        <f>0.96-T62-S62</f>
-        <v>5.9080000000000004</v>
-      </c>
-    </row>
-    <row r="63" spans="2:32" x14ac:dyDescent="0.2">
+        <f>SUM(T59:T61)</f>
+        <v>-1.9750000000000005</v>
+      </c>
+      <c r="U62" s="4">
+        <f>SUM(U59:U61)</f>
+        <v>151.42699999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O63" s="4">
-        <f>+O62+O61+O56+O52</f>
-        <v>-1338.3760000000002</v>
+        <v>2.6760000000000002</v>
       </c>
       <c r="R63" s="4"/>
       <c r="S63" s="4">
-        <f>+S62+S61+S56+S52</f>
+        <v>-4.024</v>
+      </c>
+      <c r="T63" s="4">
+        <f>-4.948-S63</f>
+        <v>-0.92400000000000038</v>
+      </c>
+      <c r="U63" s="3">
+        <f>0.96-T63-S63</f>
+        <v>5.9080000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="O64" s="4">
+        <f>+O63+O62+O57+O52</f>
+        <v>-1338.3760000000002</v>
+      </c>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4">
+        <f>+S63+S62+S57+S52</f>
         <v>-310.44200000000001</v>
       </c>
-      <c r="T63" s="4">
-        <f t="shared" ref="T63:U63" si="88">+T62+T61+T56+T52</f>
+      <c r="T64" s="4">
+        <f t="shared" ref="T64:U64" si="91">+T63+T62+T57+T52</f>
         <v>-7.5899999999999466</v>
       </c>
-      <c r="U63" s="4">
-        <f t="shared" si="88"/>
+      <c r="U64" s="4">
+        <f t="shared" si="91"/>
         <v>256.38099999999974</v>
-      </c>
-    </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>84</v>
-      </c>
-      <c r="N66" s="2">
-        <v>367</v>
-      </c>
-      <c r="R66" s="2">
-        <v>497</v>
-      </c>
-      <c r="AE66">
-        <f>+N66</f>
-        <v>367</v>
-      </c>
-      <c r="AF66">
-        <f>+R66</f>
-        <v>497</v>
       </c>
     </row>
     <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>85</v>
-      </c>
-      <c r="R67" s="8">
-        <v>0.62</v>
-      </c>
-      <c r="AF67" s="8">
-        <v>0.62</v>
+        <v>84</v>
+      </c>
+      <c r="N67" s="2">
+        <v>367</v>
+      </c>
+      <c r="R67" s="2">
+        <v>497</v>
+      </c>
+      <c r="AE67">
+        <f>+N67</f>
+        <v>367</v>
+      </c>
+      <c r="AF67">
+        <f>+R67</f>
+        <v>497</v>
       </c>
     </row>
     <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R68" s="8">
-        <v>0.38</v>
+        <v>0.62</v>
       </c>
       <c r="AF68" s="8">
-        <v>0.38</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R69" s="8">
-        <v>0.55000000000000004</v>
+        <v>0.38</v>
       </c>
       <c r="AF69" s="8">
-        <v>0.55000000000000004</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
+        <v>87</v>
+      </c>
+      <c r="R70" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AF70" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
         <v>88</v>
       </c>
-      <c r="R70" s="8">
+      <c r="R71" s="8">
         <v>0.45</v>
       </c>
-      <c r="AF70" s="8">
+      <c r="AF71" s="8">
         <v>0.45</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="U73" s="17">
+        <f>+U52/U7</f>
+        <v>0.57858406982065147</v>
+      </c>
+      <c r="V73" s="17">
+        <f>+V52/V7</f>
+        <v>0.55627363238789707</v>
+      </c>
+      <c r="W73" s="17">
+        <f>+W52/W7</f>
+        <v>0.56000000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/PLTR.xlsx
+++ b/PLTR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25D219C-4DF6-441C-AD7F-7644B09A8B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859F9C23-5206-4AFB-B1E0-78A315386975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27195" yWindow="1725" windowWidth="21570" windowHeight="17925" activeTab="1" xr2:uid="{AE04E6E4-A652-4DFB-A34B-BE287D9B2752}"/>
+    <workbookView xWindow="-27600" yWindow="1395" windowWidth="25155" windowHeight="19005" activeTab="1" xr2:uid="{AE04E6E4-A652-4DFB-A34B-BE287D9B2752}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -862,7 +862,7 @@
   <dimension ref="B2:M9"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -898,7 +898,7 @@
       </c>
       <c r="L4" s="3">
         <f>L3*L2</f>
-        <v>257856</v>
+        <v>202240</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -947,7 +947,7 @@
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>252626</v>
+        <v>197010</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -985,10 +985,10 @@
   <dimension ref="A1:AM73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI7" sqref="AI7"/>
+      <selection pane="bottomRight" activeCell="AM7" sqref="AM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1329,6 +1329,14 @@
         <f t="shared" si="2"/>
         <v>6708.2310431999995</v>
       </c>
+      <c r="AL7" s="5">
+        <f t="shared" ref="AL7" si="3">AK7*1.2</f>
+        <v>8049.8772518399992</v>
+      </c>
+      <c r="AM7" s="5">
+        <f t="shared" ref="AM7" si="4">AL7*1.2</f>
+        <v>9659.8527022079979</v>
+      </c>
     </row>
     <row r="8" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
@@ -1363,7 +1371,7 @@
         <v>102.224</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" ref="M8" si="3">M7-M9</f>
+        <f t="shared" ref="M8" si="5">M7-M9</f>
         <v>95.575999999999965</v>
       </c>
       <c r="N8" s="4">
@@ -1404,28 +1412,36 @@
         <v>381.17419999999993</v>
       </c>
       <c r="AF8" s="3">
-        <f t="shared" ref="AF8:AH8" si="4">AF7-AF9</f>
+        <f t="shared" ref="AF8:AH8" si="6">AF7-AF9</f>
         <v>444.93239999999992</v>
       </c>
       <c r="AG8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>573.10140000000001</v>
       </c>
       <c r="AH8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>776.41562999999996</v>
       </c>
       <c r="AI8" s="3">
-        <f t="shared" ref="AI8" si="5">AI7-AI9</f>
+        <f t="shared" ref="AI8" si="7">AI7-AI9</f>
         <v>931.69875599999978</v>
       </c>
       <c r="AJ8" s="3">
-        <f t="shared" ref="AJ8" si="6">AJ7-AJ9</f>
+        <f t="shared" ref="AJ8" si="8">AJ7-AJ9</f>
         <v>1118.0385071999999</v>
       </c>
       <c r="AK8" s="3">
-        <f t="shared" ref="AK8" si="7">AK7-AK9</f>
+        <f t="shared" ref="AK8:AM8" si="9">AK7-AK9</f>
         <v>1341.6462086399997</v>
+      </c>
+      <c r="AL8" s="3">
+        <f t="shared" si="9"/>
+        <v>1609.9754503679997</v>
+      </c>
+      <c r="AM8" s="3">
+        <f t="shared" si="9"/>
+        <v>1931.970540441599</v>
       </c>
     </row>
     <row r="9" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1434,35 +1450,35 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4">
-        <f t="shared" ref="D9:K9" si="8">D7-D8</f>
+        <f t="shared" ref="D9:K9" si="10">D7-D8</f>
         <v>183.47900000000001</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>140.02599999999998</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>251.58800000000002</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>267.12299999999999</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>284.71600000000001</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>305.34199999999998</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>345.30400000000003</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>351.95400000000001</v>
       </c>
       <c r="L9" s="4">
@@ -1470,31 +1486,31 @@
         <v>370.786</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" ref="M9" si="9">M7*0.8</f>
+        <f t="shared" ref="M9" si="11">M7*0.8</f>
         <v>382.30400000000003</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" ref="N9:S9" si="10">+N7-N8</f>
+        <f t="shared" ref="N9:S9" si="12">+N7-N8</f>
         <v>404.31299999999999</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>417.54100000000005</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>426.41800000000001</v>
       </c>
       <c r="Q9" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>450.23699999999997</v>
       </c>
       <c r="R9" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>499.36099999999999</v>
       </c>
       <c r="S9" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>518.08199999999999</v>
       </c>
       <c r="T9" s="3">
@@ -1522,28 +1538,36 @@
         <v>1524.6967999999999</v>
       </c>
       <c r="AF9" s="3">
-        <f t="shared" ref="AF9:AH9" si="11">AF7*0.8</f>
+        <f t="shared" ref="AF9:AH9" si="13">AF7*0.8</f>
         <v>1779.7296000000003</v>
       </c>
       <c r="AG9" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2292.4055999999996</v>
       </c>
       <c r="AH9" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3105.6625199999999</v>
       </c>
       <c r="AI9" s="3">
-        <f t="shared" ref="AI9" si="12">AI7*0.8</f>
+        <f t="shared" ref="AI9" si="14">AI7*0.8</f>
         <v>3726.795024</v>
       </c>
       <c r="AJ9" s="3">
-        <f t="shared" ref="AJ9:AK9" si="13">AJ7*0.8</f>
+        <f t="shared" ref="AJ9:AK9" si="15">AJ7*0.8</f>
         <v>4472.1540287999997</v>
       </c>
       <c r="AK9" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5366.5848345599998</v>
+      </c>
+      <c r="AL9" s="3">
+        <f t="shared" ref="AL9:AM9" si="16">AL7*0.8</f>
+        <v>6439.9018014719995</v>
+      </c>
+      <c r="AM9" s="3">
+        <f t="shared" si="16"/>
+        <v>7727.8821617663989</v>
       </c>
     </row>
     <row r="10" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1579,7 +1603,7 @@
         <v>168.875</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" ref="M10" si="14">L10+1</f>
+        <f t="shared" ref="M10" si="17">L10+1</f>
         <v>169.875</v>
       </c>
       <c r="N10" s="4">
@@ -1620,28 +1644,36 @@
         <v>675.96320000000003</v>
       </c>
       <c r="AF10" s="3">
-        <f t="shared" ref="AF10:AH10" si="15">AE10*1.1</f>
+        <f t="shared" ref="AF10:AH10" si="18">AE10*1.1</f>
         <v>743.55952000000013</v>
       </c>
       <c r="AG10" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>817.91547200000025</v>
       </c>
       <c r="AH10" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>899.70701920000033</v>
       </c>
       <c r="AI10" s="3">
-        <f t="shared" ref="AI10" si="16">AH10*1.1</f>
+        <f t="shared" ref="AI10" si="19">AH10*1.1</f>
         <v>989.67772112000046</v>
       </c>
       <c r="AJ10" s="3">
-        <f t="shared" ref="AJ10:AK10" si="17">AI10*1.1</f>
+        <f t="shared" ref="AJ10:AK10" si="20">AI10*1.1</f>
         <v>1088.6454932320005</v>
       </c>
       <c r="AK10" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1197.5100425552007</v>
+      </c>
+      <c r="AL10" s="3">
+        <f t="shared" ref="AL10:AL12" si="21">AK10*1.1</f>
+        <v>1317.2610468107209</v>
+      </c>
+      <c r="AM10" s="3">
+        <f t="shared" ref="AM10:AM12" si="22">AL10*1.1</f>
+        <v>1448.9871514917932</v>
       </c>
     </row>
     <row r="11" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1677,7 +1709,7 @@
         <v>88.171000000000006</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" ref="M11" si="18">L11+1</f>
+        <f t="shared" ref="M11" si="23">L11+1</f>
         <v>89.171000000000006</v>
       </c>
       <c r="N11" s="4">
@@ -1714,32 +1746,40 @@
         <v>387.48700000000002</v>
       </c>
       <c r="AE11" s="3">
-        <f t="shared" ref="AE11:AH11" si="19">AD11*1.1</f>
+        <f t="shared" ref="AE11:AH11" si="24">AD11*1.1</f>
         <v>426.23570000000007</v>
       </c>
       <c r="AF11" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>468.85927000000009</v>
       </c>
       <c r="AG11" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>515.74519700000019</v>
       </c>
       <c r="AH11" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>567.3197167000003</v>
       </c>
       <c r="AI11" s="3">
-        <f t="shared" ref="AI11" si="20">AH11*1.1</f>
+        <f t="shared" ref="AI11" si="25">AH11*1.1</f>
         <v>624.05168837000042</v>
       </c>
       <c r="AJ11" s="3">
-        <f t="shared" ref="AJ11:AK11" si="21">AI11*1.1</f>
+        <f t="shared" ref="AJ11:AK11" si="26">AI11*1.1</f>
         <v>686.45685720700055</v>
       </c>
       <c r="AK11" s="3">
+        <f t="shared" si="26"/>
+        <v>755.10254292770071</v>
+      </c>
+      <c r="AL11" s="3">
         <f t="shared" si="21"/>
-        <v>755.10254292770071</v>
+        <v>830.61279722047084</v>
+      </c>
+      <c r="AM11" s="3">
+        <f t="shared" si="22"/>
+        <v>913.67407694251801</v>
       </c>
     </row>
     <row r="12" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1775,7 +1815,7 @@
         <v>155.48500000000001</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" ref="M12" si="22">L12+1</f>
+        <f t="shared" ref="M12" si="27">L12+1</f>
         <v>156.48500000000001</v>
       </c>
       <c r="N12" s="4">
@@ -1812,32 +1852,40 @@
         <v>611.53200000000004</v>
       </c>
       <c r="AE12" s="3">
-        <f t="shared" ref="AE12:AH12" si="23">AD12*1.1</f>
+        <f t="shared" ref="AE12:AH12" si="28">AD12*1.1</f>
         <v>672.68520000000012</v>
       </c>
       <c r="AF12" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>739.9537200000002</v>
       </c>
       <c r="AG12" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>813.94909200000029</v>
       </c>
       <c r="AH12" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>895.34400120000043</v>
       </c>
       <c r="AI12" s="3">
-        <f t="shared" ref="AI12" si="24">AH12*1.1</f>
+        <f t="shared" ref="AI12" si="29">AH12*1.1</f>
         <v>984.87840132000053</v>
       </c>
       <c r="AJ12" s="3">
-        <f t="shared" ref="AJ12:AK12" si="25">AI12*1.1</f>
+        <f t="shared" ref="AJ12:AK12" si="30">AI12*1.1</f>
         <v>1083.3662414520006</v>
       </c>
       <c r="AK12" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1191.7028655972008</v>
+      </c>
+      <c r="AL12" s="3">
+        <f t="shared" si="21"/>
+        <v>1310.8731521569209</v>
+      </c>
+      <c r="AM12" s="3">
+        <f t="shared" si="22"/>
+        <v>1441.960467372613</v>
       </c>
     </row>
     <row r="13" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1846,83 +1894,83 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4">
-        <f t="shared" ref="D13:L13" si="26">SUM(D10:D12)</f>
+        <f t="shared" ref="D13:L13" si="31">SUM(D10:D12)</f>
         <v>282.62400000000002</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>987.803</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>408.15999999999997</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>381.137</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>430.86400000000003</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>397.28300000000002</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>404.24700000000001</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>391.39300000000003</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>412.53100000000001</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" ref="M13:N13" si="27">SUM(M10:M12)</f>
+        <f t="shared" ref="M13:N13" si="32">SUM(M10:M12)</f>
         <v>415.53100000000001</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>422.13900000000001</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" ref="O13:W13" si="28">+O10+O11+O12</f>
+        <f t="shared" ref="O13:W13" si="33">+O10+O11+O12</f>
         <v>413.42599999999999</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>416.34400000000005</v>
       </c>
       <c r="Q13" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>410.25400000000002</v>
       </c>
       <c r="R13" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>433.91700000000003</v>
       </c>
       <c r="S13" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>437.20100000000002</v>
       </c>
       <c r="T13" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>444.23300000000006</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>465.73699999999997</v>
       </c>
       <c r="V13" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>641.94299999999998</v>
       </c>
       <c r="W13" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AC13" s="3">
@@ -1930,36 +1978,44 @@
         <v>1913.8049999999998</v>
       </c>
       <c r="AD13" s="3">
-        <f t="shared" ref="AD13" si="29">SUM(AD10:AD12)</f>
+        <f t="shared" ref="AD13" si="34">SUM(AD10:AD12)</f>
         <v>1613.5309999999999</v>
       </c>
       <c r="AE13" s="3">
-        <f t="shared" ref="AE13" si="30">SUM(AE10:AE12)</f>
+        <f t="shared" ref="AE13" si="35">SUM(AE10:AE12)</f>
         <v>1774.8841000000002</v>
       </c>
       <c r="AF13" s="3">
-        <f t="shared" ref="AF13" si="31">SUM(AF10:AF12)</f>
+        <f t="shared" ref="AF13" si="36">SUM(AF10:AF12)</f>
         <v>1952.3725100000004</v>
       </c>
       <c r="AG13" s="3">
-        <f t="shared" ref="AG13" si="32">SUM(AG10:AG12)</f>
+        <f t="shared" ref="AG13" si="37">SUM(AG10:AG12)</f>
         <v>2147.6097610000006</v>
       </c>
       <c r="AH13" s="3">
-        <f t="shared" ref="AH13" si="33">SUM(AH10:AH12)</f>
+        <f t="shared" ref="AH13" si="38">SUM(AH10:AH12)</f>
         <v>2362.370737100001</v>
       </c>
       <c r="AI13" s="3">
-        <f t="shared" ref="AI13" si="34">SUM(AI10:AI12)</f>
+        <f t="shared" ref="AI13" si="39">SUM(AI10:AI12)</f>
         <v>2598.6078108100014</v>
       </c>
       <c r="AJ13" s="3">
-        <f t="shared" ref="AJ13" si="35">SUM(AJ10:AJ12)</f>
+        <f t="shared" ref="AJ13" si="40">SUM(AJ10:AJ12)</f>
         <v>2858.4685918910018</v>
       </c>
       <c r="AK13" s="3">
-        <f t="shared" ref="AK13" si="36">SUM(AK10:AK12)</f>
+        <f t="shared" ref="AK13:AM13" si="41">SUM(AK10:AK12)</f>
         <v>3144.3154510801023</v>
+      </c>
+      <c r="AL13" s="3">
+        <f t="shared" si="41"/>
+        <v>3458.7469961881125</v>
+      </c>
+      <c r="AM13" s="3">
+        <f t="shared" si="41"/>
+        <v>3804.621695806924</v>
       </c>
     </row>
     <row r="14" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1968,83 +2024,83 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4">
-        <f t="shared" ref="D14:L14" si="37">D9-D13</f>
+        <f t="shared" ref="D14:L14" si="42">D9-D13</f>
         <v>-99.14500000000001</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>-847.77700000000004</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>-156.57199999999995</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>-114.01400000000001</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>-146.14800000000002</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>-91.941000000000031</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>-58.942999999999984</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>-39.439000000000021</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>-41.745000000000005</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" ref="M14:N14" si="38">M9-M13</f>
+        <f t="shared" ref="M14:N14" si="43">M9-M13</f>
         <v>-33.226999999999975</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>-17.826000000000022</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" ref="O14:W14" si="39">+O9-O13</f>
+        <f t="shared" ref="O14:W14" si="44">+O9-O13</f>
         <v>4.1150000000000659</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>10.073999999999955</v>
       </c>
       <c r="Q14" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>39.982999999999947</v>
       </c>
       <c r="R14" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>65.44399999999996</v>
       </c>
       <c r="S14" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>80.880999999999972</v>
       </c>
       <c r="T14" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>105.33899999999994</v>
       </c>
       <c r="U14" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>113.13999999999999</v>
       </c>
       <c r="V14" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>11.043000000000006</v>
       </c>
       <c r="W14" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AC14" s="3">
@@ -2052,36 +2108,44 @@
         <v>-1173.6789999999999</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" ref="AD14" si="40">AD9-AD13</f>
+        <f t="shared" ref="AD14" si="45">AD9-AD13</f>
         <v>-411.04600000000005</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" ref="AE14" si="41">AE9-AE13</f>
+        <f t="shared" ref="AE14" si="46">AE9-AE13</f>
         <v>-250.18730000000028</v>
       </c>
       <c r="AF14" s="3">
-        <f t="shared" ref="AF14" si="42">AF9-AF13</f>
+        <f t="shared" ref="AF14" si="47">AF9-AF13</f>
         <v>-172.64291000000003</v>
       </c>
       <c r="AG14" s="3">
-        <f t="shared" ref="AG14" si="43">AG9-AG13</f>
+        <f t="shared" ref="AG14" si="48">AG9-AG13</f>
         <v>144.79583899999898</v>
       </c>
       <c r="AH14" s="3">
-        <f t="shared" ref="AH14" si="44">AH9-AH13</f>
+        <f t="shared" ref="AH14" si="49">AH9-AH13</f>
         <v>743.29178289999891</v>
       </c>
       <c r="AI14" s="3">
-        <f t="shared" ref="AI14" si="45">AI9-AI13</f>
+        <f t="shared" ref="AI14" si="50">AI9-AI13</f>
         <v>1128.1872131899986</v>
       </c>
       <c r="AJ14" s="3">
-        <f t="shared" ref="AJ14" si="46">AJ9-AJ13</f>
+        <f t="shared" ref="AJ14" si="51">AJ9-AJ13</f>
         <v>1613.6854369089979</v>
       </c>
       <c r="AK14" s="3">
-        <f t="shared" ref="AK14" si="47">AK9-AK13</f>
+        <f t="shared" ref="AK14:AM14" si="52">AK9-AK13</f>
         <v>2222.2693834798974</v>
+      </c>
+      <c r="AL14" s="3">
+        <f t="shared" si="52"/>
+        <v>2981.1548052838871</v>
+      </c>
+      <c r="AM14" s="3">
+        <f t="shared" si="52"/>
+        <v>3923.2604659594749</v>
       </c>
     </row>
     <row r="15" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2192,6 +2256,12 @@
       <c r="AK15" s="3">
         <v>0</v>
       </c>
+      <c r="AL15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
@@ -2199,123 +2269,131 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4">
-        <f t="shared" ref="D16:L16" si="48">D14-D15</f>
+        <f t="shared" ref="D16:L16" si="53">D14-D15</f>
         <v>-94.050000000000011</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-846.18600000000004</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-155.12599999999995</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-112.55000000000001</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-145.93000000000004</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-91.711000000000027</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-58.821999999999981</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-39.392000000000024</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>-42.547000000000004</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" ref="M16" si="49">M14-M15</f>
+        <f t="shared" ref="M16" si="54">M14-M15</f>
         <v>-33.226999999999975</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" ref="N16:W16" si="50">+N14+N15</f>
+        <f t="shared" ref="N16:W16" si="55">+N14+N15</f>
         <v>37.848999999999975</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>20.832000000000068</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>30.042999999999957</v>
       </c>
       <c r="Q16" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>79.968999999999937</v>
       </c>
       <c r="R16" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>105.89699999999996</v>
       </c>
       <c r="S16" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>110.72599999999997</v>
       </c>
       <c r="T16" s="4">
-        <f t="shared" ref="T16" si="51">+T14+T15</f>
+        <f t="shared" ref="T16" si="56">+T14+T15</f>
         <v>140.75899999999996</v>
       </c>
       <c r="U16" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>157.14999999999998</v>
       </c>
       <c r="V16" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>65.77000000000001</v>
       </c>
       <c r="W16" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" ref="AC16:AH16" si="52">AC14+AC15</f>
+        <f t="shared" ref="AC16:AH16" si="57">AC14+AC15</f>
         <v>-1183.1379999999999</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-413.07900000000006</v>
       </c>
       <c r="AE16" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-250.18730000000028</v>
       </c>
       <c r="AF16" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>-172.64291000000003</v>
       </c>
       <c r="AG16" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>144.79583899999898</v>
       </c>
       <c r="AH16" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>743.29178289999891</v>
       </c>
       <c r="AI16" s="3">
-        <f t="shared" ref="AI16" si="53">AI14+AI15</f>
+        <f t="shared" ref="AI16" si="58">AI14+AI15</f>
         <v>1128.1872131899986</v>
       </c>
       <c r="AJ16" s="3">
-        <f t="shared" ref="AJ16" si="54">AJ14+AJ15</f>
+        <f t="shared" ref="AJ16" si="59">AJ14+AJ15</f>
         <v>1613.6854369089979</v>
       </c>
       <c r="AK16" s="3">
-        <f t="shared" ref="AK16" si="55">AK14+AK15</f>
+        <f t="shared" ref="AK16:AM16" si="60">AK14+AK15</f>
         <v>2222.2693834798974</v>
       </c>
-    </row>
-    <row r="17" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL16" s="3">
+        <f t="shared" si="60"/>
+        <v>2981.1548052838871</v>
+      </c>
+      <c r="AM16" s="3">
+        <f t="shared" si="60"/>
+        <v>3923.2604659594749</v>
+      </c>
+    </row>
+    <row r="17" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
@@ -2406,65 +2484,73 @@
         <v>74.329178289999888</v>
       </c>
       <c r="AI17" s="3">
-        <f t="shared" ref="AI17" si="56">AI16*0.1</f>
+        <f t="shared" ref="AI17" si="61">AI16*0.1</f>
         <v>112.81872131899986</v>
       </c>
       <c r="AJ17" s="3">
-        <f t="shared" ref="AJ17" si="57">AJ16*0.1</f>
+        <f t="shared" ref="AJ17" si="62">AJ16*0.1</f>
         <v>161.3685436908998</v>
       </c>
       <c r="AK17" s="3">
-        <f t="shared" ref="AK17" si="58">AK16*0.1</f>
+        <f t="shared" ref="AK17:AM17" si="63">AK16*0.1</f>
         <v>222.22693834798974</v>
       </c>
-    </row>
-    <row r="18" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL17" s="3">
+        <f t="shared" si="63"/>
+        <v>298.11548052838873</v>
+      </c>
+      <c r="AM17" s="3">
+        <f t="shared" si="63"/>
+        <v>392.3260465959475</v>
+      </c>
+    </row>
+    <row r="18" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4">
-        <f t="shared" ref="D18:L18" si="59">D16-D17</f>
+        <f t="shared" ref="D18:L18" si="64">D16-D17</f>
         <v>-94.993000000000009</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-837.64300000000003</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-147.53299999999996</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-115.65200000000002</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-140.26900000000003</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-93.149000000000029</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-91.827999999999975</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-41.415000000000028</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-45.135000000000005</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" ref="M18:N18" si="60">M16-M17</f>
+        <f t="shared" ref="M18:N18" si="65">M16-M17</f>
         <v>-33.226999999999975</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>30.877999999999975</v>
       </c>
       <c r="O18" s="4">
@@ -2488,19 +2574,19 @@
         <v>105.52999999999997</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" ref="T18:W18" si="61">+T16-T17</f>
+        <f t="shared" ref="T18:W18" si="66">+T16-T17</f>
         <v>134.12599999999995</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>143.52499999999998</v>
       </c>
       <c r="V18" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>62.168000000000013</v>
       </c>
       <c r="W18" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AC18" s="3">
@@ -2512,80 +2598,88 @@
         <v>-444.96400000000006</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" ref="AE18:AH18" si="62">AE16-AE17</f>
+        <f t="shared" ref="AE18:AH18" si="67">AE16-AE17</f>
         <v>-250.18730000000028</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>-172.64291000000003</v>
       </c>
       <c r="AG18" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>144.79583899999898</v>
       </c>
       <c r="AH18" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>668.96260460999906</v>
       </c>
       <c r="AI18" s="3">
-        <f t="shared" ref="AI18" si="63">AI16-AI17</f>
+        <f t="shared" ref="AI18" si="68">AI16-AI17</f>
         <v>1015.3684918709987</v>
       </c>
       <c r="AJ18" s="3">
-        <f t="shared" ref="AJ18" si="64">AJ16-AJ17</f>
+        <f t="shared" ref="AJ18" si="69">AJ16-AJ17</f>
         <v>1452.3168932180981</v>
       </c>
       <c r="AK18" s="3">
-        <f t="shared" ref="AK18" si="65">AK16-AK17</f>
+        <f t="shared" ref="AK18:AM18" si="70">AK16-AK17</f>
         <v>2000.0424451319077</v>
       </c>
-    </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL18" s="3">
+        <f t="shared" si="70"/>
+        <v>2683.0393247554985</v>
+      </c>
+      <c r="AM18" s="3">
+        <f t="shared" si="70"/>
+        <v>3530.9344193635275</v>
+      </c>
+    </row>
+    <row r="19" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" ref="D19:L19" si="66">D18/D20</f>
+        <f t="shared" ref="D19:L19" si="71">D18/D20</f>
         <v>-0.14827157237200492</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>-0.92510011463761044</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>-8.3658536308756248E-2</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>-6.3504649239659608E-2</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>-7.4035973706406522E-2</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>-4.7418670888492401E-2</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>-4.5645513091992884E-2</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>-2.0338288872945007E-2</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>-2.1965652114878394E-2</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" ref="M19:N19" si="67">M18/M20</f>
+        <f t="shared" ref="M19:N19" si="72">M18/M20</f>
         <v>-1.6170438081778302E-2</v>
       </c>
       <c r="N19" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>1.4011679273305783E-2</v>
       </c>
       <c r="O19" s="7">
@@ -2609,15 +2703,15 @@
         <v>4.3968873054409649E-2</v>
       </c>
       <c r="T19" s="7">
-        <f t="shared" ref="T19:V19" si="68">+T18/T20</f>
+        <f t="shared" ref="T19:V19" si="73">+T18/T20</f>
         <v>5.5545708445286675E-2</v>
       </c>
       <c r="U19" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>5.8353245196656835E-2</v>
       </c>
       <c r="V19" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>2.4589058406924241E-2</v>
       </c>
       <c r="W19" s="7"/>
@@ -2630,35 +2724,43 @@
         <v>-0.23131631712549852</v>
       </c>
       <c r="AE19" s="1">
-        <f t="shared" ref="AE19:AH19" si="69">AE18/AE20</f>
+        <f t="shared" ref="AE19:AH19" si="74">AE18/AE20</f>
         <v>-0.11985539971912569</v>
       </c>
       <c r="AF19" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-8.2706776030290197E-2</v>
       </c>
       <c r="AG19" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>6.9366283424502476E-2</v>
       </c>
       <c r="AH19" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>0.32047502160452901</v>
       </c>
       <c r="AI19" s="1">
-        <f t="shared" ref="AI19" si="70">AI18/AI20</f>
+        <f t="shared" ref="AI19" si="75">AI18/AI20</f>
         <v>0.48642515609467085</v>
       </c>
       <c r="AJ19" s="1">
-        <f t="shared" ref="AJ19" si="71">AJ18/AJ20</f>
+        <f t="shared" ref="AJ19" si="76">AJ18/AJ20</f>
         <v>0.69575083049976461</v>
       </c>
       <c r="AK19" s="1">
-        <f t="shared" ref="AK19" si="72">AK18/AK20</f>
+        <f t="shared" ref="AK19:AM19" si="77">AK18/AK20</f>
         <v>0.95814570410449307</v>
       </c>
-    </row>
-    <row r="20" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL19" s="1">
+        <f t="shared" si="77"/>
+        <v>1.285344023180645</v>
+      </c>
+      <c r="AM19" s="1">
+        <f t="shared" si="77"/>
+        <v>1.6915389238975524</v>
+      </c>
+    </row>
+    <row r="20" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
@@ -2691,7 +2793,7 @@
         <v>2054.799</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" ref="M20" si="73">L20</f>
+        <f t="shared" ref="M20" si="78">L20</f>
         <v>2054.799</v>
       </c>
       <c r="N20" s="4">
@@ -2744,19 +2846,27 @@
         <v>2087.4094999999998</v>
       </c>
       <c r="AI20" s="3">
-        <f t="shared" ref="AI20" si="74">AH20</f>
+        <f t="shared" ref="AI20" si="79">AH20</f>
         <v>2087.4094999999998</v>
       </c>
       <c r="AJ20" s="3">
-        <f t="shared" ref="AJ20:AK20" si="75">AI20</f>
+        <f t="shared" ref="AJ20:AK20" si="80">AI20</f>
         <v>2087.4094999999998</v>
       </c>
       <c r="AK20" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>2087.4094999999998</v>
       </c>
-    </row>
-    <row r="23" spans="2:37" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL20" s="3">
+        <f t="shared" ref="AL20" si="81">AK20</f>
+        <v>2087.4094999999998</v>
+      </c>
+      <c r="AM20" s="3">
+        <f t="shared" ref="AM20" si="82">AL20</f>
+        <v>2087.4094999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:39" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
@@ -2786,59 +2896,59 @@
         <v>0.25920424233711881</v>
       </c>
       <c r="M23" s="10">
-        <f t="shared" ref="M23:O23" si="76">M7/I7-1</f>
+        <f t="shared" ref="M23:O23" si="83">M7/I7-1</f>
         <v>0.21862775598884077</v>
       </c>
       <c r="N23" s="10">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>0.17501218619113956</v>
       </c>
       <c r="O23" s="10">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>0.1766052733574246</v>
       </c>
       <c r="P23" s="10">
-        <f t="shared" ref="P23:T23" si="77">P7/L7-1</f>
+        <f t="shared" ref="P23:T23" si="84">P7/L7-1</f>
         <v>0.12749624743662924</v>
       </c>
       <c r="Q23" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>0.16798987193437687</v>
       </c>
       <c r="R23" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>0.19538205039479051</v>
       </c>
       <c r="S23" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>0.20783493847893864</v>
       </c>
       <c r="T23" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>0.2715401909183468</v>
       </c>
       <c r="U23" s="10">
-        <f t="shared" ref="U23" si="78">U7/Q7-1</f>
+        <f t="shared" ref="U23" si="85">U7/Q7-1</f>
         <v>0.2998375015004684</v>
       </c>
       <c r="V23" s="10">
-        <f t="shared" ref="V23:Z23" si="79">V7/R7-1</f>
+        <f t="shared" ref="V23:Z23" si="86">V7/R7-1</f>
         <v>0.36105098684210524</v>
       </c>
       <c r="W23" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>0.37150856483452044</v>
       </c>
       <c r="X23" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>0.35000000000000009</v>
       </c>
       <c r="Y23" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>0.35000000000000009</v>
       </c>
       <c r="Z23" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>0.35000000000000009</v>
       </c>
       <c r="AD23" s="12">
@@ -2862,140 +2972,156 @@
         <v>0.35476135636730266</v>
       </c>
       <c r="AI23" s="12">
-        <f t="shared" ref="AI23" si="80">AI7/AH7-1</f>
+        <f t="shared" ref="AI23" si="87">AI7/AH7-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="AJ23" s="12">
-        <f t="shared" ref="AJ23:AK23" si="81">AJ7/AI7-1</f>
+        <f t="shared" ref="AJ23:AK23" si="88">AJ7/AI7-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="AK23" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>0.19999999999999996</v>
       </c>
-    </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL23" s="12">
+        <f t="shared" ref="AL23" si="89">AL7/AK7-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AM23" s="12">
+        <f t="shared" ref="AM23" si="90">AM7/AL7-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" ref="D24:K24" si="82">D9/D7</f>
+        <f t="shared" ref="D24:K24" si="91">D9/D7</f>
         <v>0.72841211803611916</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="91"/>
         <v>0.48390619492269304</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="91"/>
         <v>0.78110844450791861</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="91"/>
         <v>0.78281472537906538</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="91"/>
         <v>0.75794506471587308</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="91"/>
         <v>0.77864366842961541</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="91"/>
         <v>0.79771384744043783</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="91"/>
         <v>0.78850337286073702</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" ref="L24:P24" si="83">L9/L7</f>
+        <f t="shared" ref="L24:P24" si="92">L9/L7</f>
         <v>0.78388617576795416</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>0.8</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>0.79491530089024498</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>0.79503452110299977</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v>0.79955823647099189</v>
       </c>
       <c r="Q24" s="8">
-        <f t="shared" ref="Q24:R24" si="84">Q9/Q7</f>
+        <f t="shared" ref="Q24:R24" si="93">Q9/Q7</f>
         <v>0.80664649320354953</v>
       </c>
       <c r="R24" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="93"/>
         <v>0.82131743421052628</v>
       </c>
       <c r="S24" s="8">
-        <f t="shared" ref="S24:W24" si="85">S9/S7</f>
+        <f t="shared" ref="S24:W24" si="94">S9/S7</f>
         <v>0.81672862101907817</v>
       </c>
       <c r="T24" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="94"/>
         <v>0.81041799998230435</v>
       </c>
       <c r="U24" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="94"/>
         <v>0.79788316177727303</v>
       </c>
       <c r="V24" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="94"/>
         <v>0.7890888305887841</v>
       </c>
       <c r="W24" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AC24" s="8">
-        <f t="shared" ref="AC24:AH24" si="86">AC9/AC7</f>
+        <f t="shared" ref="AC24:AH24" si="95">AC9/AC7</f>
         <v>0.67735360899372454</v>
       </c>
       <c r="AD24" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>0.77987779924495215</v>
       </c>
       <c r="AE24" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>0.8</v>
       </c>
       <c r="AF24" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>0.8</v>
       </c>
       <c r="AG24" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="AH24" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v>0.8</v>
       </c>
       <c r="AI24" s="8">
-        <f t="shared" ref="AI24" si="87">AI9/AI7</f>
+        <f t="shared" ref="AI24" si="96">AI9/AI7</f>
         <v>0.8</v>
       </c>
       <c r="AJ24" s="8">
-        <f t="shared" ref="AJ24:AK24" si="88">AJ9/AJ7</f>
+        <f t="shared" ref="AJ24:AK24" si="97">AJ9/AJ7</f>
         <v>0.8</v>
       </c>
       <c r="AK24" s="8">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="26" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL24" s="8">
+        <f t="shared" ref="AL24:AM24" si="98">AL9/AL7</f>
+        <v>0.8</v>
+      </c>
+      <c r="AM24" s="8">
+        <f t="shared" si="98"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>3</v>
       </c>
@@ -3051,7 +3177,7 @@
         <v>3674.1790000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>34</v>
       </c>
@@ -3097,7 +3223,7 @@
         <v>364.78399999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>35</v>
       </c>
@@ -3143,7 +3269,7 @@
         <v>99.655000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>36</v>
       </c>
@@ -3189,7 +3315,7 @@
         <v>47.758000000000003</v>
       </c>
     </row>
-    <row r="30" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>37</v>
       </c>
@@ -3235,7 +3361,7 @@
         <v>182.863</v>
       </c>
     </row>
-    <row r="31" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>38</v>
       </c>
@@ -3281,7 +3407,7 @@
         <v>153.18600000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>39</v>
       </c>
@@ -3301,35 +3427,35 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4">
-        <f t="shared" ref="O32:V32" si="89">SUM(O26:O31)</f>
+        <f t="shared" ref="O32:V32" si="99">SUM(O26:O31)</f>
         <v>3683.1379999999995</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>3980.2640000000001</v>
       </c>
       <c r="Q32" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>4193.4169999999995</v>
       </c>
       <c r="R32" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>4522.4250000000002</v>
       </c>
       <c r="S32" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>4807.0790000000006</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>5191.8800000000019</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>5768.0969999999998</v>
       </c>
       <c r="V32" s="4">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>6340.8839999999991</v>
       </c>
       <c r="AF32" s="4">
@@ -3712,35 +3838,35 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4">
-        <f t="shared" ref="O41:V41" si="90">SUM(O34:O40)</f>
+        <f t="shared" ref="O41:V41" si="100">SUM(O34:O40)</f>
         <v>3683.1379999999999</v>
       </c>
       <c r="P41" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>3980.2639999999997</v>
       </c>
       <c r="Q41" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>4193.4169999999995</v>
       </c>
       <c r="R41" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>4522.4250000000002</v>
       </c>
       <c r="S41" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>4807.0789999999997</v>
       </c>
       <c r="T41" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>5191.8799999999992</v>
       </c>
       <c r="U41" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>5768.0969999999998</v>
       </c>
       <c r="V41" s="4">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>6340.884</v>
       </c>
       <c r="AF41" s="4">
@@ -4355,11 +4481,11 @@
         <v>-310.44200000000001</v>
       </c>
       <c r="T64" s="4">
-        <f t="shared" ref="T64:U64" si="91">+T63+T62+T57+T52</f>
+        <f t="shared" ref="T64:U64" si="101">+T63+T62+T57+T52</f>
         <v>-7.5899999999999466</v>
       </c>
       <c r="U64" s="4">
-        <f t="shared" si="91"/>
+        <f t="shared" si="101"/>
         <v>256.38099999999974</v>
       </c>
     </row>

--- a/PLTR.xlsx
+++ b/PLTR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859F9C23-5206-4AFB-B1E0-78A315386975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35D6F9F-9ABC-4A01-ABC9-4A0100BE3F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27600" yWindow="1395" windowWidth="25155" windowHeight="19005" activeTab="1" xr2:uid="{AE04E6E4-A652-4DFB-A34B-BE287D9B2752}"/>
+    <workbookView xWindow="32430" yWindow="2580" windowWidth="31160" windowHeight="12460" activeTab="1" xr2:uid="{AE04E6E4-A652-4DFB-A34B-BE287D9B2752}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -511,16 +511,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>43542</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>13606</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>36286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>43542</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>13606</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -535,8 +535,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17147721" y="0"/>
-          <a:ext cx="0" cy="8654143"/>
+          <a:off x="19984356" y="36286"/>
+          <a:ext cx="0" cy="9688285"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -861,9 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144E9D3E-317D-4992-A1EC-7C2CA7695A60}">
   <dimension ref="B2:M9"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -875,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -898,7 +896,7 @@
       </c>
       <c r="L4" s="3">
         <f>L3*L2</f>
-        <v>202240</v>
+        <v>240160</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -947,7 +945,7 @@
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>197010</v>
+        <v>234930</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -985,10 +983,10 @@
   <dimension ref="A1:AM73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="S12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM7" sqref="AM7"/>
+      <selection pane="bottomRight" activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/PLTR.xlsx
+++ b/PLTR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32FA701-2213-4F2A-B540-1B4AA6A8F23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BD9731-ED1E-4DDF-B42D-E52B0D52ECC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45840" yWindow="4420" windowWidth="27740" windowHeight="15810" activeTab="1" xr2:uid="{AE04E6E4-A652-4DFB-A34B-BE287D9B2752}"/>
+    <workbookView xWindow="1090" yWindow="2110" windowWidth="22760" windowHeight="13530" xr2:uid="{AE04E6E4-A652-4DFB-A34B-BE287D9B2752}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1006,9 +1006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144E9D3E-317D-4992-A1EC-7C2CA7695A60}">
   <dimension ref="B2:M13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1160,11 +1158,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CE0236-0D83-41C7-BB37-83829D679D7F}">
   <dimension ref="A1:AM84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AE50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X31" sqref="X31"/>
+      <selection pane="bottomRight" activeCell="AJ63" sqref="AJ63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4592,7 +4590,7 @@
         <v>239.21899999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>46</v>
       </c>
@@ -4645,7 +4643,7 @@
         <v>13.685</v>
       </c>
     </row>
-    <row r="50" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>44</v>
       </c>
@@ -4698,7 +4696,7 @@
         <v>5094.4070000000002</v>
       </c>
     </row>
-    <row r="51" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>45</v>
       </c>
@@ -4762,10 +4760,10 @@
         <v>6340.884</v>
       </c>
     </row>
-    <row r="52" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:36" x14ac:dyDescent="0.25">
       <c r="W52" s="3"/>
     </row>
-    <row r="53" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>56</v>
       </c>
@@ -4811,7 +4809,7 @@
         <v>1086.9870000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>57</v>
       </c>
@@ -4851,7 +4849,7 @@
         <v>467.91800000000001</v>
       </c>
     </row>
-    <row r="55" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>58</v>
       </c>
@@ -4891,7 +4889,7 @@
         <v>31.586999999999996</v>
       </c>
     </row>
-    <row r="56" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>59</v>
       </c>
@@ -4931,7 +4929,7 @@
         <v>691.63800000000003</v>
       </c>
     </row>
-    <row r="57" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>37</v>
       </c>
@@ -4971,7 +4969,7 @@
         <v>41.238999999999997</v>
       </c>
     </row>
-    <row r="58" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>60</v>
       </c>
@@ -5011,7 +5009,7 @@
         <v>19.306000000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>61</v>
       </c>
@@ -5051,7 +5049,7 @@
         <v>-52.521000000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>38</v>
       </c>
@@ -5094,7 +5092,7 @@
         <v>24.795000000000002</v>
       </c>
     </row>
-    <row r="61" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>62</v>
       </c>
@@ -5158,7 +5156,7 @@
         <v>-70.097000000000051</v>
       </c>
     </row>
-    <row r="62" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>47</v>
       </c>
@@ -5210,14 +5208,17 @@
         <v>1153.8650000000002</v>
       </c>
       <c r="AH62" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="AI62" s="3">
-        <f>+AH62*1.5</f>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="63" spans="2:35" s="18" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+        <v>4000</v>
+      </c>
+      <c r="AJ62">
+        <f>+AI62*1.5</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:36" s="18" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
@@ -5253,10 +5254,14 @@
       </c>
       <c r="AH63" s="23">
         <f>AH62/AG62-1</f>
-        <v>0.55997452041616613</v>
+        <v>0.90663552495309196</v>
       </c>
       <c r="AI63" s="23">
         <f>AI62/AH62-1</f>
+        <v>0.81818181818181812</v>
+      </c>
+      <c r="AJ63" s="23">
+        <f>AJ62/AI62-1</f>
         <v>0.5</v>
       </c>
     </row>
